--- a/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>ATHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1037800</v>
+        <v>1178600</v>
       </c>
       <c r="E8" s="3">
-        <v>891000</v>
+        <v>1012400</v>
       </c>
       <c r="F8" s="3">
-        <v>855400</v>
+        <v>869200</v>
       </c>
       <c r="G8" s="3">
-        <v>497000</v>
+        <v>834400</v>
       </c>
       <c r="H8" s="3">
-        <v>306000</v>
+        <v>484800</v>
       </c>
       <c r="I8" s="3">
-        <v>174600</v>
+        <v>298500</v>
       </c>
       <c r="J8" s="3">
+        <v>170300</v>
+      </c>
+      <c r="K8" s="3">
         <v>105100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>63000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>84400</v>
+        <v>107800</v>
       </c>
       <c r="E9" s="3">
-        <v>125400</v>
+        <v>82300</v>
       </c>
       <c r="F9" s="3">
-        <v>293200</v>
+        <v>122300</v>
       </c>
       <c r="G9" s="3">
-        <v>54600</v>
+        <v>286000</v>
       </c>
       <c r="H9" s="3">
-        <v>27300</v>
+        <v>53200</v>
       </c>
       <c r="I9" s="3">
-        <v>20600</v>
+        <v>26600</v>
       </c>
       <c r="J9" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K9" s="3">
         <v>25600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>953400</v>
+        <v>1070700</v>
       </c>
       <c r="E10" s="3">
-        <v>765700</v>
+        <v>930000</v>
       </c>
       <c r="F10" s="3">
-        <v>562100</v>
+        <v>746900</v>
       </c>
       <c r="G10" s="3">
-        <v>442500</v>
+        <v>548300</v>
       </c>
       <c r="H10" s="3">
-        <v>278700</v>
+        <v>431600</v>
       </c>
       <c r="I10" s="3">
-        <v>154000</v>
+        <v>271900</v>
       </c>
       <c r="J10" s="3">
+        <v>150200</v>
+      </c>
+      <c r="K10" s="3">
         <v>79500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>44000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>162900</v>
+        <v>180700</v>
       </c>
       <c r="E12" s="3">
-        <v>126100</v>
+        <v>158900</v>
       </c>
       <c r="F12" s="3">
-        <v>82000</v>
+        <v>123000</v>
       </c>
       <c r="G12" s="3">
-        <v>39300</v>
+        <v>80000</v>
       </c>
       <c r="H12" s="3">
-        <v>22700</v>
+        <v>38300</v>
       </c>
       <c r="I12" s="3">
-        <v>11700</v>
+        <v>22200</v>
       </c>
       <c r="J12" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K12" s="3">
         <v>6200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2400</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -901,9 +920,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>675200</v>
+        <v>792500</v>
       </c>
       <c r="E17" s="3">
-        <v>597900</v>
+        <v>658600</v>
       </c>
       <c r="F17" s="3">
-        <v>689900</v>
+        <v>583200</v>
       </c>
       <c r="G17" s="3">
-        <v>324900</v>
+        <v>673000</v>
       </c>
       <c r="H17" s="3">
-        <v>176300</v>
+        <v>316900</v>
       </c>
       <c r="I17" s="3">
-        <v>94900</v>
+        <v>172000</v>
       </c>
       <c r="J17" s="3">
+        <v>92600</v>
+      </c>
+      <c r="K17" s="3">
         <v>62300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>362700</v>
+        <v>386000</v>
       </c>
       <c r="E18" s="3">
-        <v>293200</v>
+        <v>353800</v>
       </c>
       <c r="F18" s="3">
-        <v>165500</v>
+        <v>286000</v>
       </c>
       <c r="G18" s="3">
-        <v>172100</v>
+        <v>161400</v>
       </c>
       <c r="H18" s="3">
-        <v>129700</v>
+        <v>167900</v>
       </c>
       <c r="I18" s="3">
-        <v>79600</v>
+        <v>126600</v>
       </c>
       <c r="J18" s="3">
+        <v>77700</v>
+      </c>
+      <c r="K18" s="3">
         <v>42800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>25000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>102400</v>
+        <v>132000</v>
       </c>
       <c r="E20" s="3">
-        <v>31300</v>
+        <v>99900</v>
       </c>
       <c r="F20" s="3">
-        <v>13700</v>
+        <v>30600</v>
       </c>
       <c r="G20" s="3">
-        <v>11000</v>
+        <v>13400</v>
       </c>
       <c r="H20" s="3">
-        <v>5300</v>
+        <v>10700</v>
       </c>
       <c r="I20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>479700</v>
+        <v>534500</v>
       </c>
       <c r="E21" s="3">
-        <v>337200</v>
+        <v>467900</v>
       </c>
       <c r="F21" s="3">
-        <v>189200</v>
+        <v>328900</v>
       </c>
       <c r="G21" s="3">
-        <v>191200</v>
+        <v>184500</v>
       </c>
       <c r="H21" s="3">
-        <v>141000</v>
+        <v>186500</v>
       </c>
       <c r="I21" s="3">
-        <v>86200</v>
+        <v>137500</v>
       </c>
       <c r="J21" s="3">
+        <v>84100</v>
+      </c>
+      <c r="K21" s="3">
         <v>47100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>30500</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1091,84 +1130,93 @@
       <c r="F22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>465100</v>
+        <v>518000</v>
       </c>
       <c r="E23" s="3">
-        <v>324500</v>
+        <v>453700</v>
       </c>
       <c r="F23" s="3">
-        <v>179200</v>
+        <v>316500</v>
       </c>
       <c r="G23" s="3">
-        <v>183100</v>
+        <v>174800</v>
       </c>
       <c r="H23" s="3">
-        <v>135100</v>
+        <v>178600</v>
       </c>
       <c r="I23" s="3">
-        <v>81600</v>
+        <v>131800</v>
       </c>
       <c r="J23" s="3">
+        <v>79600</v>
+      </c>
+      <c r="K23" s="3">
         <v>43600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>25300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54200</v>
+        <v>70000</v>
       </c>
       <c r="E24" s="3">
-        <v>38300</v>
+        <v>52900</v>
       </c>
       <c r="F24" s="3">
-        <v>4700</v>
+        <v>37400</v>
       </c>
       <c r="G24" s="3">
-        <v>41000</v>
+        <v>4600</v>
       </c>
       <c r="H24" s="3">
-        <v>27700</v>
+        <v>40000</v>
       </c>
       <c r="I24" s="3">
-        <v>16100</v>
+        <v>27000</v>
       </c>
       <c r="J24" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K24" s="3">
         <v>13100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5600</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>410900</v>
+        <v>448000</v>
       </c>
       <c r="E26" s="3">
-        <v>286200</v>
+        <v>400800</v>
       </c>
       <c r="F26" s="3">
-        <v>174500</v>
+        <v>279100</v>
       </c>
       <c r="G26" s="3">
-        <v>142100</v>
+        <v>170200</v>
       </c>
       <c r="H26" s="3">
-        <v>107400</v>
+        <v>138700</v>
       </c>
       <c r="I26" s="3">
-        <v>65500</v>
+        <v>104800</v>
       </c>
       <c r="J26" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K26" s="3">
         <v>30500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>411900</v>
+        <v>447900</v>
       </c>
       <c r="E27" s="3">
-        <v>287200</v>
+        <v>401800</v>
       </c>
       <c r="F27" s="3">
-        <v>176200</v>
+        <v>280100</v>
       </c>
       <c r="G27" s="3">
-        <v>142100</v>
+        <v>171900</v>
       </c>
       <c r="H27" s="3">
-        <v>107400</v>
+        <v>138700</v>
       </c>
       <c r="I27" s="3">
-        <v>65500</v>
+        <v>104800</v>
       </c>
       <c r="J27" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K27" s="3">
         <v>30500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19700</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,26 +1343,29 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>17</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1314,11 +1374,14 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-600</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-102400</v>
+        <v>-132000</v>
       </c>
       <c r="E32" s="3">
-        <v>-31300</v>
+        <v>-99900</v>
       </c>
       <c r="F32" s="3">
-        <v>-13700</v>
+        <v>-30600</v>
       </c>
       <c r="G32" s="3">
-        <v>-11000</v>
+        <v>-13400</v>
       </c>
       <c r="H32" s="3">
-        <v>-5300</v>
+        <v>-10700</v>
       </c>
       <c r="I32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>411900</v>
+        <v>447900</v>
       </c>
       <c r="E33" s="3">
-        <v>287200</v>
+        <v>401800</v>
       </c>
       <c r="F33" s="3">
-        <v>176200</v>
+        <v>280100</v>
       </c>
       <c r="G33" s="3">
-        <v>142100</v>
+        <v>171900</v>
       </c>
       <c r="H33" s="3">
-        <v>107400</v>
+        <v>138700</v>
       </c>
       <c r="I33" s="3">
-        <v>65500</v>
+        <v>104800</v>
       </c>
       <c r="J33" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K33" s="3">
         <v>30500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>411900</v>
+        <v>447900</v>
       </c>
       <c r="E35" s="3">
-        <v>287200</v>
+        <v>401800</v>
       </c>
       <c r="F35" s="3">
-        <v>176200</v>
+        <v>280100</v>
       </c>
       <c r="G35" s="3">
-        <v>142100</v>
+        <v>171900</v>
       </c>
       <c r="H35" s="3">
-        <v>107400</v>
+        <v>138700</v>
       </c>
       <c r="I35" s="3">
-        <v>65500</v>
+        <v>104800</v>
       </c>
       <c r="J35" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K35" s="3">
         <v>30500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,58 +1645,62 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30400</v>
+        <v>278700</v>
       </c>
       <c r="E41" s="3">
-        <v>130800</v>
+        <v>29700</v>
       </c>
       <c r="F41" s="3">
-        <v>472600</v>
+        <v>127800</v>
       </c>
       <c r="G41" s="3">
-        <v>308900</v>
+        <v>461700</v>
       </c>
       <c r="H41" s="3">
-        <v>151300</v>
+        <v>301700</v>
       </c>
       <c r="I41" s="3">
-        <v>163400</v>
+        <v>147800</v>
       </c>
       <c r="J41" s="3">
+        <v>159600</v>
+      </c>
+      <c r="K41" s="3">
         <v>60300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1414200</v>
+        <v>1517400</v>
       </c>
       <c r="E42" s="3">
-        <v>1040900</v>
+        <v>1381400</v>
       </c>
       <c r="F42" s="3">
-        <v>348900</v>
+        <v>1016800</v>
       </c>
       <c r="G42" s="3">
-        <v>282000</v>
+        <v>340800</v>
       </c>
       <c r="H42" s="3">
-        <v>246600</v>
+        <v>275500</v>
       </c>
       <c r="I42" s="3">
-        <v>300</v>
+        <v>240900</v>
       </c>
       <c r="J42" s="3">
         <v>300</v>
@@ -1619,56 +1708,62 @@
       <c r="K42" s="3">
         <v>300</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>300</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>401100</v>
+        <v>457100</v>
       </c>
       <c r="E43" s="3">
-        <v>271700</v>
+        <v>396600</v>
       </c>
       <c r="F43" s="3">
-        <v>353300</v>
+        <v>268900</v>
       </c>
       <c r="G43" s="3">
-        <v>161400</v>
+        <v>348000</v>
       </c>
       <c r="H43" s="3">
-        <v>109800</v>
+        <v>157900</v>
       </c>
       <c r="I43" s="3">
-        <v>67200</v>
+        <v>107300</v>
       </c>
       <c r="J43" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K43" s="3">
         <v>46900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30200</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F44" s="3">
-        <v>13700</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>16000</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>17</v>
+        <v>13400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>15700</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>17</v>
@@ -1679,86 +1774,95 @@
       <c r="K44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>39800</v>
+        <v>39700</v>
       </c>
       <c r="E45" s="3">
-        <v>28500</v>
+        <v>34100</v>
       </c>
       <c r="F45" s="3">
-        <v>119300</v>
+        <v>24400</v>
       </c>
       <c r="G45" s="3">
-        <v>55700</v>
+        <v>113600</v>
       </c>
       <c r="H45" s="3">
-        <v>14700</v>
+        <v>54200</v>
       </c>
       <c r="I45" s="3">
-        <v>41700</v>
+        <v>14400</v>
       </c>
       <c r="J45" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K45" s="3">
         <v>5300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1885500</v>
+        <v>2292800</v>
       </c>
       <c r="E46" s="3">
-        <v>1471900</v>
+        <v>1841900</v>
       </c>
       <c r="F46" s="3">
-        <v>1066400</v>
+        <v>1437800</v>
       </c>
       <c r="G46" s="3">
-        <v>823900</v>
+        <v>1041700</v>
       </c>
       <c r="H46" s="3">
-        <v>522400</v>
+        <v>804900</v>
       </c>
       <c r="I46" s="3">
-        <v>272500</v>
+        <v>510300</v>
       </c>
       <c r="J46" s="3">
+        <v>266200</v>
+      </c>
+      <c r="K46" s="3">
         <v>112800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>65700</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E47" s="3">
         <v>10200</v>
       </c>
-      <c r="E47" s="3">
-        <v>21200</v>
-      </c>
       <c r="F47" s="3">
-        <v>19300</v>
+        <v>22300</v>
       </c>
       <c r="G47" s="3">
-        <v>17800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>17</v>
+        <v>19000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>17400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>17</v>
@@ -1769,69 +1873,78 @@
       <c r="K47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24400</v>
+        <v>50900</v>
       </c>
       <c r="E48" s="3">
-        <v>18700</v>
+        <v>23900</v>
       </c>
       <c r="F48" s="3">
-        <v>38600</v>
+        <v>18300</v>
       </c>
       <c r="G48" s="3">
-        <v>14900</v>
+        <v>37700</v>
       </c>
       <c r="H48" s="3">
-        <v>10700</v>
+        <v>14500</v>
       </c>
       <c r="I48" s="3">
-        <v>8300</v>
+        <v>10500</v>
       </c>
       <c r="J48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K48" s="3">
         <v>5700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>221500</v>
+        <v>214700</v>
       </c>
       <c r="E49" s="3">
-        <v>223100</v>
+        <v>216400</v>
       </c>
       <c r="F49" s="3">
-        <v>440200</v>
+        <v>218000</v>
       </c>
       <c r="G49" s="3">
-        <v>220700</v>
+        <v>430000</v>
       </c>
       <c r="H49" s="3">
-        <v>221500</v>
+        <v>215600</v>
       </c>
       <c r="I49" s="3">
-        <v>222300</v>
+        <v>216400</v>
       </c>
       <c r="J49" s="3">
+        <v>217200</v>
+      </c>
+      <c r="K49" s="3">
         <v>222900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>227400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>119100</v>
+        <v>115800</v>
       </c>
       <c r="E52" s="3">
-        <v>29100</v>
+        <v>116100</v>
       </c>
       <c r="F52" s="3">
-        <v>22600</v>
+        <v>26900</v>
       </c>
       <c r="G52" s="3">
-        <v>3100</v>
+        <v>21900</v>
       </c>
       <c r="H52" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="I52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J52" s="3">
         <v>900</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2260700</v>
+        <v>2684900</v>
       </c>
       <c r="E54" s="3">
-        <v>1764100</v>
+        <v>2208400</v>
       </c>
       <c r="F54" s="3">
-        <v>1347600</v>
+        <v>1723300</v>
       </c>
       <c r="G54" s="3">
-        <v>1080400</v>
+        <v>1316400</v>
       </c>
       <c r="H54" s="3">
-        <v>757400</v>
+        <v>1055400</v>
       </c>
       <c r="I54" s="3">
-        <v>504000</v>
+        <v>739800</v>
       </c>
       <c r="J54" s="3">
+        <v>492400</v>
+      </c>
+      <c r="K54" s="3">
         <v>341400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>297100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,128 +2137,141 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2900</v>
+        <v>5100</v>
       </c>
       <c r="E57" s="3">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="F57" s="3">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="G57" s="3">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F58" s="3">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>25100</v>
+        <v>4400</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>24500</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>594700</v>
+        <v>550800</v>
       </c>
       <c r="E59" s="3">
-        <v>556600</v>
+        <v>580900</v>
       </c>
       <c r="F59" s="3">
-        <v>523400</v>
+        <v>543700</v>
       </c>
       <c r="G59" s="3">
-        <v>281000</v>
+        <v>511300</v>
       </c>
       <c r="H59" s="3">
-        <v>155000</v>
+        <v>274500</v>
       </c>
       <c r="I59" s="3">
-        <v>112900</v>
+        <v>151500</v>
       </c>
       <c r="J59" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K59" s="3">
         <v>48300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>597600</v>
+        <v>555900</v>
       </c>
       <c r="E60" s="3">
-        <v>558000</v>
+        <v>583700</v>
       </c>
       <c r="F60" s="3">
-        <v>365000</v>
+        <v>545100</v>
       </c>
       <c r="G60" s="3">
-        <v>309400</v>
+        <v>356600</v>
       </c>
       <c r="H60" s="3">
-        <v>155100</v>
+        <v>302300</v>
       </c>
       <c r="I60" s="3">
-        <v>113300</v>
+        <v>151500</v>
       </c>
       <c r="J60" s="3">
+        <v>110700</v>
+      </c>
+      <c r="K60" s="3">
         <v>48300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2157,39 +2299,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>68900</v>
+        <v>81900</v>
       </c>
       <c r="E62" s="3">
-        <v>67500</v>
+        <v>67300</v>
       </c>
       <c r="F62" s="3">
-        <v>71300</v>
+        <v>65900</v>
       </c>
       <c r="G62" s="3">
-        <v>75000</v>
+        <v>69600</v>
       </c>
       <c r="H62" s="3">
-        <v>76400</v>
+        <v>73200</v>
       </c>
       <c r="I62" s="3">
-        <v>73300</v>
+        <v>74600</v>
       </c>
       <c r="J62" s="3">
-        <v>69600</v>
+        <v>71600</v>
       </c>
       <c r="K62" s="3">
         <v>69600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>69600</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>663000</v>
+        <v>634500</v>
       </c>
       <c r="E66" s="3">
-        <v>623200</v>
+        <v>647700</v>
       </c>
       <c r="F66" s="3">
-        <v>435000</v>
+        <v>608800</v>
       </c>
       <c r="G66" s="3">
-        <v>384400</v>
+        <v>424900</v>
       </c>
       <c r="H66" s="3">
-        <v>231400</v>
+        <v>375500</v>
       </c>
       <c r="I66" s="3">
-        <v>186600</v>
+        <v>226100</v>
       </c>
       <c r="J66" s="3">
+        <v>182300</v>
+      </c>
+      <c r="K66" s="3">
         <v>117900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>99300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1075900</v>
+        <v>1499500</v>
       </c>
       <c r="E72" s="3">
-        <v>663900</v>
+        <v>1051000</v>
       </c>
       <c r="F72" s="3">
-        <v>462200</v>
+        <v>648600</v>
       </c>
       <c r="G72" s="3">
-        <v>286000</v>
+        <v>451500</v>
       </c>
       <c r="H72" s="3">
-        <v>143900</v>
+        <v>279400</v>
       </c>
       <c r="I72" s="3">
-        <v>36500</v>
+        <v>140600</v>
       </c>
       <c r="J72" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K72" s="3">
         <v>60600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>37000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1597700</v>
+        <v>2050400</v>
       </c>
       <c r="E76" s="3">
-        <v>1140900</v>
+        <v>1560700</v>
       </c>
       <c r="F76" s="3">
-        <v>912600</v>
+        <v>1114500</v>
       </c>
       <c r="G76" s="3">
-        <v>696000</v>
+        <v>891500</v>
       </c>
       <c r="H76" s="3">
-        <v>525900</v>
+        <v>679900</v>
       </c>
       <c r="I76" s="3">
-        <v>317400</v>
+        <v>513700</v>
       </c>
       <c r="J76" s="3">
+        <v>310100</v>
+      </c>
+      <c r="K76" s="3">
         <v>223500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>197800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>411900</v>
+        <v>447900</v>
       </c>
       <c r="E81" s="3">
-        <v>287200</v>
+        <v>401800</v>
       </c>
       <c r="F81" s="3">
-        <v>176200</v>
+        <v>280100</v>
       </c>
       <c r="G81" s="3">
-        <v>142100</v>
+        <v>171900</v>
       </c>
       <c r="H81" s="3">
-        <v>107400</v>
+        <v>138700</v>
       </c>
       <c r="I81" s="3">
-        <v>65500</v>
+        <v>104800</v>
       </c>
       <c r="J81" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K81" s="3">
         <v>30500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14600</v>
+        <v>16600</v>
       </c>
       <c r="E83" s="3">
-        <v>12700</v>
+        <v>14300</v>
       </c>
       <c r="F83" s="3">
-        <v>10000</v>
+        <v>12400</v>
       </c>
       <c r="G83" s="3">
-        <v>8100</v>
+        <v>9800</v>
       </c>
       <c r="H83" s="3">
-        <v>5900</v>
+        <v>7900</v>
       </c>
       <c r="I83" s="3">
-        <v>4600</v>
+        <v>5800</v>
       </c>
       <c r="J83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K83" s="3">
         <v>3500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>446400</v>
+        <v>404400</v>
       </c>
       <c r="E89" s="3">
-        <v>353500</v>
+        <v>435500</v>
       </c>
       <c r="F89" s="3">
-        <v>225900</v>
+        <v>344800</v>
       </c>
       <c r="G89" s="3">
-        <v>209700</v>
+        <v>220300</v>
       </c>
       <c r="H89" s="3">
-        <v>146900</v>
+        <v>204600</v>
       </c>
       <c r="I89" s="3">
-        <v>85200</v>
+        <v>143300</v>
       </c>
       <c r="J89" s="3">
+        <v>83100</v>
+      </c>
+      <c r="K89" s="3">
         <v>40100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16300</v>
+        <v>-28600</v>
       </c>
       <c r="E91" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-12400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-12800</v>
-      </c>
       <c r="H91" s="3">
-        <v>-6100</v>
+        <v>-12500</v>
       </c>
       <c r="I91" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="J91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-473700</v>
+        <v>-163500</v>
       </c>
       <c r="E94" s="3">
-        <v>-705000</v>
+        <v>-462000</v>
       </c>
       <c r="F94" s="3">
-        <v>-73900</v>
+        <v>-687700</v>
       </c>
       <c r="G94" s="3">
-        <v>-58500</v>
+        <v>-72100</v>
       </c>
       <c r="H94" s="3">
-        <v>-252500</v>
+        <v>-57100</v>
       </c>
       <c r="I94" s="3">
-        <v>-6600</v>
+        <v>-246300</v>
       </c>
       <c r="J94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1800</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,16 +3291,17 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-85500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-83400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3080,17 +3313,20 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-31700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-78000</v>
+        <v>9600</v>
       </c>
       <c r="E100" s="3">
-        <v>8800</v>
+        <v>-76100</v>
       </c>
       <c r="F100" s="3">
-        <v>4000</v>
+        <v>8500</v>
       </c>
       <c r="G100" s="3">
-        <v>4300</v>
+        <v>3900</v>
       </c>
       <c r="H100" s="3">
-        <v>92900</v>
+        <v>4200</v>
       </c>
       <c r="I100" s="3">
-        <v>24300</v>
+        <v>90600</v>
       </c>
       <c r="J100" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13700</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5600</v>
+        <v>-1900</v>
       </c>
       <c r="E101" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
-        <v>2000</v>
-      </c>
       <c r="H101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-99700</v>
+        <v>248600</v>
       </c>
       <c r="E102" s="3">
-        <v>-343200</v>
+        <v>-97200</v>
       </c>
       <c r="F102" s="3">
-        <v>156300</v>
+        <v>-334700</v>
       </c>
       <c r="G102" s="3">
-        <v>157600</v>
+        <v>152500</v>
       </c>
       <c r="H102" s="3">
-        <v>-12100</v>
+        <v>153700</v>
       </c>
       <c r="I102" s="3">
-        <v>103000</v>
+        <v>-11800</v>
       </c>
       <c r="J102" s="3">
+        <v>100500</v>
+      </c>
+      <c r="K102" s="3">
         <v>29700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1178600</v>
+        <v>1222900</v>
       </c>
       <c r="E8" s="3">
-        <v>1012400</v>
+        <v>1050500</v>
       </c>
       <c r="F8" s="3">
-        <v>869200</v>
+        <v>901900</v>
       </c>
       <c r="G8" s="3">
-        <v>834400</v>
+        <v>865800</v>
       </c>
       <c r="H8" s="3">
-        <v>484800</v>
+        <v>503100</v>
       </c>
       <c r="I8" s="3">
-        <v>298500</v>
+        <v>309800</v>
       </c>
       <c r="J8" s="3">
-        <v>170300</v>
+        <v>176700</v>
       </c>
       <c r="K8" s="3">
         <v>105100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>107800</v>
+        <v>111900</v>
       </c>
       <c r="E9" s="3">
-        <v>82300</v>
+        <v>85400</v>
       </c>
       <c r="F9" s="3">
-        <v>122300</v>
+        <v>126900</v>
       </c>
       <c r="G9" s="3">
-        <v>286000</v>
+        <v>296800</v>
       </c>
       <c r="H9" s="3">
-        <v>53200</v>
+        <v>55200</v>
       </c>
       <c r="I9" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="J9" s="3">
-        <v>20100</v>
+        <v>20800</v>
       </c>
       <c r="K9" s="3">
         <v>25600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1070700</v>
+        <v>1111100</v>
       </c>
       <c r="E10" s="3">
-        <v>930000</v>
+        <v>965000</v>
       </c>
       <c r="F10" s="3">
-        <v>746900</v>
+        <v>775000</v>
       </c>
       <c r="G10" s="3">
-        <v>548300</v>
+        <v>569000</v>
       </c>
       <c r="H10" s="3">
-        <v>431600</v>
+        <v>447900</v>
       </c>
       <c r="I10" s="3">
-        <v>271900</v>
+        <v>282100</v>
       </c>
       <c r="J10" s="3">
-        <v>150200</v>
+        <v>155800</v>
       </c>
       <c r="K10" s="3">
         <v>79500</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>180700</v>
+        <v>187500</v>
       </c>
       <c r="E12" s="3">
-        <v>158900</v>
+        <v>164900</v>
       </c>
       <c r="F12" s="3">
-        <v>123000</v>
+        <v>127600</v>
       </c>
       <c r="G12" s="3">
-        <v>80000</v>
+        <v>83000</v>
       </c>
       <c r="H12" s="3">
-        <v>38300</v>
+        <v>39800</v>
       </c>
       <c r="I12" s="3">
-        <v>22200</v>
+        <v>23000</v>
       </c>
       <c r="J12" s="3">
-        <v>11400</v>
+        <v>11900</v>
       </c>
       <c r="K12" s="3">
         <v>6200</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>792500</v>
+        <v>822400</v>
       </c>
       <c r="E17" s="3">
-        <v>658600</v>
+        <v>683400</v>
       </c>
       <c r="F17" s="3">
-        <v>583200</v>
+        <v>605200</v>
       </c>
       <c r="G17" s="3">
-        <v>673000</v>
+        <v>698300</v>
       </c>
       <c r="H17" s="3">
-        <v>316900</v>
+        <v>328800</v>
       </c>
       <c r="I17" s="3">
-        <v>172000</v>
+        <v>178400</v>
       </c>
       <c r="J17" s="3">
-        <v>92600</v>
+        <v>96100</v>
       </c>
       <c r="K17" s="3">
         <v>62300</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>386000</v>
+        <v>400600</v>
       </c>
       <c r="E18" s="3">
-        <v>353800</v>
+        <v>367100</v>
       </c>
       <c r="F18" s="3">
-        <v>286000</v>
+        <v>296700</v>
       </c>
       <c r="G18" s="3">
-        <v>161400</v>
+        <v>167500</v>
       </c>
       <c r="H18" s="3">
-        <v>167900</v>
+        <v>174200</v>
       </c>
       <c r="I18" s="3">
-        <v>126600</v>
+        <v>131300</v>
       </c>
       <c r="J18" s="3">
-        <v>77700</v>
+        <v>80600</v>
       </c>
       <c r="K18" s="3">
         <v>42800</v>
@@ -1056,22 +1056,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>132000</v>
+        <v>136900</v>
       </c>
       <c r="E20" s="3">
-        <v>99900</v>
+        <v>103700</v>
       </c>
       <c r="F20" s="3">
-        <v>30600</v>
+        <v>31700</v>
       </c>
       <c r="G20" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="H20" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="I20" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J20" s="3">
         <v>2000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>534500</v>
+        <v>554700</v>
       </c>
       <c r="E21" s="3">
-        <v>467900</v>
+        <v>485500</v>
       </c>
       <c r="F21" s="3">
-        <v>328900</v>
+        <v>341300</v>
       </c>
       <c r="G21" s="3">
-        <v>184500</v>
+        <v>191500</v>
       </c>
       <c r="H21" s="3">
-        <v>186500</v>
+        <v>193500</v>
       </c>
       <c r="I21" s="3">
-        <v>137500</v>
+        <v>142700</v>
       </c>
       <c r="J21" s="3">
-        <v>84100</v>
+        <v>87200</v>
       </c>
       <c r="K21" s="3">
         <v>47100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>518000</v>
+        <v>537500</v>
       </c>
       <c r="E23" s="3">
-        <v>453700</v>
+        <v>470800</v>
       </c>
       <c r="F23" s="3">
-        <v>316500</v>
+        <v>328400</v>
       </c>
       <c r="G23" s="3">
-        <v>174800</v>
+        <v>181400</v>
       </c>
       <c r="H23" s="3">
-        <v>178600</v>
+        <v>185300</v>
       </c>
       <c r="I23" s="3">
-        <v>131800</v>
+        <v>136700</v>
       </c>
       <c r="J23" s="3">
-        <v>79600</v>
+        <v>82600</v>
       </c>
       <c r="K23" s="3">
         <v>43600</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70000</v>
+        <v>72700</v>
       </c>
       <c r="E24" s="3">
-        <v>52900</v>
+        <v>54900</v>
       </c>
       <c r="F24" s="3">
-        <v>37400</v>
+        <v>38800</v>
       </c>
       <c r="G24" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="H24" s="3">
-        <v>40000</v>
+        <v>41500</v>
       </c>
       <c r="I24" s="3">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="J24" s="3">
-        <v>15700</v>
+        <v>16300</v>
       </c>
       <c r="K24" s="3">
         <v>13100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>448000</v>
+        <v>464800</v>
       </c>
       <c r="E26" s="3">
-        <v>400800</v>
+        <v>415900</v>
       </c>
       <c r="F26" s="3">
-        <v>279100</v>
+        <v>289700</v>
       </c>
       <c r="G26" s="3">
-        <v>170200</v>
+        <v>176600</v>
       </c>
       <c r="H26" s="3">
-        <v>138700</v>
+        <v>143900</v>
       </c>
       <c r="I26" s="3">
-        <v>104800</v>
+        <v>108700</v>
       </c>
       <c r="J26" s="3">
-        <v>63800</v>
+        <v>66200</v>
       </c>
       <c r="K26" s="3">
         <v>30500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>447900</v>
+        <v>464700</v>
       </c>
       <c r="E27" s="3">
-        <v>401800</v>
+        <v>417000</v>
       </c>
       <c r="F27" s="3">
-        <v>280100</v>
+        <v>290700</v>
       </c>
       <c r="G27" s="3">
-        <v>171900</v>
+        <v>178300</v>
       </c>
       <c r="H27" s="3">
-        <v>138700</v>
+        <v>143900</v>
       </c>
       <c r="I27" s="3">
-        <v>104800</v>
+        <v>108700</v>
       </c>
       <c r="J27" s="3">
-        <v>63800</v>
+        <v>66200</v>
       </c>
       <c r="K27" s="3">
         <v>30500</v>
@@ -1452,22 +1452,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-132000</v>
+        <v>-136900</v>
       </c>
       <c r="E32" s="3">
-        <v>-99900</v>
+        <v>-103700</v>
       </c>
       <c r="F32" s="3">
-        <v>-30600</v>
+        <v>-31700</v>
       </c>
       <c r="G32" s="3">
-        <v>-13400</v>
+        <v>-13900</v>
       </c>
       <c r="H32" s="3">
-        <v>-10700</v>
+        <v>-11100</v>
       </c>
       <c r="I32" s="3">
-        <v>-5200</v>
+        <v>-5400</v>
       </c>
       <c r="J32" s="3">
         <v>-2000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>447900</v>
+        <v>464700</v>
       </c>
       <c r="E33" s="3">
-        <v>401800</v>
+        <v>417000</v>
       </c>
       <c r="F33" s="3">
-        <v>280100</v>
+        <v>290700</v>
       </c>
       <c r="G33" s="3">
-        <v>171900</v>
+        <v>178300</v>
       </c>
       <c r="H33" s="3">
-        <v>138700</v>
+        <v>143900</v>
       </c>
       <c r="I33" s="3">
-        <v>104800</v>
+        <v>108700</v>
       </c>
       <c r="J33" s="3">
-        <v>63800</v>
+        <v>66200</v>
       </c>
       <c r="K33" s="3">
         <v>30500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>447900</v>
+        <v>464700</v>
       </c>
       <c r="E35" s="3">
-        <v>401800</v>
+        <v>417000</v>
       </c>
       <c r="F35" s="3">
-        <v>280100</v>
+        <v>290700</v>
       </c>
       <c r="G35" s="3">
-        <v>171900</v>
+        <v>178300</v>
       </c>
       <c r="H35" s="3">
-        <v>138700</v>
+        <v>143900</v>
       </c>
       <c r="I35" s="3">
-        <v>104800</v>
+        <v>108700</v>
       </c>
       <c r="J35" s="3">
-        <v>63800</v>
+        <v>66200</v>
       </c>
       <c r="K35" s="3">
         <v>30500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>278700</v>
+        <v>288800</v>
       </c>
       <c r="E41" s="3">
-        <v>29700</v>
+        <v>30800</v>
       </c>
       <c r="F41" s="3">
-        <v>127800</v>
+        <v>132400</v>
       </c>
       <c r="G41" s="3">
-        <v>461700</v>
+        <v>478400</v>
       </c>
       <c r="H41" s="3">
-        <v>301700</v>
+        <v>312600</v>
       </c>
       <c r="I41" s="3">
-        <v>147800</v>
+        <v>153100</v>
       </c>
       <c r="J41" s="3">
-        <v>159600</v>
+        <v>165400</v>
       </c>
       <c r="K41" s="3">
         <v>60300</v>
@@ -1685,22 +1685,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1517400</v>
+        <v>1572300</v>
       </c>
       <c r="E42" s="3">
-        <v>1381400</v>
+        <v>1431400</v>
       </c>
       <c r="F42" s="3">
-        <v>1016800</v>
+        <v>1053600</v>
       </c>
       <c r="G42" s="3">
-        <v>340800</v>
+        <v>353100</v>
       </c>
       <c r="H42" s="3">
-        <v>275500</v>
+        <v>285400</v>
       </c>
       <c r="I42" s="3">
-        <v>240900</v>
+        <v>249600</v>
       </c>
       <c r="J42" s="3">
         <v>300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>457100</v>
+        <v>473600</v>
       </c>
       <c r="E43" s="3">
-        <v>396600</v>
+        <v>411000</v>
       </c>
       <c r="F43" s="3">
-        <v>268900</v>
+        <v>278600</v>
       </c>
       <c r="G43" s="3">
-        <v>348000</v>
+        <v>360600</v>
       </c>
       <c r="H43" s="3">
-        <v>157900</v>
+        <v>163600</v>
       </c>
       <c r="I43" s="3">
-        <v>107300</v>
+        <v>111100</v>
       </c>
       <c r="J43" s="3">
-        <v>65600</v>
+        <v>68000</v>
       </c>
       <c r="K43" s="3">
         <v>46900</v>
@@ -1760,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="H44" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>17</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>39700</v>
+        <v>41100</v>
       </c>
       <c r="E45" s="3">
-        <v>34100</v>
+        <v>35300</v>
       </c>
       <c r="F45" s="3">
-        <v>24400</v>
+        <v>25300</v>
       </c>
       <c r="G45" s="3">
-        <v>113600</v>
+        <v>117700</v>
       </c>
       <c r="H45" s="3">
-        <v>54200</v>
+        <v>56100</v>
       </c>
       <c r="I45" s="3">
-        <v>14400</v>
+        <v>14900</v>
       </c>
       <c r="J45" s="3">
-        <v>40700</v>
+        <v>42200</v>
       </c>
       <c r="K45" s="3">
         <v>5300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2292800</v>
+        <v>2375700</v>
       </c>
       <c r="E46" s="3">
-        <v>1841900</v>
+        <v>1908500</v>
       </c>
       <c r="F46" s="3">
-        <v>1437800</v>
+        <v>1489900</v>
       </c>
       <c r="G46" s="3">
-        <v>1041700</v>
+        <v>1079400</v>
       </c>
       <c r="H46" s="3">
-        <v>804900</v>
+        <v>834000</v>
       </c>
       <c r="I46" s="3">
-        <v>510300</v>
+        <v>528700</v>
       </c>
       <c r="J46" s="3">
-        <v>266200</v>
+        <v>275800</v>
       </c>
       <c r="K46" s="3">
         <v>112800</v>
@@ -1850,19 +1850,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="E47" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="F47" s="3">
-        <v>22300</v>
+        <v>23100</v>
       </c>
       <c r="G47" s="3">
-        <v>19000</v>
+        <v>19600</v>
       </c>
       <c r="H47" s="3">
-        <v>17400</v>
+        <v>18000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>17</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50900</v>
+        <v>52700</v>
       </c>
       <c r="E48" s="3">
-        <v>23900</v>
+        <v>24700</v>
       </c>
       <c r="F48" s="3">
-        <v>18300</v>
+        <v>18900</v>
       </c>
       <c r="G48" s="3">
-        <v>37700</v>
+        <v>39100</v>
       </c>
       <c r="H48" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="I48" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="J48" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="K48" s="3">
         <v>5700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>214700</v>
+        <v>222500</v>
       </c>
       <c r="E49" s="3">
-        <v>216400</v>
+        <v>224200</v>
       </c>
       <c r="F49" s="3">
-        <v>218000</v>
+        <v>225900</v>
       </c>
       <c r="G49" s="3">
-        <v>430000</v>
+        <v>445500</v>
       </c>
       <c r="H49" s="3">
-        <v>215600</v>
+        <v>223400</v>
       </c>
       <c r="I49" s="3">
-        <v>216400</v>
+        <v>224200</v>
       </c>
       <c r="J49" s="3">
-        <v>217200</v>
+        <v>225100</v>
       </c>
       <c r="K49" s="3">
         <v>222900</v>
@@ -2015,22 +2015,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>115800</v>
+        <v>120000</v>
       </c>
       <c r="E52" s="3">
-        <v>116100</v>
+        <v>120200</v>
       </c>
       <c r="F52" s="3">
-        <v>26900</v>
+        <v>27900</v>
       </c>
       <c r="G52" s="3">
-        <v>21900</v>
+        <v>22700</v>
       </c>
       <c r="H52" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I52" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J52" s="3">
         <v>900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2684900</v>
+        <v>2782000</v>
       </c>
       <c r="E54" s="3">
-        <v>2208400</v>
+        <v>2288300</v>
       </c>
       <c r="F54" s="3">
-        <v>1723300</v>
+        <v>1785600</v>
       </c>
       <c r="G54" s="3">
-        <v>1316400</v>
+        <v>1364000</v>
       </c>
       <c r="H54" s="3">
-        <v>1055400</v>
+        <v>1093600</v>
       </c>
       <c r="I54" s="3">
-        <v>739800</v>
+        <v>766600</v>
       </c>
       <c r="J54" s="3">
-        <v>492400</v>
+        <v>510200</v>
       </c>
       <c r="K54" s="3">
         <v>341400</v>
@@ -2144,19 +2144,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E57" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G57" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H57" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2186,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H58" s="3">
-        <v>24500</v>
+        <v>25400</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>550800</v>
+        <v>570700</v>
       </c>
       <c r="E59" s="3">
-        <v>580900</v>
+        <v>602000</v>
       </c>
       <c r="F59" s="3">
-        <v>543700</v>
+        <v>563400</v>
       </c>
       <c r="G59" s="3">
-        <v>511300</v>
+        <v>529800</v>
       </c>
       <c r="H59" s="3">
-        <v>274500</v>
+        <v>284400</v>
       </c>
       <c r="I59" s="3">
-        <v>151500</v>
+        <v>156900</v>
       </c>
       <c r="J59" s="3">
-        <v>110300</v>
+        <v>114300</v>
       </c>
       <c r="K59" s="3">
         <v>48300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>555900</v>
+        <v>576000</v>
       </c>
       <c r="E60" s="3">
-        <v>583700</v>
+        <v>604800</v>
       </c>
       <c r="F60" s="3">
-        <v>545100</v>
+        <v>564800</v>
       </c>
       <c r="G60" s="3">
-        <v>356600</v>
+        <v>369500</v>
       </c>
       <c r="H60" s="3">
-        <v>302300</v>
+        <v>313200</v>
       </c>
       <c r="I60" s="3">
-        <v>151500</v>
+        <v>156900</v>
       </c>
       <c r="J60" s="3">
-        <v>110700</v>
+        <v>114700</v>
       </c>
       <c r="K60" s="3">
         <v>48300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>81900</v>
+        <v>84800</v>
       </c>
       <c r="E62" s="3">
-        <v>67300</v>
+        <v>69700</v>
       </c>
       <c r="F62" s="3">
-        <v>65900</v>
+        <v>68300</v>
       </c>
       <c r="G62" s="3">
-        <v>69600</v>
+        <v>72100</v>
       </c>
       <c r="H62" s="3">
-        <v>73200</v>
+        <v>75900</v>
       </c>
       <c r="I62" s="3">
-        <v>74600</v>
+        <v>77300</v>
       </c>
       <c r="J62" s="3">
-        <v>71600</v>
+        <v>74200</v>
       </c>
       <c r="K62" s="3">
         <v>69600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>634500</v>
+        <v>657400</v>
       </c>
       <c r="E66" s="3">
-        <v>647700</v>
+        <v>671100</v>
       </c>
       <c r="F66" s="3">
-        <v>608800</v>
+        <v>630800</v>
       </c>
       <c r="G66" s="3">
-        <v>424900</v>
+        <v>440300</v>
       </c>
       <c r="H66" s="3">
-        <v>375500</v>
+        <v>389100</v>
       </c>
       <c r="I66" s="3">
-        <v>226100</v>
+        <v>234300</v>
       </c>
       <c r="J66" s="3">
-        <v>182300</v>
+        <v>188900</v>
       </c>
       <c r="K66" s="3">
         <v>117900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1499500</v>
+        <v>1553700</v>
       </c>
       <c r="E72" s="3">
-        <v>1051000</v>
+        <v>1089000</v>
       </c>
       <c r="F72" s="3">
-        <v>648600</v>
+        <v>672000</v>
       </c>
       <c r="G72" s="3">
-        <v>451500</v>
+        <v>467900</v>
       </c>
       <c r="H72" s="3">
-        <v>279400</v>
+        <v>289500</v>
       </c>
       <c r="I72" s="3">
-        <v>140600</v>
+        <v>145700</v>
       </c>
       <c r="J72" s="3">
-        <v>35600</v>
+        <v>36900</v>
       </c>
       <c r="K72" s="3">
         <v>60600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2050400</v>
+        <v>2124600</v>
       </c>
       <c r="E76" s="3">
-        <v>1560700</v>
+        <v>1617200</v>
       </c>
       <c r="F76" s="3">
-        <v>1114500</v>
+        <v>1154800</v>
       </c>
       <c r="G76" s="3">
-        <v>891500</v>
+        <v>923700</v>
       </c>
       <c r="H76" s="3">
-        <v>679900</v>
+        <v>704500</v>
       </c>
       <c r="I76" s="3">
-        <v>513700</v>
+        <v>532300</v>
       </c>
       <c r="J76" s="3">
-        <v>310100</v>
+        <v>321300</v>
       </c>
       <c r="K76" s="3">
         <v>223500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>447900</v>
+        <v>464700</v>
       </c>
       <c r="E81" s="3">
-        <v>401800</v>
+        <v>417000</v>
       </c>
       <c r="F81" s="3">
-        <v>280100</v>
+        <v>290700</v>
       </c>
       <c r="G81" s="3">
-        <v>171900</v>
+        <v>178300</v>
       </c>
       <c r="H81" s="3">
-        <v>138700</v>
+        <v>143900</v>
       </c>
       <c r="I81" s="3">
-        <v>104800</v>
+        <v>108700</v>
       </c>
       <c r="J81" s="3">
-        <v>63800</v>
+        <v>66200</v>
       </c>
       <c r="K81" s="3">
         <v>30500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16600</v>
+        <v>17200</v>
       </c>
       <c r="E83" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="F83" s="3">
-        <v>12400</v>
+        <v>12900</v>
       </c>
       <c r="G83" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="H83" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="I83" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="J83" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="K83" s="3">
         <v>3500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>404400</v>
+        <v>419600</v>
       </c>
       <c r="E89" s="3">
-        <v>435500</v>
+        <v>451900</v>
       </c>
       <c r="F89" s="3">
-        <v>344800</v>
+        <v>357800</v>
       </c>
       <c r="G89" s="3">
-        <v>220300</v>
+        <v>228600</v>
       </c>
       <c r="H89" s="3">
-        <v>204600</v>
+        <v>212300</v>
       </c>
       <c r="I89" s="3">
-        <v>143300</v>
+        <v>148700</v>
       </c>
       <c r="J89" s="3">
-        <v>83100</v>
+        <v>86300</v>
       </c>
       <c r="K89" s="3">
         <v>40100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28600</v>
+        <v>-29600</v>
       </c>
       <c r="E91" s="3">
-        <v>-15900</v>
+        <v>-16500</v>
       </c>
       <c r="F91" s="3">
-        <v>-12100</v>
+        <v>-12600</v>
       </c>
       <c r="G91" s="3">
-        <v>-12400</v>
+        <v>-12900</v>
       </c>
       <c r="H91" s="3">
-        <v>-12500</v>
+        <v>-12900</v>
       </c>
       <c r="I91" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="J91" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="K91" s="3">
         <v>-4000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-163500</v>
+        <v>-169700</v>
       </c>
       <c r="E94" s="3">
-        <v>-462000</v>
+        <v>-479400</v>
       </c>
       <c r="F94" s="3">
-        <v>-687700</v>
+        <v>-713600</v>
       </c>
       <c r="G94" s="3">
-        <v>-72100</v>
+        <v>-74800</v>
       </c>
       <c r="H94" s="3">
-        <v>-57100</v>
+        <v>-59200</v>
       </c>
       <c r="I94" s="3">
-        <v>-246300</v>
+        <v>-255500</v>
       </c>
       <c r="J94" s="3">
-        <v>-6400</v>
+        <v>-6700</v>
       </c>
       <c r="K94" s="3">
         <v>-4000</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-83400</v>
+        <v>-86500</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-30900</v>
+        <v>-32100</v>
       </c>
       <c r="K96" s="3">
         <v>-6400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="E100" s="3">
-        <v>-76100</v>
+        <v>-79000</v>
       </c>
       <c r="F100" s="3">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="G100" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="H100" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="I100" s="3">
-        <v>90600</v>
+        <v>94000</v>
       </c>
       <c r="J100" s="3">
-        <v>23700</v>
+        <v>24600</v>
       </c>
       <c r="K100" s="3">
         <v>-6400</v>
@@ -3466,7 +3466,7 @@
         <v>-1900</v>
       </c>
       <c r="E101" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="F101" s="3">
         <v>-400</v>
@@ -3475,7 +3475,7 @@
         <v>300</v>
       </c>
       <c r="H101" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I101" s="3">
         <v>600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>248600</v>
+        <v>258000</v>
       </c>
       <c r="E102" s="3">
-        <v>-97200</v>
+        <v>-100900</v>
       </c>
       <c r="F102" s="3">
-        <v>-334700</v>
+        <v>-347300</v>
       </c>
       <c r="G102" s="3">
-        <v>152500</v>
+        <v>158200</v>
       </c>
       <c r="H102" s="3">
-        <v>153700</v>
+        <v>159500</v>
       </c>
       <c r="I102" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="J102" s="3">
-        <v>100500</v>
+        <v>104300</v>
       </c>
       <c r="K102" s="3">
         <v>29700</v>

--- a/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1222900</v>
+        <v>1281000</v>
       </c>
       <c r="E8" s="3">
-        <v>1050500</v>
+        <v>1100300</v>
       </c>
       <c r="F8" s="3">
-        <v>901900</v>
+        <v>944700</v>
       </c>
       <c r="G8" s="3">
-        <v>865800</v>
+        <v>906900</v>
       </c>
       <c r="H8" s="3">
-        <v>503100</v>
+        <v>526900</v>
       </c>
       <c r="I8" s="3">
-        <v>309800</v>
+        <v>324500</v>
       </c>
       <c r="J8" s="3">
-        <v>176700</v>
+        <v>185100</v>
       </c>
       <c r="K8" s="3">
         <v>105100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>111900</v>
+        <v>117200</v>
       </c>
       <c r="E9" s="3">
-        <v>85400</v>
+        <v>89500</v>
       </c>
       <c r="F9" s="3">
-        <v>126900</v>
+        <v>132900</v>
       </c>
       <c r="G9" s="3">
-        <v>296800</v>
+        <v>310900</v>
       </c>
       <c r="H9" s="3">
-        <v>55200</v>
+        <v>57800</v>
       </c>
       <c r="I9" s="3">
-        <v>27600</v>
+        <v>29000</v>
       </c>
       <c r="J9" s="3">
-        <v>20800</v>
+        <v>21800</v>
       </c>
       <c r="K9" s="3">
         <v>25600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1111100</v>
+        <v>1163800</v>
       </c>
       <c r="E10" s="3">
-        <v>965000</v>
+        <v>1010800</v>
       </c>
       <c r="F10" s="3">
-        <v>775000</v>
+        <v>811800</v>
       </c>
       <c r="G10" s="3">
-        <v>569000</v>
+        <v>596000</v>
       </c>
       <c r="H10" s="3">
-        <v>447900</v>
+        <v>469100</v>
       </c>
       <c r="I10" s="3">
-        <v>282100</v>
+        <v>295500</v>
       </c>
       <c r="J10" s="3">
-        <v>155800</v>
+        <v>163200</v>
       </c>
       <c r="K10" s="3">
         <v>79500</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>187500</v>
+        <v>196400</v>
       </c>
       <c r="E12" s="3">
-        <v>164900</v>
+        <v>172700</v>
       </c>
       <c r="F12" s="3">
-        <v>127600</v>
+        <v>133700</v>
       </c>
       <c r="G12" s="3">
-        <v>83000</v>
+        <v>86900</v>
       </c>
       <c r="H12" s="3">
-        <v>39800</v>
+        <v>41700</v>
       </c>
       <c r="I12" s="3">
-        <v>23000</v>
+        <v>24100</v>
       </c>
       <c r="J12" s="3">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="K12" s="3">
         <v>6200</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>822400</v>
+        <v>861400</v>
       </c>
       <c r="E17" s="3">
-        <v>683400</v>
+        <v>715800</v>
       </c>
       <c r="F17" s="3">
-        <v>605200</v>
+        <v>633900</v>
       </c>
       <c r="G17" s="3">
-        <v>698300</v>
+        <v>731400</v>
       </c>
       <c r="H17" s="3">
-        <v>328800</v>
+        <v>344400</v>
       </c>
       <c r="I17" s="3">
-        <v>178400</v>
+        <v>186900</v>
       </c>
       <c r="J17" s="3">
-        <v>96100</v>
+        <v>100600</v>
       </c>
       <c r="K17" s="3">
         <v>62300</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>400600</v>
+        <v>419600</v>
       </c>
       <c r="E18" s="3">
-        <v>367100</v>
+        <v>384500</v>
       </c>
       <c r="F18" s="3">
-        <v>296700</v>
+        <v>310800</v>
       </c>
       <c r="G18" s="3">
-        <v>167500</v>
+        <v>175500</v>
       </c>
       <c r="H18" s="3">
-        <v>174200</v>
+        <v>182500</v>
       </c>
       <c r="I18" s="3">
-        <v>131300</v>
+        <v>137600</v>
       </c>
       <c r="J18" s="3">
-        <v>80600</v>
+        <v>84400</v>
       </c>
       <c r="K18" s="3">
         <v>42800</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>136900</v>
+        <v>143400</v>
       </c>
       <c r="E20" s="3">
-        <v>103700</v>
+        <v>108600</v>
       </c>
       <c r="F20" s="3">
-        <v>31700</v>
+        <v>33200</v>
       </c>
       <c r="G20" s="3">
-        <v>13900</v>
+        <v>14500</v>
       </c>
       <c r="H20" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="I20" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="J20" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K20" s="3">
         <v>800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>554700</v>
+        <v>581000</v>
       </c>
       <c r="E21" s="3">
-        <v>485500</v>
+        <v>508600</v>
       </c>
       <c r="F21" s="3">
-        <v>341300</v>
+        <v>357500</v>
       </c>
       <c r="G21" s="3">
-        <v>191500</v>
+        <v>200600</v>
       </c>
       <c r="H21" s="3">
-        <v>193500</v>
+        <v>202700</v>
       </c>
       <c r="I21" s="3">
-        <v>142700</v>
+        <v>149500</v>
       </c>
       <c r="J21" s="3">
-        <v>87200</v>
+        <v>91400</v>
       </c>
       <c r="K21" s="3">
         <v>47100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>537500</v>
+        <v>563000</v>
       </c>
       <c r="E23" s="3">
-        <v>470800</v>
+        <v>493100</v>
       </c>
       <c r="F23" s="3">
-        <v>328400</v>
+        <v>344000</v>
       </c>
       <c r="G23" s="3">
-        <v>181400</v>
+        <v>190000</v>
       </c>
       <c r="H23" s="3">
-        <v>185300</v>
+        <v>194100</v>
       </c>
       <c r="I23" s="3">
-        <v>136700</v>
+        <v>143200</v>
       </c>
       <c r="J23" s="3">
-        <v>82600</v>
+        <v>86500</v>
       </c>
       <c r="K23" s="3">
         <v>43600</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>72700</v>
+        <v>76100</v>
       </c>
       <c r="E24" s="3">
-        <v>54900</v>
+        <v>57500</v>
       </c>
       <c r="F24" s="3">
-        <v>38800</v>
+        <v>40600</v>
       </c>
       <c r="G24" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="H24" s="3">
-        <v>41500</v>
+        <v>43400</v>
       </c>
       <c r="I24" s="3">
-        <v>28000</v>
+        <v>29300</v>
       </c>
       <c r="J24" s="3">
-        <v>16300</v>
+        <v>17100</v>
       </c>
       <c r="K24" s="3">
         <v>13100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>464800</v>
+        <v>486900</v>
       </c>
       <c r="E26" s="3">
-        <v>415900</v>
+        <v>435600</v>
       </c>
       <c r="F26" s="3">
-        <v>289700</v>
+        <v>303400</v>
       </c>
       <c r="G26" s="3">
-        <v>176600</v>
+        <v>185000</v>
       </c>
       <c r="H26" s="3">
-        <v>143900</v>
+        <v>150700</v>
       </c>
       <c r="I26" s="3">
-        <v>108700</v>
+        <v>113900</v>
       </c>
       <c r="J26" s="3">
-        <v>66200</v>
+        <v>69400</v>
       </c>
       <c r="K26" s="3">
         <v>30500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>464700</v>
+        <v>486800</v>
       </c>
       <c r="E27" s="3">
-        <v>417000</v>
+        <v>436700</v>
       </c>
       <c r="F27" s="3">
-        <v>290700</v>
+        <v>304500</v>
       </c>
       <c r="G27" s="3">
-        <v>178300</v>
+        <v>186800</v>
       </c>
       <c r="H27" s="3">
-        <v>143900</v>
+        <v>150700</v>
       </c>
       <c r="I27" s="3">
-        <v>108700</v>
+        <v>113900</v>
       </c>
       <c r="J27" s="3">
-        <v>66200</v>
+        <v>69400</v>
       </c>
       <c r="K27" s="3">
         <v>30500</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-136900</v>
+        <v>-143400</v>
       </c>
       <c r="E32" s="3">
-        <v>-103700</v>
+        <v>-108600</v>
       </c>
       <c r="F32" s="3">
-        <v>-31700</v>
+        <v>-33200</v>
       </c>
       <c r="G32" s="3">
-        <v>-13900</v>
+        <v>-14500</v>
       </c>
       <c r="H32" s="3">
-        <v>-11100</v>
+        <v>-11600</v>
       </c>
       <c r="I32" s="3">
-        <v>-5400</v>
+        <v>-5700</v>
       </c>
       <c r="J32" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="K32" s="3">
         <v>-800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>464700</v>
+        <v>486800</v>
       </c>
       <c r="E33" s="3">
-        <v>417000</v>
+        <v>436700</v>
       </c>
       <c r="F33" s="3">
-        <v>290700</v>
+        <v>304500</v>
       </c>
       <c r="G33" s="3">
-        <v>178300</v>
+        <v>186800</v>
       </c>
       <c r="H33" s="3">
-        <v>143900</v>
+        <v>150700</v>
       </c>
       <c r="I33" s="3">
-        <v>108700</v>
+        <v>113900</v>
       </c>
       <c r="J33" s="3">
-        <v>66200</v>
+        <v>69400</v>
       </c>
       <c r="K33" s="3">
         <v>30500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>464700</v>
+        <v>486800</v>
       </c>
       <c r="E35" s="3">
-        <v>417000</v>
+        <v>436700</v>
       </c>
       <c r="F35" s="3">
-        <v>290700</v>
+        <v>304500</v>
       </c>
       <c r="G35" s="3">
-        <v>178300</v>
+        <v>186800</v>
       </c>
       <c r="H35" s="3">
-        <v>143900</v>
+        <v>150700</v>
       </c>
       <c r="I35" s="3">
-        <v>108700</v>
+        <v>113900</v>
       </c>
       <c r="J35" s="3">
-        <v>66200</v>
+        <v>69400</v>
       </c>
       <c r="K35" s="3">
         <v>30500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>288800</v>
+        <v>302500</v>
       </c>
       <c r="E41" s="3">
-        <v>30800</v>
+        <v>32200</v>
       </c>
       <c r="F41" s="3">
-        <v>132400</v>
+        <v>138700</v>
       </c>
       <c r="G41" s="3">
-        <v>478400</v>
+        <v>501100</v>
       </c>
       <c r="H41" s="3">
-        <v>312600</v>
+        <v>327500</v>
       </c>
       <c r="I41" s="3">
-        <v>153100</v>
+        <v>160400</v>
       </c>
       <c r="J41" s="3">
-        <v>165400</v>
+        <v>173200</v>
       </c>
       <c r="K41" s="3">
         <v>60300</v>
@@ -1685,22 +1685,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1572300</v>
+        <v>1646900</v>
       </c>
       <c r="E42" s="3">
-        <v>1431400</v>
+        <v>1499300</v>
       </c>
       <c r="F42" s="3">
-        <v>1053600</v>
+        <v>1103600</v>
       </c>
       <c r="G42" s="3">
-        <v>353100</v>
+        <v>369900</v>
       </c>
       <c r="H42" s="3">
-        <v>285400</v>
+        <v>299000</v>
       </c>
       <c r="I42" s="3">
-        <v>249600</v>
+        <v>261400</v>
       </c>
       <c r="J42" s="3">
         <v>300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>473600</v>
+        <v>496100</v>
       </c>
       <c r="E43" s="3">
-        <v>411000</v>
+        <v>430500</v>
       </c>
       <c r="F43" s="3">
-        <v>278600</v>
+        <v>291800</v>
       </c>
       <c r="G43" s="3">
-        <v>360600</v>
+        <v>377700</v>
       </c>
       <c r="H43" s="3">
-        <v>163600</v>
+        <v>171300</v>
       </c>
       <c r="I43" s="3">
-        <v>111100</v>
+        <v>116400</v>
       </c>
       <c r="J43" s="3">
-        <v>68000</v>
+        <v>71200</v>
       </c>
       <c r="K43" s="3">
         <v>46900</v>
@@ -1760,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>13900</v>
+        <v>14500</v>
       </c>
       <c r="H44" s="3">
-        <v>16200</v>
+        <v>17000</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>17</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>41100</v>
+        <v>43000</v>
       </c>
       <c r="E45" s="3">
-        <v>35300</v>
+        <v>37000</v>
       </c>
       <c r="F45" s="3">
-        <v>25300</v>
+        <v>26500</v>
       </c>
       <c r="G45" s="3">
-        <v>117700</v>
+        <v>123300</v>
       </c>
       <c r="H45" s="3">
-        <v>56100</v>
+        <v>58800</v>
       </c>
       <c r="I45" s="3">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="J45" s="3">
-        <v>42200</v>
+        <v>44200</v>
       </c>
       <c r="K45" s="3">
         <v>5300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2375700</v>
+        <v>2488400</v>
       </c>
       <c r="E46" s="3">
-        <v>1908500</v>
+        <v>1999100</v>
       </c>
       <c r="F46" s="3">
-        <v>1489900</v>
+        <v>1560500</v>
       </c>
       <c r="G46" s="3">
-        <v>1079400</v>
+        <v>1130600</v>
       </c>
       <c r="H46" s="3">
-        <v>834000</v>
+        <v>873500</v>
       </c>
       <c r="I46" s="3">
-        <v>528700</v>
+        <v>553800</v>
       </c>
       <c r="J46" s="3">
-        <v>275800</v>
+        <v>288900</v>
       </c>
       <c r="K46" s="3">
         <v>112800</v>
@@ -1850,19 +1850,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E47" s="3">
         <v>11100</v>
       </c>
-      <c r="E47" s="3">
-        <v>10600</v>
-      </c>
       <c r="F47" s="3">
-        <v>23100</v>
+        <v>24200</v>
       </c>
       <c r="G47" s="3">
-        <v>19600</v>
+        <v>20600</v>
       </c>
       <c r="H47" s="3">
-        <v>18000</v>
+        <v>18900</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>17</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52700</v>
+        <v>55200</v>
       </c>
       <c r="E48" s="3">
-        <v>24700</v>
+        <v>25900</v>
       </c>
       <c r="F48" s="3">
-        <v>18900</v>
+        <v>19800</v>
       </c>
       <c r="G48" s="3">
-        <v>39100</v>
+        <v>40900</v>
       </c>
       <c r="H48" s="3">
-        <v>15000</v>
+        <v>15800</v>
       </c>
       <c r="I48" s="3">
-        <v>10900</v>
+        <v>11400</v>
       </c>
       <c r="J48" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="K48" s="3">
         <v>5700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>222500</v>
+        <v>233100</v>
       </c>
       <c r="E49" s="3">
-        <v>224200</v>
+        <v>234800</v>
       </c>
       <c r="F49" s="3">
-        <v>225900</v>
+        <v>236600</v>
       </c>
       <c r="G49" s="3">
-        <v>445500</v>
+        <v>466700</v>
       </c>
       <c r="H49" s="3">
-        <v>223400</v>
+        <v>234000</v>
       </c>
       <c r="I49" s="3">
-        <v>224200</v>
+        <v>234800</v>
       </c>
       <c r="J49" s="3">
-        <v>225100</v>
+        <v>235700</v>
       </c>
       <c r="K49" s="3">
         <v>222900</v>
@@ -2015,22 +2015,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>120000</v>
+        <v>125700</v>
       </c>
       <c r="E52" s="3">
-        <v>120200</v>
+        <v>126000</v>
       </c>
       <c r="F52" s="3">
-        <v>27900</v>
+        <v>29200</v>
       </c>
       <c r="G52" s="3">
-        <v>22700</v>
+        <v>23800</v>
       </c>
       <c r="H52" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="I52" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J52" s="3">
         <v>900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2782000</v>
+        <v>2914000</v>
       </c>
       <c r="E54" s="3">
-        <v>2288300</v>
+        <v>2396800</v>
       </c>
       <c r="F54" s="3">
-        <v>1785600</v>
+        <v>1870300</v>
       </c>
       <c r="G54" s="3">
-        <v>1364000</v>
+        <v>1428700</v>
       </c>
       <c r="H54" s="3">
-        <v>1093600</v>
+        <v>1145500</v>
       </c>
       <c r="I54" s="3">
-        <v>766600</v>
+        <v>803000</v>
       </c>
       <c r="J54" s="3">
-        <v>510200</v>
+        <v>534400</v>
       </c>
       <c r="K54" s="3">
         <v>341400</v>
@@ -2144,19 +2144,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E57" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F57" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G57" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H57" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2186,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H58" s="3">
-        <v>25400</v>
+        <v>26600</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>17</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>570700</v>
+        <v>597800</v>
       </c>
       <c r="E59" s="3">
-        <v>602000</v>
+        <v>630500</v>
       </c>
       <c r="F59" s="3">
-        <v>563400</v>
+        <v>590100</v>
       </c>
       <c r="G59" s="3">
-        <v>529800</v>
+        <v>554900</v>
       </c>
       <c r="H59" s="3">
-        <v>284400</v>
+        <v>297900</v>
       </c>
       <c r="I59" s="3">
-        <v>156900</v>
+        <v>164400</v>
       </c>
       <c r="J59" s="3">
-        <v>114300</v>
+        <v>119700</v>
       </c>
       <c r="K59" s="3">
         <v>48300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>576000</v>
+        <v>603300</v>
       </c>
       <c r="E60" s="3">
-        <v>604800</v>
+        <v>633500</v>
       </c>
       <c r="F60" s="3">
-        <v>564800</v>
+        <v>591600</v>
       </c>
       <c r="G60" s="3">
-        <v>369500</v>
+        <v>387000</v>
       </c>
       <c r="H60" s="3">
-        <v>313200</v>
+        <v>328100</v>
       </c>
       <c r="I60" s="3">
-        <v>156900</v>
+        <v>164400</v>
       </c>
       <c r="J60" s="3">
-        <v>114700</v>
+        <v>120100</v>
       </c>
       <c r="K60" s="3">
         <v>48300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>84800</v>
+        <v>88800</v>
       </c>
       <c r="E62" s="3">
-        <v>69700</v>
+        <v>73000</v>
       </c>
       <c r="F62" s="3">
-        <v>68300</v>
+        <v>71600</v>
       </c>
       <c r="G62" s="3">
-        <v>72100</v>
+        <v>75600</v>
       </c>
       <c r="H62" s="3">
-        <v>75900</v>
+        <v>79500</v>
       </c>
       <c r="I62" s="3">
-        <v>77300</v>
+        <v>81000</v>
       </c>
       <c r="J62" s="3">
-        <v>74200</v>
+        <v>77700</v>
       </c>
       <c r="K62" s="3">
         <v>69600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>657400</v>
+        <v>688600</v>
       </c>
       <c r="E66" s="3">
-        <v>671100</v>
+        <v>702900</v>
       </c>
       <c r="F66" s="3">
-        <v>630800</v>
+        <v>660700</v>
       </c>
       <c r="G66" s="3">
-        <v>440300</v>
+        <v>461200</v>
       </c>
       <c r="H66" s="3">
-        <v>389100</v>
+        <v>407500</v>
       </c>
       <c r="I66" s="3">
-        <v>234300</v>
+        <v>245400</v>
       </c>
       <c r="J66" s="3">
-        <v>188900</v>
+        <v>197800</v>
       </c>
       <c r="K66" s="3">
         <v>117900</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1553700</v>
+        <v>1627400</v>
       </c>
       <c r="E72" s="3">
-        <v>1089000</v>
+        <v>1140600</v>
       </c>
       <c r="F72" s="3">
-        <v>672000</v>
+        <v>703900</v>
       </c>
       <c r="G72" s="3">
-        <v>467900</v>
+        <v>490000</v>
       </c>
       <c r="H72" s="3">
-        <v>289500</v>
+        <v>303300</v>
       </c>
       <c r="I72" s="3">
-        <v>145700</v>
+        <v>152600</v>
       </c>
       <c r="J72" s="3">
-        <v>36900</v>
+        <v>38700</v>
       </c>
       <c r="K72" s="3">
         <v>60600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2124600</v>
+        <v>2225400</v>
       </c>
       <c r="E76" s="3">
-        <v>1617200</v>
+        <v>1693900</v>
       </c>
       <c r="F76" s="3">
-        <v>1154800</v>
+        <v>1209600</v>
       </c>
       <c r="G76" s="3">
-        <v>923700</v>
+        <v>967500</v>
       </c>
       <c r="H76" s="3">
-        <v>704500</v>
+        <v>737900</v>
       </c>
       <c r="I76" s="3">
-        <v>532300</v>
+        <v>557600</v>
       </c>
       <c r="J76" s="3">
-        <v>321300</v>
+        <v>336500</v>
       </c>
       <c r="K76" s="3">
         <v>223500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>464700</v>
+        <v>486800</v>
       </c>
       <c r="E81" s="3">
-        <v>417000</v>
+        <v>436700</v>
       </c>
       <c r="F81" s="3">
-        <v>290700</v>
+        <v>304500</v>
       </c>
       <c r="G81" s="3">
-        <v>178300</v>
+        <v>186800</v>
       </c>
       <c r="H81" s="3">
-        <v>143900</v>
+        <v>150700</v>
       </c>
       <c r="I81" s="3">
-        <v>108700</v>
+        <v>113900</v>
       </c>
       <c r="J81" s="3">
-        <v>66200</v>
+        <v>69400</v>
       </c>
       <c r="K81" s="3">
         <v>30500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17200</v>
+        <v>18000</v>
       </c>
       <c r="E83" s="3">
-        <v>14800</v>
+        <v>15500</v>
       </c>
       <c r="F83" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="G83" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="H83" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="I83" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="J83" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="K83" s="3">
         <v>3500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>419600</v>
+        <v>439500</v>
       </c>
       <c r="E89" s="3">
-        <v>451900</v>
+        <v>473300</v>
       </c>
       <c r="F89" s="3">
-        <v>357800</v>
+        <v>374800</v>
       </c>
       <c r="G89" s="3">
-        <v>228600</v>
+        <v>239500</v>
       </c>
       <c r="H89" s="3">
-        <v>212300</v>
+        <v>222400</v>
       </c>
       <c r="I89" s="3">
-        <v>148700</v>
+        <v>155700</v>
       </c>
       <c r="J89" s="3">
-        <v>86300</v>
+        <v>90300</v>
       </c>
       <c r="K89" s="3">
         <v>40100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-29600</v>
+        <v>-31000</v>
       </c>
       <c r="E91" s="3">
-        <v>-16500</v>
+        <v>-17300</v>
       </c>
       <c r="F91" s="3">
-        <v>-12600</v>
+        <v>-13100</v>
       </c>
       <c r="G91" s="3">
-        <v>-12900</v>
+        <v>-13500</v>
       </c>
       <c r="H91" s="3">
-        <v>-12900</v>
+        <v>-13600</v>
       </c>
       <c r="I91" s="3">
-        <v>-6200</v>
+        <v>-6500</v>
       </c>
       <c r="J91" s="3">
-        <v>-6400</v>
+        <v>-6700</v>
       </c>
       <c r="K91" s="3">
         <v>-4000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-169700</v>
+        <v>-177700</v>
       </c>
       <c r="E94" s="3">
-        <v>-479400</v>
+        <v>-502200</v>
       </c>
       <c r="F94" s="3">
-        <v>-713600</v>
+        <v>-747500</v>
       </c>
       <c r="G94" s="3">
-        <v>-74800</v>
+        <v>-78300</v>
       </c>
       <c r="H94" s="3">
-        <v>-59200</v>
+        <v>-62000</v>
       </c>
       <c r="I94" s="3">
-        <v>-255500</v>
+        <v>-267700</v>
       </c>
       <c r="J94" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="K94" s="3">
         <v>-4000</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-86500</v>
+        <v>-90600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-32100</v>
+        <v>-33600</v>
       </c>
       <c r="K96" s="3">
         <v>-6400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="E100" s="3">
-        <v>-79000</v>
+        <v>-82700</v>
       </c>
       <c r="F100" s="3">
-        <v>8900</v>
+        <v>9300</v>
       </c>
       <c r="G100" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H100" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="I100" s="3">
-        <v>94000</v>
+        <v>98500</v>
       </c>
       <c r="J100" s="3">
-        <v>24600</v>
+        <v>25800</v>
       </c>
       <c r="K100" s="3">
         <v>-6400</v>
@@ -3463,19 +3463,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="E101" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="F101" s="3">
         <v>-400</v>
       </c>
       <c r="G101" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H101" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I101" s="3">
         <v>600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>258000</v>
+        <v>270200</v>
       </c>
       <c r="E102" s="3">
-        <v>-100900</v>
+        <v>-105700</v>
       </c>
       <c r="F102" s="3">
-        <v>-347300</v>
+        <v>-363800</v>
       </c>
       <c r="G102" s="3">
-        <v>158200</v>
+        <v>165700</v>
       </c>
       <c r="H102" s="3">
-        <v>159500</v>
+        <v>167100</v>
       </c>
       <c r="I102" s="3">
-        <v>-12200</v>
+        <v>-12800</v>
       </c>
       <c r="J102" s="3">
-        <v>104300</v>
+        <v>109200</v>
       </c>
       <c r="K102" s="3">
         <v>29700</v>

--- a/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>ATHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1281000</v>
+        <v>1322900</v>
       </c>
       <c r="E8" s="3">
-        <v>1100300</v>
+        <v>1286500</v>
       </c>
       <c r="F8" s="3">
-        <v>944700</v>
+        <v>1105100</v>
       </c>
       <c r="G8" s="3">
-        <v>906900</v>
+        <v>948800</v>
       </c>
       <c r="H8" s="3">
-        <v>526900</v>
+        <v>910800</v>
       </c>
       <c r="I8" s="3">
-        <v>324500</v>
+        <v>529200</v>
       </c>
       <c r="J8" s="3">
+        <v>325900</v>
+      </c>
+      <c r="K8" s="3">
         <v>185100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>105100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>63000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>117200</v>
+        <v>132000</v>
       </c>
       <c r="E9" s="3">
-        <v>89500</v>
+        <v>117700</v>
       </c>
       <c r="F9" s="3">
-        <v>132900</v>
+        <v>89900</v>
       </c>
       <c r="G9" s="3">
-        <v>310900</v>
+        <v>133500</v>
       </c>
       <c r="H9" s="3">
-        <v>57800</v>
+        <v>312300</v>
       </c>
       <c r="I9" s="3">
-        <v>29000</v>
+        <v>58100</v>
       </c>
       <c r="J9" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K9" s="3">
         <v>21800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>25600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1163800</v>
+        <v>1190800</v>
       </c>
       <c r="E10" s="3">
-        <v>1010800</v>
+        <v>1168800</v>
       </c>
       <c r="F10" s="3">
-        <v>811800</v>
+        <v>1015200</v>
       </c>
       <c r="G10" s="3">
-        <v>596000</v>
+        <v>815300</v>
       </c>
       <c r="H10" s="3">
-        <v>469100</v>
+        <v>598600</v>
       </c>
       <c r="I10" s="3">
-        <v>295500</v>
+        <v>471100</v>
       </c>
       <c r="J10" s="3">
+        <v>296800</v>
+      </c>
+      <c r="K10" s="3">
         <v>163200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>79500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>196400</v>
+        <v>208400</v>
       </c>
       <c r="E12" s="3">
-        <v>172700</v>
+        <v>197200</v>
       </c>
       <c r="F12" s="3">
-        <v>133700</v>
+        <v>173400</v>
       </c>
       <c r="G12" s="3">
-        <v>86900</v>
+        <v>134300</v>
       </c>
       <c r="H12" s="3">
-        <v>41700</v>
+        <v>87300</v>
       </c>
       <c r="I12" s="3">
-        <v>24100</v>
+        <v>41800</v>
       </c>
       <c r="J12" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K12" s="3">
         <v>12400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -923,9 +942,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>861400</v>
+        <v>909600</v>
       </c>
       <c r="E17" s="3">
-        <v>715800</v>
+        <v>865100</v>
       </c>
       <c r="F17" s="3">
-        <v>633900</v>
+        <v>718900</v>
       </c>
       <c r="G17" s="3">
-        <v>731400</v>
+        <v>636600</v>
       </c>
       <c r="H17" s="3">
-        <v>344400</v>
+        <v>734600</v>
       </c>
       <c r="I17" s="3">
-        <v>186900</v>
+        <v>345900</v>
       </c>
       <c r="J17" s="3">
+        <v>187700</v>
+      </c>
+      <c r="K17" s="3">
         <v>100600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>419600</v>
+        <v>413200</v>
       </c>
       <c r="E18" s="3">
-        <v>384500</v>
+        <v>421400</v>
       </c>
       <c r="F18" s="3">
-        <v>310800</v>
+        <v>386200</v>
       </c>
       <c r="G18" s="3">
-        <v>175500</v>
+        <v>312200</v>
       </c>
       <c r="H18" s="3">
-        <v>182500</v>
+        <v>176200</v>
       </c>
       <c r="I18" s="3">
-        <v>137600</v>
+        <v>183300</v>
       </c>
       <c r="J18" s="3">
+        <v>138100</v>
+      </c>
+      <c r="K18" s="3">
         <v>84400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>143400</v>
+        <v>147200</v>
       </c>
       <c r="E20" s="3">
-        <v>108600</v>
+        <v>144100</v>
       </c>
       <c r="F20" s="3">
-        <v>33200</v>
+        <v>109100</v>
       </c>
       <c r="G20" s="3">
-        <v>14500</v>
+        <v>33400</v>
       </c>
       <c r="H20" s="3">
-        <v>11600</v>
+        <v>14600</v>
       </c>
       <c r="I20" s="3">
+        <v>11700</v>
+      </c>
+      <c r="J20" s="3">
         <v>5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>581000</v>
+        <v>586600</v>
       </c>
       <c r="E21" s="3">
-        <v>508600</v>
+        <v>583600</v>
       </c>
       <c r="F21" s="3">
-        <v>357500</v>
+        <v>510800</v>
       </c>
       <c r="G21" s="3">
-        <v>200600</v>
+        <v>359100</v>
       </c>
       <c r="H21" s="3">
-        <v>202700</v>
+        <v>201500</v>
       </c>
       <c r="I21" s="3">
-        <v>149500</v>
+        <v>203700</v>
       </c>
       <c r="J21" s="3">
+        <v>150100</v>
+      </c>
+      <c r="K21" s="3">
         <v>91400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>47100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>30500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1133,90 +1172,99 @@
       <c r="G22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>563000</v>
+        <v>560500</v>
       </c>
       <c r="E23" s="3">
-        <v>493100</v>
+        <v>565400</v>
       </c>
       <c r="F23" s="3">
-        <v>344000</v>
+        <v>495200</v>
       </c>
       <c r="G23" s="3">
-        <v>190000</v>
+        <v>345500</v>
       </c>
       <c r="H23" s="3">
-        <v>194100</v>
+        <v>190800</v>
       </c>
       <c r="I23" s="3">
-        <v>143200</v>
+        <v>195000</v>
       </c>
       <c r="J23" s="3">
+        <v>143800</v>
+      </c>
+      <c r="K23" s="3">
         <v>86500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>43600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>25300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>76100</v>
+        <v>39900</v>
       </c>
       <c r="E24" s="3">
-        <v>57500</v>
+        <v>76400</v>
       </c>
       <c r="F24" s="3">
-        <v>40600</v>
+        <v>57700</v>
       </c>
       <c r="G24" s="3">
+        <v>40800</v>
+      </c>
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="H24" s="3">
-        <v>43400</v>
-      </c>
       <c r="I24" s="3">
-        <v>29300</v>
+        <v>43600</v>
       </c>
       <c r="J24" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K24" s="3">
         <v>17100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5600</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>486900</v>
+        <v>520600</v>
       </c>
       <c r="E26" s="3">
-        <v>435600</v>
+        <v>489000</v>
       </c>
       <c r="F26" s="3">
-        <v>303400</v>
+        <v>437500</v>
       </c>
       <c r="G26" s="3">
-        <v>185000</v>
+        <v>304700</v>
       </c>
       <c r="H26" s="3">
-        <v>150700</v>
+        <v>185800</v>
       </c>
       <c r="I26" s="3">
-        <v>113900</v>
+        <v>151400</v>
       </c>
       <c r="J26" s="3">
+        <v>114400</v>
+      </c>
+      <c r="K26" s="3">
         <v>69400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19700</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>486800</v>
+        <v>520300</v>
       </c>
       <c r="E27" s="3">
-        <v>436700</v>
+        <v>488900</v>
       </c>
       <c r="F27" s="3">
-        <v>304500</v>
+        <v>438600</v>
       </c>
       <c r="G27" s="3">
-        <v>186800</v>
+        <v>305800</v>
       </c>
       <c r="H27" s="3">
-        <v>150700</v>
+        <v>187600</v>
       </c>
       <c r="I27" s="3">
-        <v>113900</v>
+        <v>151400</v>
       </c>
       <c r="J27" s="3">
+        <v>114400</v>
+      </c>
+      <c r="K27" s="3">
         <v>69400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19700</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1377,11 +1437,14 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-600</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-143400</v>
+        <v>-147200</v>
       </c>
       <c r="E32" s="3">
-        <v>-108600</v>
+        <v>-144100</v>
       </c>
       <c r="F32" s="3">
-        <v>-33200</v>
+        <v>-109100</v>
       </c>
       <c r="G32" s="3">
-        <v>-14500</v>
+        <v>-33400</v>
       </c>
       <c r="H32" s="3">
-        <v>-11600</v>
+        <v>-14600</v>
       </c>
       <c r="I32" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>486800</v>
+        <v>520300</v>
       </c>
       <c r="E33" s="3">
-        <v>436700</v>
+        <v>488900</v>
       </c>
       <c r="F33" s="3">
-        <v>304500</v>
+        <v>438600</v>
       </c>
       <c r="G33" s="3">
-        <v>186800</v>
+        <v>305800</v>
       </c>
       <c r="H33" s="3">
-        <v>150700</v>
+        <v>187600</v>
       </c>
       <c r="I33" s="3">
-        <v>113900</v>
+        <v>151400</v>
       </c>
       <c r="J33" s="3">
+        <v>114400</v>
+      </c>
+      <c r="K33" s="3">
         <v>69400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>30500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>486800</v>
+        <v>520300</v>
       </c>
       <c r="E35" s="3">
-        <v>436700</v>
+        <v>488900</v>
       </c>
       <c r="F35" s="3">
-        <v>304500</v>
+        <v>438600</v>
       </c>
       <c r="G35" s="3">
-        <v>186800</v>
+        <v>305800</v>
       </c>
       <c r="H35" s="3">
-        <v>150700</v>
+        <v>187600</v>
       </c>
       <c r="I35" s="3">
-        <v>113900</v>
+        <v>151400</v>
       </c>
       <c r="J35" s="3">
+        <v>114400</v>
+      </c>
+      <c r="K35" s="3">
         <v>69400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>30500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,64 +1731,68 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>302500</v>
+        <v>267600</v>
       </c>
       <c r="E41" s="3">
-        <v>32200</v>
+        <v>303800</v>
       </c>
       <c r="F41" s="3">
-        <v>138700</v>
+        <v>32400</v>
       </c>
       <c r="G41" s="3">
-        <v>501100</v>
+        <v>139300</v>
       </c>
       <c r="H41" s="3">
-        <v>327500</v>
+        <v>503200</v>
       </c>
       <c r="I41" s="3">
-        <v>160400</v>
+        <v>328900</v>
       </c>
       <c r="J41" s="3">
+        <v>161100</v>
+      </c>
+      <c r="K41" s="3">
         <v>173200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>60300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31100</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1646900</v>
+        <v>1969200</v>
       </c>
       <c r="E42" s="3">
-        <v>1499300</v>
+        <v>1654000</v>
       </c>
       <c r="F42" s="3">
-        <v>1103600</v>
+        <v>1505800</v>
       </c>
       <c r="G42" s="3">
-        <v>369900</v>
+        <v>1108400</v>
       </c>
       <c r="H42" s="3">
-        <v>299000</v>
+        <v>371500</v>
       </c>
       <c r="I42" s="3">
-        <v>261400</v>
+        <v>300300</v>
       </c>
       <c r="J42" s="3">
-        <v>300</v>
+        <v>262600</v>
       </c>
       <c r="K42" s="3">
         <v>300</v>
@@ -1711,42 +1800,48 @@
       <c r="L42" s="3">
         <v>300</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>300</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>496100</v>
+        <v>484500</v>
       </c>
       <c r="E43" s="3">
-        <v>430500</v>
+        <v>498200</v>
       </c>
       <c r="F43" s="3">
-        <v>291800</v>
+        <v>432300</v>
       </c>
       <c r="G43" s="3">
-        <v>377700</v>
+        <v>293100</v>
       </c>
       <c r="H43" s="3">
-        <v>171300</v>
+        <v>379400</v>
       </c>
       <c r="I43" s="3">
-        <v>116400</v>
+        <v>172100</v>
       </c>
       <c r="J43" s="3">
+        <v>116900</v>
+      </c>
+      <c r="K43" s="3">
         <v>71200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>30200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1756,17 +1851,17 @@
       <c r="E44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G44" s="3">
-        <v>14500</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>17000</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>17</v>
+        <v>14600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>17100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>17</v>
@@ -1777,95 +1872,104 @@
       <c r="L44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43000</v>
+        <v>84400</v>
       </c>
       <c r="E45" s="3">
-        <v>37000</v>
+        <v>43200</v>
       </c>
       <c r="F45" s="3">
-        <v>26500</v>
+        <v>37200</v>
       </c>
       <c r="G45" s="3">
-        <v>123300</v>
+        <v>26600</v>
       </c>
       <c r="H45" s="3">
-        <v>58800</v>
+        <v>123900</v>
       </c>
       <c r="I45" s="3">
-        <v>15600</v>
+        <v>59000</v>
       </c>
       <c r="J45" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K45" s="3">
         <v>44200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2488400</v>
+        <v>2805700</v>
       </c>
       <c r="E46" s="3">
-        <v>1999100</v>
+        <v>2499200</v>
       </c>
       <c r="F46" s="3">
-        <v>1560500</v>
+        <v>2007700</v>
       </c>
       <c r="G46" s="3">
-        <v>1130600</v>
+        <v>1567300</v>
       </c>
       <c r="H46" s="3">
-        <v>873500</v>
+        <v>1135500</v>
       </c>
       <c r="I46" s="3">
-        <v>553800</v>
+        <v>877300</v>
       </c>
       <c r="J46" s="3">
+        <v>556200</v>
+      </c>
+      <c r="K46" s="3">
         <v>288900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>112800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>65700</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E47" s="3">
         <v>11600</v>
       </c>
-      <c r="E47" s="3">
-        <v>11100</v>
-      </c>
       <c r="F47" s="3">
-        <v>24200</v>
+        <v>11200</v>
       </c>
       <c r="G47" s="3">
-        <v>20600</v>
+        <v>24300</v>
       </c>
       <c r="H47" s="3">
-        <v>18900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>17</v>
+        <v>20700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>19000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>17</v>
@@ -1876,75 +1980,84 @@
       <c r="L47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55200</v>
+        <v>94600</v>
       </c>
       <c r="E48" s="3">
-        <v>25900</v>
+        <v>55400</v>
       </c>
       <c r="F48" s="3">
-        <v>19800</v>
+        <v>26000</v>
       </c>
       <c r="G48" s="3">
-        <v>40900</v>
+        <v>19900</v>
       </c>
       <c r="H48" s="3">
+        <v>41100</v>
+      </c>
+      <c r="I48" s="3">
         <v>15800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>233100</v>
+        <v>689300</v>
       </c>
       <c r="E49" s="3">
-        <v>234800</v>
+        <v>234100</v>
       </c>
       <c r="F49" s="3">
-        <v>236600</v>
+        <v>235800</v>
       </c>
       <c r="G49" s="3">
-        <v>466700</v>
+        <v>237600</v>
       </c>
       <c r="H49" s="3">
-        <v>234000</v>
+        <v>468700</v>
       </c>
       <c r="I49" s="3">
-        <v>234800</v>
+        <v>235000</v>
       </c>
       <c r="J49" s="3">
+        <v>235800</v>
+      </c>
+      <c r="K49" s="3">
         <v>235700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>222900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>227400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>125700</v>
+        <v>22500</v>
       </c>
       <c r="E52" s="3">
-        <v>126000</v>
+        <v>126300</v>
       </c>
       <c r="F52" s="3">
-        <v>29200</v>
+        <v>126500</v>
       </c>
       <c r="G52" s="3">
-        <v>23800</v>
+        <v>29300</v>
       </c>
       <c r="H52" s="3">
+        <v>23900</v>
+      </c>
+      <c r="I52" s="3">
         <v>3300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2914000</v>
+        <v>3625600</v>
       </c>
       <c r="E54" s="3">
-        <v>2396800</v>
+        <v>2926600</v>
       </c>
       <c r="F54" s="3">
-        <v>1870300</v>
+        <v>2407200</v>
       </c>
       <c r="G54" s="3">
-        <v>1428700</v>
+        <v>1878400</v>
       </c>
       <c r="H54" s="3">
-        <v>1145500</v>
+        <v>1434900</v>
       </c>
       <c r="I54" s="3">
-        <v>803000</v>
+        <v>1150400</v>
       </c>
       <c r="J54" s="3">
+        <v>806500</v>
+      </c>
+      <c r="K54" s="3">
         <v>534400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>341400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>297100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,41 +2267,45 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5500</v>
+        <v>12200</v>
       </c>
       <c r="E57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2182,96 +2315,105 @@
       <c r="E58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>4700</v>
       </c>
-      <c r="H58" s="3">
-        <v>26600</v>
-      </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>26700</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>597800</v>
+        <v>627300</v>
       </c>
       <c r="E59" s="3">
-        <v>630500</v>
+        <v>600400</v>
       </c>
       <c r="F59" s="3">
-        <v>590100</v>
+        <v>633300</v>
       </c>
       <c r="G59" s="3">
-        <v>554900</v>
+        <v>592600</v>
       </c>
       <c r="H59" s="3">
-        <v>297900</v>
+        <v>557300</v>
       </c>
       <c r="I59" s="3">
-        <v>164400</v>
+        <v>299200</v>
       </c>
       <c r="J59" s="3">
+        <v>165100</v>
+      </c>
+      <c r="K59" s="3">
         <v>119700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>48300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>603300</v>
+        <v>639500</v>
       </c>
       <c r="E60" s="3">
-        <v>633500</v>
+        <v>605900</v>
       </c>
       <c r="F60" s="3">
-        <v>591600</v>
+        <v>636300</v>
       </c>
       <c r="G60" s="3">
-        <v>387000</v>
+        <v>594200</v>
       </c>
       <c r="H60" s="3">
-        <v>328100</v>
+        <v>388700</v>
       </c>
       <c r="I60" s="3">
-        <v>164400</v>
+        <v>329500</v>
       </c>
       <c r="J60" s="3">
+        <v>165100</v>
+      </c>
+      <c r="K60" s="3">
         <v>120100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>48300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2302,42 +2444,48 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>88800</v>
+        <v>112500</v>
       </c>
       <c r="E62" s="3">
-        <v>73000</v>
+        <v>89200</v>
       </c>
       <c r="F62" s="3">
-        <v>71600</v>
+        <v>73300</v>
       </c>
       <c r="G62" s="3">
-        <v>75600</v>
+        <v>71900</v>
       </c>
       <c r="H62" s="3">
-        <v>79500</v>
+        <v>75900</v>
       </c>
       <c r="I62" s="3">
-        <v>81000</v>
+        <v>79800</v>
       </c>
       <c r="J62" s="3">
+        <v>81300</v>
+      </c>
+      <c r="K62" s="3">
         <v>77700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>69600</v>
       </c>
       <c r="L62" s="3">
         <v>69600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>69600</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>688600</v>
+        <v>932700</v>
       </c>
       <c r="E66" s="3">
-        <v>702900</v>
+        <v>691600</v>
       </c>
       <c r="F66" s="3">
-        <v>660700</v>
+        <v>706000</v>
       </c>
       <c r="G66" s="3">
-        <v>461200</v>
+        <v>663600</v>
       </c>
       <c r="H66" s="3">
-        <v>407500</v>
+        <v>463200</v>
       </c>
       <c r="I66" s="3">
-        <v>245400</v>
+        <v>409300</v>
       </c>
       <c r="J66" s="3">
+        <v>246400</v>
+      </c>
+      <c r="K66" s="3">
         <v>197800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>117900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>99300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1627400</v>
+        <v>2057300</v>
       </c>
       <c r="E72" s="3">
-        <v>1140600</v>
+        <v>1634500</v>
       </c>
       <c r="F72" s="3">
-        <v>703900</v>
+        <v>1145600</v>
       </c>
       <c r="G72" s="3">
-        <v>490000</v>
+        <v>707000</v>
       </c>
       <c r="H72" s="3">
-        <v>303300</v>
+        <v>492200</v>
       </c>
       <c r="I72" s="3">
-        <v>152600</v>
+        <v>304600</v>
       </c>
       <c r="J72" s="3">
+        <v>153200</v>
+      </c>
+      <c r="K72" s="3">
         <v>38700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>60600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>37000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2225400</v>
+        <v>2692900</v>
       </c>
       <c r="E76" s="3">
-        <v>1693900</v>
+        <v>2235000</v>
       </c>
       <c r="F76" s="3">
-        <v>1209600</v>
+        <v>1701200</v>
       </c>
       <c r="G76" s="3">
-        <v>967500</v>
+        <v>1214900</v>
       </c>
       <c r="H76" s="3">
-        <v>737900</v>
+        <v>971700</v>
       </c>
       <c r="I76" s="3">
-        <v>557600</v>
+        <v>741100</v>
       </c>
       <c r="J76" s="3">
+        <v>560000</v>
+      </c>
+      <c r="K76" s="3">
         <v>336500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>223500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>197800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>486800</v>
+        <v>520300</v>
       </c>
       <c r="E81" s="3">
-        <v>436700</v>
+        <v>488900</v>
       </c>
       <c r="F81" s="3">
-        <v>304500</v>
+        <v>438600</v>
       </c>
       <c r="G81" s="3">
-        <v>186800</v>
+        <v>305800</v>
       </c>
       <c r="H81" s="3">
-        <v>150700</v>
+        <v>187600</v>
       </c>
       <c r="I81" s="3">
-        <v>113900</v>
+        <v>151400</v>
       </c>
       <c r="J81" s="3">
+        <v>114400</v>
+      </c>
+      <c r="K81" s="3">
         <v>69400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>30500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="E83" s="3">
-        <v>15500</v>
+        <v>18100</v>
       </c>
       <c r="F83" s="3">
-        <v>13500</v>
+        <v>15600</v>
       </c>
       <c r="G83" s="3">
-        <v>10600</v>
+        <v>13600</v>
       </c>
       <c r="H83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I83" s="3">
         <v>8600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>439500</v>
+        <v>508100</v>
       </c>
       <c r="E89" s="3">
-        <v>473300</v>
+        <v>441400</v>
       </c>
       <c r="F89" s="3">
-        <v>374800</v>
+        <v>475400</v>
       </c>
       <c r="G89" s="3">
-        <v>239500</v>
+        <v>376400</v>
       </c>
       <c r="H89" s="3">
-        <v>222400</v>
+        <v>240500</v>
       </c>
       <c r="I89" s="3">
-        <v>155700</v>
+        <v>223300</v>
       </c>
       <c r="J89" s="3">
+        <v>156400</v>
+      </c>
+      <c r="K89" s="3">
         <v>90300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-31000</v>
+        <v>-40300</v>
       </c>
       <c r="E91" s="3">
-        <v>-17300</v>
+        <v>-31200</v>
       </c>
       <c r="F91" s="3">
-        <v>-13100</v>
+        <v>-17400</v>
       </c>
       <c r="G91" s="3">
-        <v>-13500</v>
+        <v>-13200</v>
       </c>
       <c r="H91" s="3">
         <v>-13600</v>
       </c>
       <c r="I91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J91" s="3">
         <v>-6500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4600</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-177700</v>
+        <v>-456100</v>
       </c>
       <c r="E94" s="3">
-        <v>-502200</v>
+        <v>-178500</v>
       </c>
       <c r="F94" s="3">
-        <v>-747500</v>
+        <v>-504400</v>
       </c>
       <c r="G94" s="3">
-        <v>-78300</v>
+        <v>-750700</v>
       </c>
       <c r="H94" s="3">
-        <v>-62000</v>
+        <v>-78700</v>
       </c>
       <c r="I94" s="3">
-        <v>-267700</v>
+        <v>-62300</v>
       </c>
       <c r="J94" s="3">
+        <v>-268800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1800</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,19 +3524,20 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-99500</v>
       </c>
       <c r="E96" s="3">
-        <v>-90600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-91000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3316,17 +3549,20 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-33600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10400</v>
+        <v>-83600</v>
       </c>
       <c r="E100" s="3">
-        <v>-82700</v>
+        <v>10500</v>
       </c>
       <c r="F100" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="G100" s="3">
         <v>9300</v>
       </c>
-      <c r="G100" s="3">
-        <v>4200</v>
-      </c>
       <c r="H100" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I100" s="3">
         <v>4600</v>
       </c>
-      <c r="I100" s="3">
-        <v>98500</v>
-      </c>
       <c r="J100" s="3">
+        <v>98900</v>
+      </c>
+      <c r="K100" s="3">
         <v>25800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>270200</v>
+        <v>-34300</v>
       </c>
       <c r="E102" s="3">
-        <v>-105700</v>
+        <v>271400</v>
       </c>
       <c r="F102" s="3">
-        <v>-363800</v>
+        <v>-106100</v>
       </c>
       <c r="G102" s="3">
-        <v>165700</v>
+        <v>-365400</v>
       </c>
       <c r="H102" s="3">
-        <v>167100</v>
+        <v>166500</v>
       </c>
       <c r="I102" s="3">
-        <v>-12800</v>
+        <v>167800</v>
       </c>
       <c r="J102" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K102" s="3">
         <v>109200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>29700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1322900</v>
+        <v>1350800</v>
       </c>
       <c r="E8" s="3">
-        <v>1286500</v>
+        <v>1313700</v>
       </c>
       <c r="F8" s="3">
-        <v>1105100</v>
+        <v>1128400</v>
       </c>
       <c r="G8" s="3">
-        <v>948800</v>
+        <v>968900</v>
       </c>
       <c r="H8" s="3">
-        <v>910800</v>
+        <v>930100</v>
       </c>
       <c r="I8" s="3">
-        <v>529200</v>
+        <v>540400</v>
       </c>
       <c r="J8" s="3">
-        <v>325900</v>
+        <v>332800</v>
       </c>
       <c r="K8" s="3">
         <v>185100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>132000</v>
+        <v>134800</v>
       </c>
       <c r="E9" s="3">
-        <v>117700</v>
+        <v>120200</v>
       </c>
       <c r="F9" s="3">
-        <v>89900</v>
+        <v>91800</v>
       </c>
       <c r="G9" s="3">
-        <v>133500</v>
+        <v>136300</v>
       </c>
       <c r="H9" s="3">
-        <v>312300</v>
+        <v>318900</v>
       </c>
       <c r="I9" s="3">
-        <v>58100</v>
+        <v>59300</v>
       </c>
       <c r="J9" s="3">
-        <v>29100</v>
+        <v>29700</v>
       </c>
       <c r="K9" s="3">
         <v>21800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1190800</v>
+        <v>1216000</v>
       </c>
       <c r="E10" s="3">
-        <v>1168800</v>
+        <v>1193500</v>
       </c>
       <c r="F10" s="3">
-        <v>1015200</v>
+        <v>1036700</v>
       </c>
       <c r="G10" s="3">
-        <v>815300</v>
+        <v>832500</v>
       </c>
       <c r="H10" s="3">
-        <v>598600</v>
+        <v>611200</v>
       </c>
       <c r="I10" s="3">
-        <v>471100</v>
+        <v>481100</v>
       </c>
       <c r="J10" s="3">
-        <v>296800</v>
+        <v>303100</v>
       </c>
       <c r="K10" s="3">
         <v>163200</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>208400</v>
+        <v>212800</v>
       </c>
       <c r="E12" s="3">
-        <v>197200</v>
+        <v>201400</v>
       </c>
       <c r="F12" s="3">
-        <v>173400</v>
+        <v>177100</v>
       </c>
       <c r="G12" s="3">
-        <v>134300</v>
+        <v>137100</v>
       </c>
       <c r="H12" s="3">
-        <v>87300</v>
+        <v>89100</v>
       </c>
       <c r="I12" s="3">
-        <v>41800</v>
+        <v>42700</v>
       </c>
       <c r="J12" s="3">
-        <v>24200</v>
+        <v>24700</v>
       </c>
       <c r="K12" s="3">
         <v>12400</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>909600</v>
+        <v>928800</v>
       </c>
       <c r="E17" s="3">
-        <v>865100</v>
+        <v>883400</v>
       </c>
       <c r="F17" s="3">
-        <v>718900</v>
+        <v>734100</v>
       </c>
       <c r="G17" s="3">
-        <v>636600</v>
+        <v>650100</v>
       </c>
       <c r="H17" s="3">
-        <v>734600</v>
+        <v>750100</v>
       </c>
       <c r="I17" s="3">
-        <v>345900</v>
+        <v>353200</v>
       </c>
       <c r="J17" s="3">
-        <v>187700</v>
+        <v>191700</v>
       </c>
       <c r="K17" s="3">
         <v>100600</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>413200</v>
+        <v>422000</v>
       </c>
       <c r="E18" s="3">
-        <v>421400</v>
+        <v>430300</v>
       </c>
       <c r="F18" s="3">
-        <v>386200</v>
+        <v>394300</v>
       </c>
       <c r="G18" s="3">
-        <v>312200</v>
+        <v>318800</v>
       </c>
       <c r="H18" s="3">
-        <v>176200</v>
+        <v>179900</v>
       </c>
       <c r="I18" s="3">
-        <v>183300</v>
+        <v>187200</v>
       </c>
       <c r="J18" s="3">
-        <v>138100</v>
+        <v>141100</v>
       </c>
       <c r="K18" s="3">
         <v>84400</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>147200</v>
+        <v>150300</v>
       </c>
       <c r="E20" s="3">
-        <v>144100</v>
+        <v>147100</v>
       </c>
       <c r="F20" s="3">
-        <v>109100</v>
+        <v>111400</v>
       </c>
       <c r="G20" s="3">
-        <v>33400</v>
+        <v>34100</v>
       </c>
       <c r="H20" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="I20" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="J20" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="K20" s="3">
         <v>2100</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>586600</v>
+        <v>598900</v>
       </c>
       <c r="E21" s="3">
-        <v>583600</v>
+        <v>595900</v>
       </c>
       <c r="F21" s="3">
-        <v>510800</v>
+        <v>521600</v>
       </c>
       <c r="G21" s="3">
-        <v>359100</v>
+        <v>366700</v>
       </c>
       <c r="H21" s="3">
-        <v>201500</v>
+        <v>205700</v>
       </c>
       <c r="I21" s="3">
-        <v>203700</v>
+        <v>207900</v>
       </c>
       <c r="J21" s="3">
-        <v>150100</v>
+        <v>153300</v>
       </c>
       <c r="K21" s="3">
         <v>91400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>560500</v>
+        <v>572300</v>
       </c>
       <c r="E23" s="3">
-        <v>565400</v>
+        <v>577400</v>
       </c>
       <c r="F23" s="3">
-        <v>495200</v>
+        <v>505700</v>
       </c>
       <c r="G23" s="3">
-        <v>345500</v>
+        <v>352800</v>
       </c>
       <c r="H23" s="3">
-        <v>190800</v>
+        <v>194800</v>
       </c>
       <c r="I23" s="3">
-        <v>195000</v>
+        <v>199100</v>
       </c>
       <c r="J23" s="3">
-        <v>143800</v>
+        <v>146900</v>
       </c>
       <c r="K23" s="3">
         <v>86500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39900</v>
+        <v>40700</v>
       </c>
       <c r="E24" s="3">
-        <v>76400</v>
+        <v>78100</v>
       </c>
       <c r="F24" s="3">
-        <v>57700</v>
+        <v>59000</v>
       </c>
       <c r="G24" s="3">
-        <v>40800</v>
+        <v>41700</v>
       </c>
       <c r="H24" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I24" s="3">
-        <v>43600</v>
+        <v>44500</v>
       </c>
       <c r="J24" s="3">
-        <v>29500</v>
+        <v>30100</v>
       </c>
       <c r="K24" s="3">
         <v>17100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>520600</v>
+        <v>531600</v>
       </c>
       <c r="E26" s="3">
-        <v>489000</v>
+        <v>499300</v>
       </c>
       <c r="F26" s="3">
-        <v>437500</v>
+        <v>446700</v>
       </c>
       <c r="G26" s="3">
-        <v>304700</v>
+        <v>311200</v>
       </c>
       <c r="H26" s="3">
-        <v>185800</v>
+        <v>189700</v>
       </c>
       <c r="I26" s="3">
-        <v>151400</v>
+        <v>154600</v>
       </c>
       <c r="J26" s="3">
-        <v>114400</v>
+        <v>116800</v>
       </c>
       <c r="K26" s="3">
         <v>69400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>520300</v>
+        <v>531200</v>
       </c>
       <c r="E27" s="3">
-        <v>488900</v>
+        <v>499200</v>
       </c>
       <c r="F27" s="3">
-        <v>438600</v>
+        <v>447900</v>
       </c>
       <c r="G27" s="3">
-        <v>305800</v>
+        <v>312300</v>
       </c>
       <c r="H27" s="3">
-        <v>187600</v>
+        <v>191600</v>
       </c>
       <c r="I27" s="3">
-        <v>151400</v>
+        <v>154600</v>
       </c>
       <c r="J27" s="3">
-        <v>114400</v>
+        <v>116800</v>
       </c>
       <c r="K27" s="3">
         <v>69400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-147200</v>
+        <v>-150300</v>
       </c>
       <c r="E32" s="3">
-        <v>-144100</v>
+        <v>-147100</v>
       </c>
       <c r="F32" s="3">
-        <v>-109100</v>
+        <v>-111400</v>
       </c>
       <c r="G32" s="3">
-        <v>-33400</v>
+        <v>-34100</v>
       </c>
       <c r="H32" s="3">
-        <v>-14600</v>
+        <v>-14900</v>
       </c>
       <c r="I32" s="3">
-        <v>-11700</v>
+        <v>-11900</v>
       </c>
       <c r="J32" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K32" s="3">
         <v>-2100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>520300</v>
+        <v>531200</v>
       </c>
       <c r="E33" s="3">
-        <v>488900</v>
+        <v>499200</v>
       </c>
       <c r="F33" s="3">
-        <v>438600</v>
+        <v>447900</v>
       </c>
       <c r="G33" s="3">
-        <v>305800</v>
+        <v>312300</v>
       </c>
       <c r="H33" s="3">
-        <v>187600</v>
+        <v>191600</v>
       </c>
       <c r="I33" s="3">
-        <v>151400</v>
+        <v>154600</v>
       </c>
       <c r="J33" s="3">
-        <v>114400</v>
+        <v>116800</v>
       </c>
       <c r="K33" s="3">
         <v>69400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>520300</v>
+        <v>531200</v>
       </c>
       <c r="E35" s="3">
-        <v>488900</v>
+        <v>499200</v>
       </c>
       <c r="F35" s="3">
-        <v>438600</v>
+        <v>447900</v>
       </c>
       <c r="G35" s="3">
-        <v>305800</v>
+        <v>312300</v>
       </c>
       <c r="H35" s="3">
-        <v>187600</v>
+        <v>191600</v>
       </c>
       <c r="I35" s="3">
-        <v>151400</v>
+        <v>154600</v>
       </c>
       <c r="J35" s="3">
-        <v>114400</v>
+        <v>116800</v>
       </c>
       <c r="K35" s="3">
         <v>69400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>267600</v>
+        <v>273200</v>
       </c>
       <c r="E41" s="3">
-        <v>303800</v>
+        <v>310200</v>
       </c>
       <c r="F41" s="3">
-        <v>32400</v>
+        <v>33100</v>
       </c>
       <c r="G41" s="3">
-        <v>139300</v>
+        <v>142200</v>
       </c>
       <c r="H41" s="3">
-        <v>503200</v>
+        <v>513900</v>
       </c>
       <c r="I41" s="3">
-        <v>328900</v>
+        <v>335800</v>
       </c>
       <c r="J41" s="3">
-        <v>161100</v>
+        <v>164500</v>
       </c>
       <c r="K41" s="3">
         <v>173200</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1969200</v>
+        <v>2010800</v>
       </c>
       <c r="E42" s="3">
-        <v>1654000</v>
+        <v>1689000</v>
       </c>
       <c r="F42" s="3">
-        <v>1505800</v>
+        <v>1537700</v>
       </c>
       <c r="G42" s="3">
-        <v>1108400</v>
+        <v>1131800</v>
       </c>
       <c r="H42" s="3">
-        <v>371500</v>
+        <v>379400</v>
       </c>
       <c r="I42" s="3">
-        <v>300300</v>
+        <v>306600</v>
       </c>
       <c r="J42" s="3">
-        <v>262600</v>
+        <v>268100</v>
       </c>
       <c r="K42" s="3">
         <v>300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>484500</v>
+        <v>494800</v>
       </c>
       <c r="E43" s="3">
-        <v>498200</v>
+        <v>508700</v>
       </c>
       <c r="F43" s="3">
-        <v>432300</v>
+        <v>441500</v>
       </c>
       <c r="G43" s="3">
-        <v>293100</v>
+        <v>299300</v>
       </c>
       <c r="H43" s="3">
-        <v>379400</v>
+        <v>387400</v>
       </c>
       <c r="I43" s="3">
-        <v>172100</v>
+        <v>175700</v>
       </c>
       <c r="J43" s="3">
-        <v>116900</v>
+        <v>119400</v>
       </c>
       <c r="K43" s="3">
         <v>71200</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="I44" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>17</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>84400</v>
+        <v>86200</v>
       </c>
       <c r="E45" s="3">
-        <v>43200</v>
+        <v>44100</v>
       </c>
       <c r="F45" s="3">
-        <v>37200</v>
+        <v>38000</v>
       </c>
       <c r="G45" s="3">
-        <v>26600</v>
+        <v>27200</v>
       </c>
       <c r="H45" s="3">
-        <v>123900</v>
+        <v>126500</v>
       </c>
       <c r="I45" s="3">
-        <v>59000</v>
+        <v>60300</v>
       </c>
       <c r="J45" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="K45" s="3">
         <v>44200</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2805700</v>
+        <v>2865000</v>
       </c>
       <c r="E46" s="3">
-        <v>2499200</v>
+        <v>2552100</v>
       </c>
       <c r="F46" s="3">
-        <v>2007700</v>
+        <v>2050200</v>
       </c>
       <c r="G46" s="3">
-        <v>1567300</v>
+        <v>1600400</v>
       </c>
       <c r="H46" s="3">
-        <v>1135500</v>
+        <v>1159500</v>
       </c>
       <c r="I46" s="3">
-        <v>877300</v>
+        <v>895900</v>
       </c>
       <c r="J46" s="3">
-        <v>556200</v>
+        <v>568000</v>
       </c>
       <c r="K46" s="3">
         <v>288900</v>
@@ -1954,22 +1954,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="E47" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="F47" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="G47" s="3">
-        <v>24300</v>
+        <v>24800</v>
       </c>
       <c r="H47" s="3">
-        <v>20700</v>
+        <v>21100</v>
       </c>
       <c r="I47" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>17</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>94600</v>
+        <v>96600</v>
       </c>
       <c r="E48" s="3">
-        <v>55400</v>
+        <v>56600</v>
       </c>
       <c r="F48" s="3">
-        <v>26000</v>
+        <v>26600</v>
       </c>
       <c r="G48" s="3">
-        <v>19900</v>
+        <v>20300</v>
       </c>
       <c r="H48" s="3">
-        <v>41100</v>
+        <v>42000</v>
       </c>
       <c r="I48" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="J48" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="K48" s="3">
         <v>8800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>689300</v>
+        <v>703900</v>
       </c>
       <c r="E49" s="3">
-        <v>234100</v>
+        <v>239000</v>
       </c>
       <c r="F49" s="3">
-        <v>235800</v>
+        <v>240800</v>
       </c>
       <c r="G49" s="3">
-        <v>237600</v>
+        <v>242600</v>
       </c>
       <c r="H49" s="3">
-        <v>468700</v>
+        <v>478600</v>
       </c>
       <c r="I49" s="3">
-        <v>235000</v>
+        <v>240000</v>
       </c>
       <c r="J49" s="3">
-        <v>235800</v>
+        <v>240800</v>
       </c>
       <c r="K49" s="3">
         <v>235700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22500</v>
+        <v>22900</v>
       </c>
       <c r="E52" s="3">
-        <v>126300</v>
+        <v>128900</v>
       </c>
       <c r="F52" s="3">
-        <v>126500</v>
+        <v>129200</v>
       </c>
       <c r="G52" s="3">
-        <v>29300</v>
+        <v>30000</v>
       </c>
       <c r="H52" s="3">
-        <v>23900</v>
+        <v>24400</v>
       </c>
       <c r="I52" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K52" s="3">
         <v>900</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3625600</v>
+        <v>3702200</v>
       </c>
       <c r="E54" s="3">
-        <v>2926600</v>
+        <v>2988500</v>
       </c>
       <c r="F54" s="3">
-        <v>2407200</v>
+        <v>2458100</v>
       </c>
       <c r="G54" s="3">
-        <v>1878400</v>
+        <v>1918100</v>
       </c>
       <c r="H54" s="3">
-        <v>1434900</v>
+        <v>1465200</v>
       </c>
       <c r="I54" s="3">
-        <v>1150400</v>
+        <v>1174800</v>
       </c>
       <c r="J54" s="3">
-        <v>806500</v>
+        <v>823500</v>
       </c>
       <c r="K54" s="3">
         <v>534400</v>
@@ -2274,22 +2274,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="E57" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F57" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G57" s="3">
         <v>1600</v>
       </c>
       <c r="H57" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I57" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2322,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="I58" s="3">
-        <v>26700</v>
+        <v>27300</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>627300</v>
+        <v>640500</v>
       </c>
       <c r="E59" s="3">
-        <v>600400</v>
+        <v>613000</v>
       </c>
       <c r="F59" s="3">
-        <v>633300</v>
+        <v>646600</v>
       </c>
       <c r="G59" s="3">
-        <v>592600</v>
+        <v>605200</v>
       </c>
       <c r="H59" s="3">
-        <v>557300</v>
+        <v>569100</v>
       </c>
       <c r="I59" s="3">
-        <v>299200</v>
+        <v>305500</v>
       </c>
       <c r="J59" s="3">
-        <v>165100</v>
+        <v>168600</v>
       </c>
       <c r="K59" s="3">
         <v>119700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>639500</v>
+        <v>653000</v>
       </c>
       <c r="E60" s="3">
-        <v>605900</v>
+        <v>618700</v>
       </c>
       <c r="F60" s="3">
-        <v>636300</v>
+        <v>649700</v>
       </c>
       <c r="G60" s="3">
-        <v>594200</v>
+        <v>606800</v>
       </c>
       <c r="H60" s="3">
-        <v>388700</v>
+        <v>396900</v>
       </c>
       <c r="I60" s="3">
-        <v>329500</v>
+        <v>336400</v>
       </c>
       <c r="J60" s="3">
-        <v>165100</v>
+        <v>168600</v>
       </c>
       <c r="K60" s="3">
         <v>120100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>112500</v>
+        <v>114900</v>
       </c>
       <c r="E62" s="3">
-        <v>89200</v>
+        <v>91100</v>
       </c>
       <c r="F62" s="3">
-        <v>73300</v>
+        <v>74900</v>
       </c>
       <c r="G62" s="3">
-        <v>71900</v>
+        <v>73400</v>
       </c>
       <c r="H62" s="3">
-        <v>75900</v>
+        <v>77500</v>
       </c>
       <c r="I62" s="3">
-        <v>79800</v>
+        <v>81500</v>
       </c>
       <c r="J62" s="3">
-        <v>81300</v>
+        <v>83100</v>
       </c>
       <c r="K62" s="3">
         <v>77700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>932700</v>
+        <v>952500</v>
       </c>
       <c r="E66" s="3">
-        <v>691600</v>
+        <v>706200</v>
       </c>
       <c r="F66" s="3">
-        <v>706000</v>
+        <v>720900</v>
       </c>
       <c r="G66" s="3">
-        <v>663600</v>
+        <v>677600</v>
       </c>
       <c r="H66" s="3">
-        <v>463200</v>
+        <v>473000</v>
       </c>
       <c r="I66" s="3">
-        <v>409300</v>
+        <v>418000</v>
       </c>
       <c r="J66" s="3">
-        <v>246400</v>
+        <v>251700</v>
       </c>
       <c r="K66" s="3">
         <v>197800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2057300</v>
+        <v>2100800</v>
       </c>
       <c r="E72" s="3">
-        <v>1634500</v>
+        <v>1669000</v>
       </c>
       <c r="F72" s="3">
-        <v>1145600</v>
+        <v>1169800</v>
       </c>
       <c r="G72" s="3">
-        <v>707000</v>
+        <v>721900</v>
       </c>
       <c r="H72" s="3">
-        <v>492200</v>
+        <v>502600</v>
       </c>
       <c r="I72" s="3">
-        <v>304600</v>
+        <v>311000</v>
       </c>
       <c r="J72" s="3">
-        <v>153200</v>
+        <v>156500</v>
       </c>
       <c r="K72" s="3">
         <v>38700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2692900</v>
+        <v>2749800</v>
       </c>
       <c r="E76" s="3">
-        <v>2235000</v>
+        <v>2282300</v>
       </c>
       <c r="F76" s="3">
-        <v>1701200</v>
+        <v>1737200</v>
       </c>
       <c r="G76" s="3">
-        <v>1214900</v>
+        <v>1240500</v>
       </c>
       <c r="H76" s="3">
-        <v>971700</v>
+        <v>992300</v>
       </c>
       <c r="I76" s="3">
-        <v>741100</v>
+        <v>756800</v>
       </c>
       <c r="J76" s="3">
-        <v>560000</v>
+        <v>571800</v>
       </c>
       <c r="K76" s="3">
         <v>336500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>520300</v>
+        <v>531200</v>
       </c>
       <c r="E81" s="3">
-        <v>488900</v>
+        <v>499200</v>
       </c>
       <c r="F81" s="3">
-        <v>438600</v>
+        <v>447900</v>
       </c>
       <c r="G81" s="3">
-        <v>305800</v>
+        <v>312300</v>
       </c>
       <c r="H81" s="3">
-        <v>187600</v>
+        <v>191600</v>
       </c>
       <c r="I81" s="3">
-        <v>151400</v>
+        <v>154600</v>
       </c>
       <c r="J81" s="3">
-        <v>114400</v>
+        <v>116800</v>
       </c>
       <c r="K81" s="3">
         <v>69400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26000</v>
+        <v>26600</v>
       </c>
       <c r="E83" s="3">
-        <v>18100</v>
+        <v>18500</v>
       </c>
       <c r="F83" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="G83" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="H83" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="I83" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="J83" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="K83" s="3">
         <v>4800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>508100</v>
+        <v>518800</v>
       </c>
       <c r="E89" s="3">
-        <v>441400</v>
+        <v>450800</v>
       </c>
       <c r="F89" s="3">
-        <v>475400</v>
+        <v>485400</v>
       </c>
       <c r="G89" s="3">
-        <v>376400</v>
+        <v>384400</v>
       </c>
       <c r="H89" s="3">
-        <v>240500</v>
+        <v>245600</v>
       </c>
       <c r="I89" s="3">
-        <v>223300</v>
+        <v>228100</v>
       </c>
       <c r="J89" s="3">
-        <v>156400</v>
+        <v>159700</v>
       </c>
       <c r="K89" s="3">
         <v>90300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40300</v>
+        <v>-41200</v>
       </c>
       <c r="E91" s="3">
-        <v>-31200</v>
+        <v>-31800</v>
       </c>
       <c r="F91" s="3">
-        <v>-17400</v>
+        <v>-17800</v>
       </c>
       <c r="G91" s="3">
-        <v>-13200</v>
+        <v>-13500</v>
       </c>
       <c r="H91" s="3">
-        <v>-13600</v>
+        <v>-13900</v>
       </c>
       <c r="I91" s="3">
-        <v>-13600</v>
+        <v>-13900</v>
       </c>
       <c r="J91" s="3">
-        <v>-6500</v>
+        <v>-6700</v>
       </c>
       <c r="K91" s="3">
         <v>-6700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-456100</v>
+        <v>-465800</v>
       </c>
       <c r="E94" s="3">
-        <v>-178500</v>
+        <v>-182300</v>
       </c>
       <c r="F94" s="3">
-        <v>-504400</v>
+        <v>-515000</v>
       </c>
       <c r="G94" s="3">
-        <v>-750700</v>
+        <v>-766600</v>
       </c>
       <c r="H94" s="3">
-        <v>-78700</v>
+        <v>-80300</v>
       </c>
       <c r="I94" s="3">
-        <v>-62300</v>
+        <v>-63600</v>
       </c>
       <c r="J94" s="3">
-        <v>-268800</v>
+        <v>-274500</v>
       </c>
       <c r="K94" s="3">
         <v>-7000</v>
@@ -3531,13 +3531,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-99500</v>
+        <v>-101600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-91000</v>
+        <v>-92900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-83600</v>
+        <v>-85300</v>
       </c>
       <c r="E100" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="F100" s="3">
-        <v>-83100</v>
+        <v>-84900</v>
       </c>
       <c r="G100" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="H100" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="I100" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="J100" s="3">
-        <v>98900</v>
+        <v>101000</v>
       </c>
       <c r="K100" s="3">
         <v>25800</v>
@@ -3714,10 +3714,10 @@
         <v>-2700</v>
       </c>
       <c r="E101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F101" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="G101" s="3">
         <v>-400</v>
@@ -3726,10 +3726,10 @@
         <v>400</v>
       </c>
       <c r="I101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J101" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34300</v>
+        <v>-35000</v>
       </c>
       <c r="E102" s="3">
-        <v>271400</v>
+        <v>277200</v>
       </c>
       <c r="F102" s="3">
-        <v>-106100</v>
+        <v>-108400</v>
       </c>
       <c r="G102" s="3">
-        <v>-365400</v>
+        <v>-373100</v>
       </c>
       <c r="H102" s="3">
-        <v>166500</v>
+        <v>170000</v>
       </c>
       <c r="I102" s="3">
-        <v>167800</v>
+        <v>171300</v>
       </c>
       <c r="J102" s="3">
-        <v>-12900</v>
+        <v>-13100</v>
       </c>
       <c r="K102" s="3">
         <v>109200</v>

--- a/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1350800</v>
+        <v>1333200</v>
       </c>
       <c r="E8" s="3">
-        <v>1313700</v>
+        <v>1296600</v>
       </c>
       <c r="F8" s="3">
-        <v>1128400</v>
+        <v>1113800</v>
       </c>
       <c r="G8" s="3">
-        <v>968900</v>
+        <v>956200</v>
       </c>
       <c r="H8" s="3">
-        <v>930100</v>
+        <v>918000</v>
       </c>
       <c r="I8" s="3">
-        <v>540400</v>
+        <v>533400</v>
       </c>
       <c r="J8" s="3">
-        <v>332800</v>
+        <v>328400</v>
       </c>
       <c r="K8" s="3">
         <v>185100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>134800</v>
+        <v>133100</v>
       </c>
       <c r="E9" s="3">
-        <v>120200</v>
+        <v>118600</v>
       </c>
       <c r="F9" s="3">
-        <v>91800</v>
+        <v>90600</v>
       </c>
       <c r="G9" s="3">
-        <v>136300</v>
+        <v>134600</v>
       </c>
       <c r="H9" s="3">
-        <v>318900</v>
+        <v>314700</v>
       </c>
       <c r="I9" s="3">
-        <v>59300</v>
+        <v>58500</v>
       </c>
       <c r="J9" s="3">
-        <v>29700</v>
+        <v>29300</v>
       </c>
       <c r="K9" s="3">
         <v>21800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1216000</v>
+        <v>1200200</v>
       </c>
       <c r="E10" s="3">
-        <v>1193500</v>
+        <v>1178000</v>
       </c>
       <c r="F10" s="3">
-        <v>1036700</v>
+        <v>1023200</v>
       </c>
       <c r="G10" s="3">
-        <v>832500</v>
+        <v>821700</v>
       </c>
       <c r="H10" s="3">
-        <v>611200</v>
+        <v>603300</v>
       </c>
       <c r="I10" s="3">
-        <v>481100</v>
+        <v>474800</v>
       </c>
       <c r="J10" s="3">
-        <v>303100</v>
+        <v>299100</v>
       </c>
       <c r="K10" s="3">
         <v>163200</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>212800</v>
+        <v>210100</v>
       </c>
       <c r="E12" s="3">
-        <v>201400</v>
+        <v>198800</v>
       </c>
       <c r="F12" s="3">
-        <v>177100</v>
+        <v>174800</v>
       </c>
       <c r="G12" s="3">
-        <v>137100</v>
+        <v>135300</v>
       </c>
       <c r="H12" s="3">
-        <v>89100</v>
+        <v>88000</v>
       </c>
       <c r="I12" s="3">
-        <v>42700</v>
+        <v>42200</v>
       </c>
       <c r="J12" s="3">
-        <v>24700</v>
+        <v>24400</v>
       </c>
       <c r="K12" s="3">
         <v>12400</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>928800</v>
+        <v>916800</v>
       </c>
       <c r="E17" s="3">
-        <v>883400</v>
+        <v>871900</v>
       </c>
       <c r="F17" s="3">
-        <v>734100</v>
+        <v>724600</v>
       </c>
       <c r="G17" s="3">
-        <v>650100</v>
+        <v>641600</v>
       </c>
       <c r="H17" s="3">
-        <v>750100</v>
+        <v>740400</v>
       </c>
       <c r="I17" s="3">
-        <v>353200</v>
+        <v>348600</v>
       </c>
       <c r="J17" s="3">
-        <v>191700</v>
+        <v>189200</v>
       </c>
       <c r="K17" s="3">
         <v>100600</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>422000</v>
+        <v>416500</v>
       </c>
       <c r="E18" s="3">
-        <v>430300</v>
+        <v>424700</v>
       </c>
       <c r="F18" s="3">
-        <v>394300</v>
+        <v>389200</v>
       </c>
       <c r="G18" s="3">
-        <v>318800</v>
+        <v>314600</v>
       </c>
       <c r="H18" s="3">
-        <v>179900</v>
+        <v>177600</v>
       </c>
       <c r="I18" s="3">
-        <v>187200</v>
+        <v>184700</v>
       </c>
       <c r="J18" s="3">
-        <v>141100</v>
+        <v>139200</v>
       </c>
       <c r="K18" s="3">
         <v>84400</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>150300</v>
+        <v>148400</v>
       </c>
       <c r="E20" s="3">
-        <v>147100</v>
+        <v>145200</v>
       </c>
       <c r="F20" s="3">
-        <v>111400</v>
+        <v>109900</v>
       </c>
       <c r="G20" s="3">
-        <v>34100</v>
+        <v>33600</v>
       </c>
       <c r="H20" s="3">
-        <v>14900</v>
+        <v>14700</v>
       </c>
       <c r="I20" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="J20" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="K20" s="3">
         <v>2100</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>598900</v>
+        <v>591100</v>
       </c>
       <c r="E21" s="3">
-        <v>595900</v>
+        <v>588200</v>
       </c>
       <c r="F21" s="3">
-        <v>521600</v>
+        <v>514800</v>
       </c>
       <c r="G21" s="3">
-        <v>366700</v>
+        <v>361900</v>
       </c>
       <c r="H21" s="3">
-        <v>205700</v>
+        <v>203100</v>
       </c>
       <c r="I21" s="3">
-        <v>207900</v>
+        <v>205200</v>
       </c>
       <c r="J21" s="3">
-        <v>153300</v>
+        <v>151300</v>
       </c>
       <c r="K21" s="3">
         <v>91400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>572300</v>
+        <v>564900</v>
       </c>
       <c r="E23" s="3">
-        <v>577400</v>
+        <v>569900</v>
       </c>
       <c r="F23" s="3">
-        <v>505700</v>
+        <v>499100</v>
       </c>
       <c r="G23" s="3">
-        <v>352800</v>
+        <v>348200</v>
       </c>
       <c r="H23" s="3">
-        <v>194800</v>
+        <v>192300</v>
       </c>
       <c r="I23" s="3">
-        <v>199100</v>
+        <v>196500</v>
       </c>
       <c r="J23" s="3">
-        <v>146900</v>
+        <v>145000</v>
       </c>
       <c r="K23" s="3">
         <v>86500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40700</v>
+        <v>40200</v>
       </c>
       <c r="E24" s="3">
-        <v>78100</v>
+        <v>77000</v>
       </c>
       <c r="F24" s="3">
-        <v>59000</v>
+        <v>58200</v>
       </c>
       <c r="G24" s="3">
-        <v>41700</v>
+        <v>41100</v>
       </c>
       <c r="H24" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="I24" s="3">
-        <v>44500</v>
+        <v>44000</v>
       </c>
       <c r="J24" s="3">
-        <v>30100</v>
+        <v>29700</v>
       </c>
       <c r="K24" s="3">
         <v>17100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>531600</v>
+        <v>524700</v>
       </c>
       <c r="E26" s="3">
-        <v>499300</v>
+        <v>492800</v>
       </c>
       <c r="F26" s="3">
-        <v>446700</v>
+        <v>440900</v>
       </c>
       <c r="G26" s="3">
-        <v>311200</v>
+        <v>307100</v>
       </c>
       <c r="H26" s="3">
-        <v>189700</v>
+        <v>187300</v>
       </c>
       <c r="I26" s="3">
-        <v>154600</v>
+        <v>152500</v>
       </c>
       <c r="J26" s="3">
-        <v>116800</v>
+        <v>115300</v>
       </c>
       <c r="K26" s="3">
         <v>69400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>531200</v>
+        <v>524300</v>
       </c>
       <c r="E27" s="3">
-        <v>499200</v>
+        <v>492700</v>
       </c>
       <c r="F27" s="3">
-        <v>447900</v>
+        <v>442100</v>
       </c>
       <c r="G27" s="3">
-        <v>312300</v>
+        <v>308200</v>
       </c>
       <c r="H27" s="3">
-        <v>191600</v>
+        <v>189100</v>
       </c>
       <c r="I27" s="3">
-        <v>154600</v>
+        <v>152500</v>
       </c>
       <c r="J27" s="3">
-        <v>116800</v>
+        <v>115300</v>
       </c>
       <c r="K27" s="3">
         <v>69400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-150300</v>
+        <v>-148400</v>
       </c>
       <c r="E32" s="3">
-        <v>-147100</v>
+        <v>-145200</v>
       </c>
       <c r="F32" s="3">
-        <v>-111400</v>
+        <v>-109900</v>
       </c>
       <c r="G32" s="3">
-        <v>-34100</v>
+        <v>-33600</v>
       </c>
       <c r="H32" s="3">
-        <v>-14900</v>
+        <v>-14700</v>
       </c>
       <c r="I32" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="J32" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="K32" s="3">
         <v>-2100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>531200</v>
+        <v>524300</v>
       </c>
       <c r="E33" s="3">
-        <v>499200</v>
+        <v>492700</v>
       </c>
       <c r="F33" s="3">
-        <v>447900</v>
+        <v>442100</v>
       </c>
       <c r="G33" s="3">
-        <v>312300</v>
+        <v>308200</v>
       </c>
       <c r="H33" s="3">
-        <v>191600</v>
+        <v>189100</v>
       </c>
       <c r="I33" s="3">
-        <v>154600</v>
+        <v>152500</v>
       </c>
       <c r="J33" s="3">
-        <v>116800</v>
+        <v>115300</v>
       </c>
       <c r="K33" s="3">
         <v>69400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>531200</v>
+        <v>524300</v>
       </c>
       <c r="E35" s="3">
-        <v>499200</v>
+        <v>492700</v>
       </c>
       <c r="F35" s="3">
-        <v>447900</v>
+        <v>442100</v>
       </c>
       <c r="G35" s="3">
-        <v>312300</v>
+        <v>308200</v>
       </c>
       <c r="H35" s="3">
-        <v>191600</v>
+        <v>189100</v>
       </c>
       <c r="I35" s="3">
-        <v>154600</v>
+        <v>152500</v>
       </c>
       <c r="J35" s="3">
-        <v>116800</v>
+        <v>115300</v>
       </c>
       <c r="K35" s="3">
         <v>69400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>273200</v>
+        <v>269700</v>
       </c>
       <c r="E41" s="3">
-        <v>310200</v>
+        <v>306200</v>
       </c>
       <c r="F41" s="3">
-        <v>33100</v>
+        <v>32600</v>
       </c>
       <c r="G41" s="3">
-        <v>142200</v>
+        <v>140400</v>
       </c>
       <c r="H41" s="3">
-        <v>513900</v>
+        <v>507200</v>
       </c>
       <c r="I41" s="3">
-        <v>335800</v>
+        <v>331500</v>
       </c>
       <c r="J41" s="3">
-        <v>164500</v>
+        <v>162400</v>
       </c>
       <c r="K41" s="3">
         <v>173200</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2010800</v>
+        <v>1984700</v>
       </c>
       <c r="E42" s="3">
-        <v>1689000</v>
+        <v>1667000</v>
       </c>
       <c r="F42" s="3">
-        <v>1537700</v>
+        <v>1517600</v>
       </c>
       <c r="G42" s="3">
-        <v>1131800</v>
+        <v>1117100</v>
       </c>
       <c r="H42" s="3">
-        <v>379400</v>
+        <v>374400</v>
       </c>
       <c r="I42" s="3">
-        <v>306600</v>
+        <v>302600</v>
       </c>
       <c r="J42" s="3">
-        <v>268100</v>
+        <v>264600</v>
       </c>
       <c r="K42" s="3">
         <v>300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>494800</v>
+        <v>488300</v>
       </c>
       <c r="E43" s="3">
-        <v>508700</v>
+        <v>502100</v>
       </c>
       <c r="F43" s="3">
-        <v>441500</v>
+        <v>435700</v>
       </c>
       <c r="G43" s="3">
-        <v>299300</v>
+        <v>295400</v>
       </c>
       <c r="H43" s="3">
-        <v>387400</v>
+        <v>382300</v>
       </c>
       <c r="I43" s="3">
-        <v>175700</v>
+        <v>173400</v>
       </c>
       <c r="J43" s="3">
-        <v>119400</v>
+        <v>117800</v>
       </c>
       <c r="K43" s="3">
         <v>71200</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>14900</v>
+        <v>14700</v>
       </c>
       <c r="I44" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>17</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>86200</v>
+        <v>85000</v>
       </c>
       <c r="E45" s="3">
-        <v>44100</v>
+        <v>43600</v>
       </c>
       <c r="F45" s="3">
-        <v>38000</v>
+        <v>37500</v>
       </c>
       <c r="G45" s="3">
-        <v>27200</v>
+        <v>26800</v>
       </c>
       <c r="H45" s="3">
-        <v>126500</v>
+        <v>124800</v>
       </c>
       <c r="I45" s="3">
-        <v>60300</v>
+        <v>59500</v>
       </c>
       <c r="J45" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="K45" s="3">
         <v>44200</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2865000</v>
+        <v>2827700</v>
       </c>
       <c r="E46" s="3">
-        <v>2552100</v>
+        <v>2518900</v>
       </c>
       <c r="F46" s="3">
-        <v>2050200</v>
+        <v>2023500</v>
       </c>
       <c r="G46" s="3">
-        <v>1600400</v>
+        <v>1579600</v>
       </c>
       <c r="H46" s="3">
-        <v>1159500</v>
+        <v>1144500</v>
       </c>
       <c r="I46" s="3">
-        <v>895900</v>
+        <v>884200</v>
       </c>
       <c r="J46" s="3">
-        <v>568000</v>
+        <v>560600</v>
       </c>
       <c r="K46" s="3">
         <v>288900</v>
@@ -1954,22 +1954,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="E47" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="F47" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="G47" s="3">
-        <v>24800</v>
+        <v>24500</v>
       </c>
       <c r="H47" s="3">
-        <v>21100</v>
+        <v>20800</v>
       </c>
       <c r="I47" s="3">
-        <v>19400</v>
+        <v>19100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>17</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>96600</v>
+        <v>95400</v>
       </c>
       <c r="E48" s="3">
-        <v>56600</v>
+        <v>55900</v>
       </c>
       <c r="F48" s="3">
-        <v>26600</v>
+        <v>26200</v>
       </c>
       <c r="G48" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="H48" s="3">
-        <v>42000</v>
+        <v>41400</v>
       </c>
       <c r="I48" s="3">
-        <v>16200</v>
+        <v>15900</v>
       </c>
       <c r="J48" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="K48" s="3">
         <v>8800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>703900</v>
+        <v>694700</v>
       </c>
       <c r="E49" s="3">
-        <v>239000</v>
+        <v>235900</v>
       </c>
       <c r="F49" s="3">
-        <v>240800</v>
+        <v>237700</v>
       </c>
       <c r="G49" s="3">
-        <v>242600</v>
+        <v>239500</v>
       </c>
       <c r="H49" s="3">
-        <v>478600</v>
+        <v>472400</v>
       </c>
       <c r="I49" s="3">
-        <v>240000</v>
+        <v>236900</v>
       </c>
       <c r="J49" s="3">
-        <v>240800</v>
+        <v>237700</v>
       </c>
       <c r="K49" s="3">
         <v>235700</v>
@@ -2134,22 +2134,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22900</v>
+        <v>22600</v>
       </c>
       <c r="E52" s="3">
-        <v>128900</v>
+        <v>127300</v>
       </c>
       <c r="F52" s="3">
-        <v>129200</v>
+        <v>127500</v>
       </c>
       <c r="G52" s="3">
-        <v>30000</v>
+        <v>29600</v>
       </c>
       <c r="H52" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="I52" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J52" s="3">
         <v>3000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3702200</v>
+        <v>3654100</v>
       </c>
       <c r="E54" s="3">
-        <v>2988500</v>
+        <v>2949600</v>
       </c>
       <c r="F54" s="3">
-        <v>2458100</v>
+        <v>2426100</v>
       </c>
       <c r="G54" s="3">
-        <v>1918100</v>
+        <v>1893200</v>
       </c>
       <c r="H54" s="3">
-        <v>1465200</v>
+        <v>1446200</v>
       </c>
       <c r="I54" s="3">
-        <v>1174800</v>
+        <v>1159500</v>
       </c>
       <c r="J54" s="3">
-        <v>823500</v>
+        <v>812800</v>
       </c>
       <c r="K54" s="3">
         <v>534400</v>
@@ -2274,10 +2274,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12500</v>
+        <v>12300</v>
       </c>
       <c r="E57" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="F57" s="3">
         <v>3100</v>
@@ -2289,7 +2289,7 @@
         <v>2600</v>
       </c>
       <c r="I57" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>4800</v>
       </c>
       <c r="I58" s="3">
-        <v>27300</v>
+        <v>26900</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>640500</v>
+        <v>632200</v>
       </c>
       <c r="E59" s="3">
-        <v>613000</v>
+        <v>605100</v>
       </c>
       <c r="F59" s="3">
-        <v>646600</v>
+        <v>638200</v>
       </c>
       <c r="G59" s="3">
-        <v>605200</v>
+        <v>597300</v>
       </c>
       <c r="H59" s="3">
-        <v>569100</v>
+        <v>561700</v>
       </c>
       <c r="I59" s="3">
-        <v>305500</v>
+        <v>301500</v>
       </c>
       <c r="J59" s="3">
-        <v>168600</v>
+        <v>166400</v>
       </c>
       <c r="K59" s="3">
         <v>119700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>653000</v>
+        <v>644500</v>
       </c>
       <c r="E60" s="3">
-        <v>618700</v>
+        <v>610700</v>
       </c>
       <c r="F60" s="3">
-        <v>649700</v>
+        <v>641300</v>
       </c>
       <c r="G60" s="3">
-        <v>606800</v>
+        <v>598900</v>
       </c>
       <c r="H60" s="3">
-        <v>396900</v>
+        <v>391700</v>
       </c>
       <c r="I60" s="3">
-        <v>336400</v>
+        <v>332100</v>
       </c>
       <c r="J60" s="3">
-        <v>168600</v>
+        <v>166400</v>
       </c>
       <c r="K60" s="3">
         <v>120100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>114900</v>
+        <v>113400</v>
       </c>
       <c r="E62" s="3">
-        <v>91100</v>
+        <v>89900</v>
       </c>
       <c r="F62" s="3">
-        <v>74900</v>
+        <v>73900</v>
       </c>
       <c r="G62" s="3">
-        <v>73400</v>
+        <v>72400</v>
       </c>
       <c r="H62" s="3">
-        <v>77500</v>
+        <v>76500</v>
       </c>
       <c r="I62" s="3">
-        <v>81500</v>
+        <v>80500</v>
       </c>
       <c r="J62" s="3">
-        <v>83100</v>
+        <v>82000</v>
       </c>
       <c r="K62" s="3">
         <v>77700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>952500</v>
+        <v>940100</v>
       </c>
       <c r="E66" s="3">
-        <v>706200</v>
+        <v>697000</v>
       </c>
       <c r="F66" s="3">
-        <v>720900</v>
+        <v>711500</v>
       </c>
       <c r="G66" s="3">
-        <v>677600</v>
+        <v>668800</v>
       </c>
       <c r="H66" s="3">
-        <v>473000</v>
+        <v>466800</v>
       </c>
       <c r="I66" s="3">
-        <v>418000</v>
+        <v>412500</v>
       </c>
       <c r="J66" s="3">
-        <v>251700</v>
+        <v>248400</v>
       </c>
       <c r="K66" s="3">
         <v>197800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2100800</v>
+        <v>2073400</v>
       </c>
       <c r="E72" s="3">
-        <v>1669000</v>
+        <v>1647300</v>
       </c>
       <c r="F72" s="3">
-        <v>1169800</v>
+        <v>1154600</v>
       </c>
       <c r="G72" s="3">
-        <v>721900</v>
+        <v>712500</v>
       </c>
       <c r="H72" s="3">
-        <v>502600</v>
+        <v>496000</v>
       </c>
       <c r="I72" s="3">
-        <v>311000</v>
+        <v>307000</v>
       </c>
       <c r="J72" s="3">
-        <v>156500</v>
+        <v>154400</v>
       </c>
       <c r="K72" s="3">
         <v>38700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2749800</v>
+        <v>2714000</v>
       </c>
       <c r="E76" s="3">
-        <v>2282300</v>
+        <v>2252600</v>
       </c>
       <c r="F76" s="3">
-        <v>1737200</v>
+        <v>1714600</v>
       </c>
       <c r="G76" s="3">
-        <v>1240500</v>
+        <v>1224400</v>
       </c>
       <c r="H76" s="3">
-        <v>992300</v>
+        <v>979400</v>
       </c>
       <c r="I76" s="3">
-        <v>756800</v>
+        <v>747000</v>
       </c>
       <c r="J76" s="3">
-        <v>571800</v>
+        <v>564400</v>
       </c>
       <c r="K76" s="3">
         <v>336500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>531200</v>
+        <v>524300</v>
       </c>
       <c r="E81" s="3">
-        <v>499200</v>
+        <v>492700</v>
       </c>
       <c r="F81" s="3">
-        <v>447900</v>
+        <v>442100</v>
       </c>
       <c r="G81" s="3">
-        <v>312300</v>
+        <v>308200</v>
       </c>
       <c r="H81" s="3">
-        <v>191600</v>
+        <v>189100</v>
       </c>
       <c r="I81" s="3">
-        <v>154600</v>
+        <v>152500</v>
       </c>
       <c r="J81" s="3">
-        <v>116800</v>
+        <v>115300</v>
       </c>
       <c r="K81" s="3">
         <v>69400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26600</v>
+        <v>26200</v>
       </c>
       <c r="E83" s="3">
-        <v>18500</v>
+        <v>18300</v>
       </c>
       <c r="F83" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="G83" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="H83" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="I83" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="J83" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="K83" s="3">
         <v>4800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>518800</v>
+        <v>512100</v>
       </c>
       <c r="E89" s="3">
-        <v>450800</v>
+        <v>444900</v>
       </c>
       <c r="F89" s="3">
-        <v>485400</v>
+        <v>479100</v>
       </c>
       <c r="G89" s="3">
-        <v>384400</v>
+        <v>379400</v>
       </c>
       <c r="H89" s="3">
-        <v>245600</v>
+        <v>242400</v>
       </c>
       <c r="I89" s="3">
-        <v>228100</v>
+        <v>225100</v>
       </c>
       <c r="J89" s="3">
-        <v>159700</v>
+        <v>157600</v>
       </c>
       <c r="K89" s="3">
         <v>90300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41200</v>
+        <v>-40600</v>
       </c>
       <c r="E91" s="3">
-        <v>-31800</v>
+        <v>-31400</v>
       </c>
       <c r="F91" s="3">
-        <v>-17800</v>
+        <v>-17500</v>
       </c>
       <c r="G91" s="3">
-        <v>-13500</v>
+        <v>-13300</v>
       </c>
       <c r="H91" s="3">
-        <v>-13900</v>
+        <v>-13700</v>
       </c>
       <c r="I91" s="3">
-        <v>-13900</v>
+        <v>-13700</v>
       </c>
       <c r="J91" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="K91" s="3">
         <v>-6700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-465800</v>
+        <v>-459700</v>
       </c>
       <c r="E94" s="3">
-        <v>-182300</v>
+        <v>-179900</v>
       </c>
       <c r="F94" s="3">
-        <v>-515000</v>
+        <v>-508300</v>
       </c>
       <c r="G94" s="3">
-        <v>-766600</v>
+        <v>-756600</v>
       </c>
       <c r="H94" s="3">
-        <v>-80300</v>
+        <v>-79300</v>
       </c>
       <c r="I94" s="3">
-        <v>-63600</v>
+        <v>-62800</v>
       </c>
       <c r="J94" s="3">
-        <v>-274500</v>
+        <v>-270900</v>
       </c>
       <c r="K94" s="3">
         <v>-7000</v>
@@ -3531,13 +3531,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-101600</v>
+        <v>-100300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-92900</v>
+        <v>-91700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-85300</v>
+        <v>-84200</v>
       </c>
       <c r="E100" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="F100" s="3">
-        <v>-84900</v>
+        <v>-83800</v>
       </c>
       <c r="G100" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="H100" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="I100" s="3">
         <v>4700</v>
       </c>
       <c r="J100" s="3">
-        <v>101000</v>
+        <v>99700</v>
       </c>
       <c r="K100" s="3">
         <v>25800</v>
@@ -3714,10 +3714,10 @@
         <v>-2700</v>
       </c>
       <c r="E101" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="F101" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G101" s="3">
         <v>-400</v>
@@ -3726,10 +3726,10 @@
         <v>400</v>
       </c>
       <c r="I101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J101" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-35000</v>
+        <v>-34500</v>
       </c>
       <c r="E102" s="3">
-        <v>277200</v>
+        <v>273500</v>
       </c>
       <c r="F102" s="3">
-        <v>-108400</v>
+        <v>-107000</v>
       </c>
       <c r="G102" s="3">
-        <v>-373100</v>
+        <v>-368300</v>
       </c>
       <c r="H102" s="3">
-        <v>170000</v>
+        <v>167800</v>
       </c>
       <c r="I102" s="3">
-        <v>171300</v>
+        <v>169100</v>
       </c>
       <c r="J102" s="3">
-        <v>-13100</v>
+        <v>-13000</v>
       </c>
       <c r="K102" s="3">
         <v>109200</v>

--- a/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1333200</v>
+        <v>1355600</v>
       </c>
       <c r="E8" s="3">
-        <v>1296600</v>
+        <v>1318400</v>
       </c>
       <c r="F8" s="3">
-        <v>1113800</v>
+        <v>1132400</v>
       </c>
       <c r="G8" s="3">
-        <v>956200</v>
+        <v>972300</v>
       </c>
       <c r="H8" s="3">
-        <v>918000</v>
+        <v>933400</v>
       </c>
       <c r="I8" s="3">
-        <v>533400</v>
+        <v>542300</v>
       </c>
       <c r="J8" s="3">
-        <v>328400</v>
+        <v>333900</v>
       </c>
       <c r="K8" s="3">
         <v>185100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>133100</v>
+        <v>135300</v>
       </c>
       <c r="E9" s="3">
-        <v>118600</v>
+        <v>120600</v>
       </c>
       <c r="F9" s="3">
-        <v>90600</v>
+        <v>92100</v>
       </c>
       <c r="G9" s="3">
-        <v>134600</v>
+        <v>136800</v>
       </c>
       <c r="H9" s="3">
-        <v>314700</v>
+        <v>320000</v>
       </c>
       <c r="I9" s="3">
-        <v>58500</v>
+        <v>59500</v>
       </c>
       <c r="J9" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="K9" s="3">
         <v>21800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1200200</v>
+        <v>1220300</v>
       </c>
       <c r="E10" s="3">
-        <v>1178000</v>
+        <v>1197700</v>
       </c>
       <c r="F10" s="3">
-        <v>1023200</v>
+        <v>1040300</v>
       </c>
       <c r="G10" s="3">
-        <v>821700</v>
+        <v>835500</v>
       </c>
       <c r="H10" s="3">
-        <v>603300</v>
+        <v>613400</v>
       </c>
       <c r="I10" s="3">
-        <v>474800</v>
+        <v>482800</v>
       </c>
       <c r="J10" s="3">
-        <v>299100</v>
+        <v>304100</v>
       </c>
       <c r="K10" s="3">
         <v>163200</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>210100</v>
+        <v>213600</v>
       </c>
       <c r="E12" s="3">
-        <v>198800</v>
+        <v>202100</v>
       </c>
       <c r="F12" s="3">
-        <v>174800</v>
+        <v>177700</v>
       </c>
       <c r="G12" s="3">
-        <v>135300</v>
+        <v>137600</v>
       </c>
       <c r="H12" s="3">
-        <v>88000</v>
+        <v>89500</v>
       </c>
       <c r="I12" s="3">
-        <v>42200</v>
+        <v>42900</v>
       </c>
       <c r="J12" s="3">
-        <v>24400</v>
+        <v>24800</v>
       </c>
       <c r="K12" s="3">
         <v>12400</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>916800</v>
+        <v>932100</v>
       </c>
       <c r="E17" s="3">
-        <v>871900</v>
+        <v>886500</v>
       </c>
       <c r="F17" s="3">
-        <v>724600</v>
+        <v>736700</v>
       </c>
       <c r="G17" s="3">
-        <v>641600</v>
+        <v>652400</v>
       </c>
       <c r="H17" s="3">
-        <v>740400</v>
+        <v>752800</v>
       </c>
       <c r="I17" s="3">
-        <v>348600</v>
+        <v>354500</v>
       </c>
       <c r="J17" s="3">
-        <v>189200</v>
+        <v>192400</v>
       </c>
       <c r="K17" s="3">
         <v>100600</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>416500</v>
+        <v>423500</v>
       </c>
       <c r="E18" s="3">
-        <v>424700</v>
+        <v>431800</v>
       </c>
       <c r="F18" s="3">
-        <v>389200</v>
+        <v>395700</v>
       </c>
       <c r="G18" s="3">
-        <v>314600</v>
+        <v>319900</v>
       </c>
       <c r="H18" s="3">
-        <v>177600</v>
+        <v>180600</v>
       </c>
       <c r="I18" s="3">
-        <v>184700</v>
+        <v>187800</v>
       </c>
       <c r="J18" s="3">
-        <v>139200</v>
+        <v>141600</v>
       </c>
       <c r="K18" s="3">
         <v>84400</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>148400</v>
+        <v>150900</v>
       </c>
       <c r="E20" s="3">
-        <v>145200</v>
+        <v>147600</v>
       </c>
       <c r="F20" s="3">
-        <v>109900</v>
+        <v>111800</v>
       </c>
       <c r="G20" s="3">
-        <v>33600</v>
+        <v>34200</v>
       </c>
       <c r="H20" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="I20" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="J20" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="K20" s="3">
         <v>2100</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>591100</v>
+        <v>601000</v>
       </c>
       <c r="E21" s="3">
-        <v>588200</v>
+        <v>598000</v>
       </c>
       <c r="F21" s="3">
-        <v>514800</v>
+        <v>523400</v>
       </c>
       <c r="G21" s="3">
-        <v>361900</v>
+        <v>368000</v>
       </c>
       <c r="H21" s="3">
-        <v>203100</v>
+        <v>206400</v>
       </c>
       <c r="I21" s="3">
-        <v>205200</v>
+        <v>208700</v>
       </c>
       <c r="J21" s="3">
-        <v>151300</v>
+        <v>153800</v>
       </c>
       <c r="K21" s="3">
         <v>91400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>564900</v>
+        <v>574300</v>
       </c>
       <c r="E23" s="3">
-        <v>569900</v>
+        <v>579400</v>
       </c>
       <c r="F23" s="3">
-        <v>499100</v>
+        <v>507500</v>
       </c>
       <c r="G23" s="3">
-        <v>348200</v>
+        <v>354100</v>
       </c>
       <c r="H23" s="3">
-        <v>192300</v>
+        <v>195500</v>
       </c>
       <c r="I23" s="3">
-        <v>196500</v>
+        <v>199800</v>
       </c>
       <c r="J23" s="3">
-        <v>145000</v>
+        <v>147400</v>
       </c>
       <c r="K23" s="3">
         <v>86500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="E24" s="3">
-        <v>77000</v>
+        <v>78300</v>
       </c>
       <c r="F24" s="3">
-        <v>58200</v>
+        <v>59200</v>
       </c>
       <c r="G24" s="3">
-        <v>41100</v>
+        <v>41800</v>
       </c>
       <c r="H24" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I24" s="3">
-        <v>44000</v>
+        <v>44700</v>
       </c>
       <c r="J24" s="3">
-        <v>29700</v>
+        <v>30200</v>
       </c>
       <c r="K24" s="3">
         <v>17100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>524700</v>
+        <v>533500</v>
       </c>
       <c r="E26" s="3">
-        <v>492800</v>
+        <v>501100</v>
       </c>
       <c r="F26" s="3">
-        <v>440900</v>
+        <v>448300</v>
       </c>
       <c r="G26" s="3">
-        <v>307100</v>
+        <v>312300</v>
       </c>
       <c r="H26" s="3">
-        <v>187300</v>
+        <v>190400</v>
       </c>
       <c r="I26" s="3">
-        <v>152500</v>
+        <v>155100</v>
       </c>
       <c r="J26" s="3">
-        <v>115300</v>
+        <v>117200</v>
       </c>
       <c r="K26" s="3">
         <v>69400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>524300</v>
+        <v>533100</v>
       </c>
       <c r="E27" s="3">
-        <v>492700</v>
+        <v>501000</v>
       </c>
       <c r="F27" s="3">
-        <v>442100</v>
+        <v>449500</v>
       </c>
       <c r="G27" s="3">
-        <v>308200</v>
+        <v>313400</v>
       </c>
       <c r="H27" s="3">
-        <v>189100</v>
+        <v>192200</v>
       </c>
       <c r="I27" s="3">
-        <v>152500</v>
+        <v>155100</v>
       </c>
       <c r="J27" s="3">
-        <v>115300</v>
+        <v>117200</v>
       </c>
       <c r="K27" s="3">
         <v>69400</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-148400</v>
+        <v>-150900</v>
       </c>
       <c r="E32" s="3">
-        <v>-145200</v>
+        <v>-147600</v>
       </c>
       <c r="F32" s="3">
-        <v>-109900</v>
+        <v>-111800</v>
       </c>
       <c r="G32" s="3">
-        <v>-33600</v>
+        <v>-34200</v>
       </c>
       <c r="H32" s="3">
-        <v>-14700</v>
+        <v>-14900</v>
       </c>
       <c r="I32" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="J32" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K32" s="3">
         <v>-2100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>524300</v>
+        <v>533100</v>
       </c>
       <c r="E33" s="3">
-        <v>492700</v>
+        <v>501000</v>
       </c>
       <c r="F33" s="3">
-        <v>442100</v>
+        <v>449500</v>
       </c>
       <c r="G33" s="3">
-        <v>308200</v>
+        <v>313400</v>
       </c>
       <c r="H33" s="3">
-        <v>189100</v>
+        <v>192200</v>
       </c>
       <c r="I33" s="3">
-        <v>152500</v>
+        <v>155100</v>
       </c>
       <c r="J33" s="3">
-        <v>115300</v>
+        <v>117200</v>
       </c>
       <c r="K33" s="3">
         <v>69400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>524300</v>
+        <v>533100</v>
       </c>
       <c r="E35" s="3">
-        <v>492700</v>
+        <v>501000</v>
       </c>
       <c r="F35" s="3">
-        <v>442100</v>
+        <v>449500</v>
       </c>
       <c r="G35" s="3">
-        <v>308200</v>
+        <v>313400</v>
       </c>
       <c r="H35" s="3">
-        <v>189100</v>
+        <v>192200</v>
       </c>
       <c r="I35" s="3">
-        <v>152500</v>
+        <v>155100</v>
       </c>
       <c r="J35" s="3">
-        <v>115300</v>
+        <v>117200</v>
       </c>
       <c r="K35" s="3">
         <v>69400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>269700</v>
+        <v>274200</v>
       </c>
       <c r="E41" s="3">
-        <v>306200</v>
+        <v>311300</v>
       </c>
       <c r="F41" s="3">
-        <v>32600</v>
+        <v>33200</v>
       </c>
       <c r="G41" s="3">
-        <v>140400</v>
+        <v>142700</v>
       </c>
       <c r="H41" s="3">
-        <v>507200</v>
+        <v>515700</v>
       </c>
       <c r="I41" s="3">
-        <v>331500</v>
+        <v>337000</v>
       </c>
       <c r="J41" s="3">
-        <v>162400</v>
+        <v>165100</v>
       </c>
       <c r="K41" s="3">
         <v>173200</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1984700</v>
+        <v>2017900</v>
       </c>
       <c r="E42" s="3">
-        <v>1667000</v>
+        <v>1694900</v>
       </c>
       <c r="F42" s="3">
-        <v>1517600</v>
+        <v>1543100</v>
       </c>
       <c r="G42" s="3">
-        <v>1117100</v>
+        <v>1135800</v>
       </c>
       <c r="H42" s="3">
-        <v>374400</v>
+        <v>380700</v>
       </c>
       <c r="I42" s="3">
-        <v>302600</v>
+        <v>307700</v>
       </c>
       <c r="J42" s="3">
-        <v>264600</v>
+        <v>269100</v>
       </c>
       <c r="K42" s="3">
         <v>300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>488300</v>
+        <v>496500</v>
       </c>
       <c r="E43" s="3">
-        <v>502100</v>
+        <v>510500</v>
       </c>
       <c r="F43" s="3">
-        <v>435700</v>
+        <v>443000</v>
       </c>
       <c r="G43" s="3">
-        <v>295400</v>
+        <v>300300</v>
       </c>
       <c r="H43" s="3">
-        <v>382300</v>
+        <v>388700</v>
       </c>
       <c r="I43" s="3">
-        <v>173400</v>
+        <v>176300</v>
       </c>
       <c r="J43" s="3">
-        <v>117800</v>
+        <v>119800</v>
       </c>
       <c r="K43" s="3">
         <v>71200</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="I44" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>17</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>85000</v>
+        <v>86500</v>
       </c>
       <c r="E45" s="3">
-        <v>43600</v>
+        <v>44300</v>
       </c>
       <c r="F45" s="3">
-        <v>37500</v>
+        <v>38100</v>
       </c>
       <c r="G45" s="3">
-        <v>26800</v>
+        <v>27300</v>
       </c>
       <c r="H45" s="3">
-        <v>124800</v>
+        <v>126900</v>
       </c>
       <c r="I45" s="3">
-        <v>59500</v>
+        <v>60500</v>
       </c>
       <c r="J45" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="K45" s="3">
         <v>44200</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2827700</v>
+        <v>2875100</v>
       </c>
       <c r="E46" s="3">
-        <v>2518900</v>
+        <v>2561100</v>
       </c>
       <c r="F46" s="3">
-        <v>2023500</v>
+        <v>2057400</v>
       </c>
       <c r="G46" s="3">
-        <v>1579600</v>
+        <v>1606100</v>
       </c>
       <c r="H46" s="3">
-        <v>1144500</v>
+        <v>1163600</v>
       </c>
       <c r="I46" s="3">
-        <v>884200</v>
+        <v>899000</v>
       </c>
       <c r="J46" s="3">
-        <v>560600</v>
+        <v>570000</v>
       </c>
       <c r="K46" s="3">
         <v>288900</v>
@@ -1954,22 +1954,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="E47" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="F47" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="G47" s="3">
-        <v>24500</v>
+        <v>24900</v>
       </c>
       <c r="H47" s="3">
-        <v>20800</v>
+        <v>21200</v>
       </c>
       <c r="I47" s="3">
-        <v>19100</v>
+        <v>19400</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>17</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>95400</v>
+        <v>97000</v>
       </c>
       <c r="E48" s="3">
-        <v>55900</v>
+        <v>56800</v>
       </c>
       <c r="F48" s="3">
-        <v>26200</v>
+        <v>26600</v>
       </c>
       <c r="G48" s="3">
-        <v>20100</v>
+        <v>20400</v>
       </c>
       <c r="H48" s="3">
-        <v>41400</v>
+        <v>42100</v>
       </c>
       <c r="I48" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="J48" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="K48" s="3">
         <v>8800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>694700</v>
+        <v>706400</v>
       </c>
       <c r="E49" s="3">
-        <v>235900</v>
+        <v>239900</v>
       </c>
       <c r="F49" s="3">
-        <v>237700</v>
+        <v>241700</v>
       </c>
       <c r="G49" s="3">
-        <v>239500</v>
+        <v>243500</v>
       </c>
       <c r="H49" s="3">
-        <v>472400</v>
+        <v>480300</v>
       </c>
       <c r="I49" s="3">
-        <v>236900</v>
+        <v>240900</v>
       </c>
       <c r="J49" s="3">
-        <v>237700</v>
+        <v>241700</v>
       </c>
       <c r="K49" s="3">
         <v>235700</v>
@@ -2134,22 +2134,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22600</v>
+        <v>23000</v>
       </c>
       <c r="E52" s="3">
-        <v>127300</v>
+        <v>129400</v>
       </c>
       <c r="F52" s="3">
-        <v>127500</v>
+        <v>129600</v>
       </c>
       <c r="G52" s="3">
-        <v>29600</v>
+        <v>30100</v>
       </c>
       <c r="H52" s="3">
-        <v>24100</v>
+        <v>24500</v>
       </c>
       <c r="I52" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J52" s="3">
         <v>3000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3654100</v>
+        <v>3715300</v>
       </c>
       <c r="E54" s="3">
-        <v>2949600</v>
+        <v>2999000</v>
       </c>
       <c r="F54" s="3">
-        <v>2426100</v>
+        <v>2466800</v>
       </c>
       <c r="G54" s="3">
-        <v>1893200</v>
+        <v>1924900</v>
       </c>
       <c r="H54" s="3">
-        <v>1446200</v>
+        <v>1470400</v>
       </c>
       <c r="I54" s="3">
-        <v>1159500</v>
+        <v>1178900</v>
       </c>
       <c r="J54" s="3">
-        <v>812800</v>
+        <v>826400</v>
       </c>
       <c r="K54" s="3">
         <v>534400</v>
@@ -2274,10 +2274,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="E57" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F57" s="3">
         <v>3100</v>
@@ -2289,7 +2289,7 @@
         <v>2600</v>
       </c>
       <c r="I57" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2322,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I58" s="3">
-        <v>26900</v>
+        <v>27400</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>632200</v>
+        <v>642800</v>
       </c>
       <c r="E59" s="3">
-        <v>605100</v>
+        <v>615200</v>
       </c>
       <c r="F59" s="3">
-        <v>638200</v>
+        <v>648900</v>
       </c>
       <c r="G59" s="3">
-        <v>597300</v>
+        <v>607300</v>
       </c>
       <c r="H59" s="3">
-        <v>561700</v>
+        <v>571100</v>
       </c>
       <c r="I59" s="3">
-        <v>301500</v>
+        <v>306600</v>
       </c>
       <c r="J59" s="3">
-        <v>166400</v>
+        <v>169200</v>
       </c>
       <c r="K59" s="3">
         <v>119700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>644500</v>
+        <v>655300</v>
       </c>
       <c r="E60" s="3">
-        <v>610700</v>
+        <v>620900</v>
       </c>
       <c r="F60" s="3">
-        <v>641300</v>
+        <v>652000</v>
       </c>
       <c r="G60" s="3">
-        <v>598900</v>
+        <v>608900</v>
       </c>
       <c r="H60" s="3">
-        <v>391700</v>
+        <v>398300</v>
       </c>
       <c r="I60" s="3">
-        <v>332100</v>
+        <v>337600</v>
       </c>
       <c r="J60" s="3">
-        <v>166400</v>
+        <v>169200</v>
       </c>
       <c r="K60" s="3">
         <v>120100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>113400</v>
+        <v>115300</v>
       </c>
       <c r="E62" s="3">
-        <v>89900</v>
+        <v>91400</v>
       </c>
       <c r="F62" s="3">
-        <v>73900</v>
+        <v>75100</v>
       </c>
       <c r="G62" s="3">
-        <v>72400</v>
+        <v>73600</v>
       </c>
       <c r="H62" s="3">
-        <v>76500</v>
+        <v>77800</v>
       </c>
       <c r="I62" s="3">
-        <v>80500</v>
+        <v>81800</v>
       </c>
       <c r="J62" s="3">
-        <v>82000</v>
+        <v>83400</v>
       </c>
       <c r="K62" s="3">
         <v>77700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>940100</v>
+        <v>955800</v>
       </c>
       <c r="E66" s="3">
-        <v>697000</v>
+        <v>708700</v>
       </c>
       <c r="F66" s="3">
-        <v>711500</v>
+        <v>723500</v>
       </c>
       <c r="G66" s="3">
-        <v>668800</v>
+        <v>680000</v>
       </c>
       <c r="H66" s="3">
-        <v>466800</v>
+        <v>474600</v>
       </c>
       <c r="I66" s="3">
-        <v>412500</v>
+        <v>419400</v>
       </c>
       <c r="J66" s="3">
-        <v>248400</v>
+        <v>252500</v>
       </c>
       <c r="K66" s="3">
         <v>197800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2073400</v>
+        <v>2108200</v>
       </c>
       <c r="E72" s="3">
-        <v>1647300</v>
+        <v>1674900</v>
       </c>
       <c r="F72" s="3">
-        <v>1154600</v>
+        <v>1173900</v>
       </c>
       <c r="G72" s="3">
-        <v>712500</v>
+        <v>724400</v>
       </c>
       <c r="H72" s="3">
-        <v>496000</v>
+        <v>504400</v>
       </c>
       <c r="I72" s="3">
-        <v>307000</v>
+        <v>312100</v>
       </c>
       <c r="J72" s="3">
-        <v>154400</v>
+        <v>157000</v>
       </c>
       <c r="K72" s="3">
         <v>38700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2714000</v>
+        <v>2759500</v>
       </c>
       <c r="E76" s="3">
-        <v>2252600</v>
+        <v>2290300</v>
       </c>
       <c r="F76" s="3">
-        <v>1714600</v>
+        <v>1743300</v>
       </c>
       <c r="G76" s="3">
-        <v>1224400</v>
+        <v>1244900</v>
       </c>
       <c r="H76" s="3">
-        <v>979400</v>
+        <v>995800</v>
       </c>
       <c r="I76" s="3">
-        <v>747000</v>
+        <v>759500</v>
       </c>
       <c r="J76" s="3">
-        <v>564400</v>
+        <v>573900</v>
       </c>
       <c r="K76" s="3">
         <v>336500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>524300</v>
+        <v>533100</v>
       </c>
       <c r="E81" s="3">
-        <v>492700</v>
+        <v>501000</v>
       </c>
       <c r="F81" s="3">
-        <v>442100</v>
+        <v>449500</v>
       </c>
       <c r="G81" s="3">
-        <v>308200</v>
+        <v>313400</v>
       </c>
       <c r="H81" s="3">
-        <v>189100</v>
+        <v>192200</v>
       </c>
       <c r="I81" s="3">
-        <v>152500</v>
+        <v>155100</v>
       </c>
       <c r="J81" s="3">
-        <v>115300</v>
+        <v>117200</v>
       </c>
       <c r="K81" s="3">
         <v>69400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26200</v>
+        <v>26700</v>
       </c>
       <c r="E83" s="3">
-        <v>18300</v>
+        <v>18600</v>
       </c>
       <c r="F83" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="G83" s="3">
-        <v>13700</v>
+        <v>13900</v>
       </c>
       <c r="H83" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="I83" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="J83" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="K83" s="3">
         <v>4800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>512100</v>
+        <v>520700</v>
       </c>
       <c r="E89" s="3">
-        <v>444900</v>
+        <v>452400</v>
       </c>
       <c r="F89" s="3">
-        <v>479100</v>
+        <v>487100</v>
       </c>
       <c r="G89" s="3">
-        <v>379400</v>
+        <v>385700</v>
       </c>
       <c r="H89" s="3">
-        <v>242400</v>
+        <v>246400</v>
       </c>
       <c r="I89" s="3">
-        <v>225100</v>
+        <v>228900</v>
       </c>
       <c r="J89" s="3">
-        <v>157600</v>
+        <v>160300</v>
       </c>
       <c r="K89" s="3">
         <v>90300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40600</v>
+        <v>-41300</v>
       </c>
       <c r="E91" s="3">
-        <v>-31400</v>
+        <v>-32000</v>
       </c>
       <c r="F91" s="3">
-        <v>-17500</v>
+        <v>-17800</v>
       </c>
       <c r="G91" s="3">
-        <v>-13300</v>
+        <v>-13500</v>
       </c>
       <c r="H91" s="3">
-        <v>-13700</v>
+        <v>-13900</v>
       </c>
       <c r="I91" s="3">
-        <v>-13700</v>
+        <v>-14000</v>
       </c>
       <c r="J91" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="K91" s="3">
         <v>-6700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-459700</v>
+        <v>-467400</v>
       </c>
       <c r="E94" s="3">
-        <v>-179900</v>
+        <v>-182900</v>
       </c>
       <c r="F94" s="3">
-        <v>-508300</v>
+        <v>-516800</v>
       </c>
       <c r="G94" s="3">
-        <v>-756600</v>
+        <v>-769300</v>
       </c>
       <c r="H94" s="3">
-        <v>-79300</v>
+        <v>-80600</v>
       </c>
       <c r="I94" s="3">
-        <v>-62800</v>
+        <v>-63800</v>
       </c>
       <c r="J94" s="3">
-        <v>-270900</v>
+        <v>-275500</v>
       </c>
       <c r="K94" s="3">
         <v>-7000</v>
@@ -3531,13 +3531,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-100300</v>
+        <v>-101900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-91700</v>
+        <v>-93300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-84200</v>
+        <v>-85600</v>
       </c>
       <c r="E100" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="F100" s="3">
-        <v>-83800</v>
+        <v>-85200</v>
       </c>
       <c r="G100" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="H100" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="I100" s="3">
         <v>4700</v>
       </c>
       <c r="J100" s="3">
-        <v>99700</v>
+        <v>101400</v>
       </c>
       <c r="K100" s="3">
         <v>25800</v>
@@ -3714,10 +3714,10 @@
         <v>-2700</v>
       </c>
       <c r="E101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F101" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="G101" s="3">
         <v>-400</v>
@@ -3726,10 +3726,10 @@
         <v>400</v>
       </c>
       <c r="I101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J101" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34500</v>
+        <v>-35100</v>
       </c>
       <c r="E102" s="3">
-        <v>273500</v>
+        <v>278100</v>
       </c>
       <c r="F102" s="3">
-        <v>-107000</v>
+        <v>-108700</v>
       </c>
       <c r="G102" s="3">
-        <v>-368300</v>
+        <v>-374400</v>
       </c>
       <c r="H102" s="3">
-        <v>167800</v>
+        <v>170600</v>
       </c>
       <c r="I102" s="3">
-        <v>169100</v>
+        <v>171900</v>
       </c>
       <c r="J102" s="3">
-        <v>-13000</v>
+        <v>-13200</v>
       </c>
       <c r="K102" s="3">
         <v>109200</v>

--- a/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>ATHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1355600</v>
+        <v>1141700</v>
       </c>
       <c r="E8" s="3">
-        <v>1318400</v>
+        <v>1366000</v>
       </c>
       <c r="F8" s="3">
-        <v>1132400</v>
+        <v>1328500</v>
       </c>
       <c r="G8" s="3">
-        <v>972300</v>
+        <v>1141100</v>
       </c>
       <c r="H8" s="3">
-        <v>933400</v>
+        <v>979700</v>
       </c>
       <c r="I8" s="3">
-        <v>542300</v>
+        <v>940500</v>
       </c>
       <c r="J8" s="3">
+        <v>546500</v>
+      </c>
+      <c r="K8" s="3">
         <v>333900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>185100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>105100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>63000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>135300</v>
+        <v>165300</v>
       </c>
       <c r="E9" s="3">
-        <v>120600</v>
+        <v>136300</v>
       </c>
       <c r="F9" s="3">
-        <v>92100</v>
+        <v>121500</v>
       </c>
       <c r="G9" s="3">
-        <v>136800</v>
+        <v>92800</v>
       </c>
       <c r="H9" s="3">
-        <v>320000</v>
+        <v>137900</v>
       </c>
       <c r="I9" s="3">
-        <v>59500</v>
+        <v>322400</v>
       </c>
       <c r="J9" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K9" s="3">
         <v>29800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>25600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1220300</v>
+        <v>976400</v>
       </c>
       <c r="E10" s="3">
-        <v>1197700</v>
+        <v>1229600</v>
       </c>
       <c r="F10" s="3">
-        <v>1040300</v>
+        <v>1206900</v>
       </c>
       <c r="G10" s="3">
-        <v>835500</v>
+        <v>1048300</v>
       </c>
       <c r="H10" s="3">
-        <v>613400</v>
+        <v>841900</v>
       </c>
       <c r="I10" s="3">
-        <v>482800</v>
+        <v>618100</v>
       </c>
       <c r="J10" s="3">
+        <v>486500</v>
+      </c>
+      <c r="K10" s="3">
         <v>304100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>163200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>79500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>44000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>213600</v>
+        <v>220600</v>
       </c>
       <c r="E12" s="3">
-        <v>202100</v>
+        <v>215200</v>
       </c>
       <c r="F12" s="3">
-        <v>177700</v>
+        <v>203700</v>
       </c>
       <c r="G12" s="3">
-        <v>137600</v>
+        <v>179100</v>
       </c>
       <c r="H12" s="3">
-        <v>89500</v>
+        <v>138600</v>
       </c>
       <c r="I12" s="3">
-        <v>42900</v>
+        <v>90100</v>
       </c>
       <c r="J12" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K12" s="3">
         <v>24800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2400</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,9 +964,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>932100</v>
+        <v>907100</v>
       </c>
       <c r="E17" s="3">
-        <v>886500</v>
+        <v>939300</v>
       </c>
       <c r="F17" s="3">
-        <v>736700</v>
+        <v>893300</v>
       </c>
       <c r="G17" s="3">
-        <v>652400</v>
+        <v>742400</v>
       </c>
       <c r="H17" s="3">
-        <v>752800</v>
+        <v>657400</v>
       </c>
       <c r="I17" s="3">
-        <v>354500</v>
+        <v>758500</v>
       </c>
       <c r="J17" s="3">
+        <v>357200</v>
+      </c>
+      <c r="K17" s="3">
         <v>192400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>62300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>38000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>423500</v>
+        <v>234600</v>
       </c>
       <c r="E18" s="3">
-        <v>431800</v>
+        <v>426700</v>
       </c>
       <c r="F18" s="3">
-        <v>395700</v>
+        <v>435100</v>
       </c>
       <c r="G18" s="3">
-        <v>319900</v>
+        <v>398700</v>
       </c>
       <c r="H18" s="3">
-        <v>180600</v>
+        <v>322300</v>
       </c>
       <c r="I18" s="3">
-        <v>187800</v>
+        <v>182000</v>
       </c>
       <c r="J18" s="3">
+        <v>189300</v>
+      </c>
+      <c r="K18" s="3">
         <v>141600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>84400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,97 +1115,104 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>150900</v>
+        <v>108800</v>
       </c>
       <c r="E20" s="3">
-        <v>147600</v>
+        <v>152000</v>
       </c>
       <c r="F20" s="3">
-        <v>111800</v>
+        <v>148800</v>
       </c>
       <c r="G20" s="3">
-        <v>34200</v>
+        <v>112600</v>
       </c>
       <c r="H20" s="3">
-        <v>14900</v>
+        <v>34400</v>
       </c>
       <c r="I20" s="3">
-        <v>12000</v>
+        <v>15100</v>
       </c>
       <c r="J20" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K20" s="3">
         <v>5800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>601000</v>
+      <c r="D21" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E21" s="3">
-        <v>598000</v>
+        <v>605700</v>
       </c>
       <c r="F21" s="3">
-        <v>523400</v>
+        <v>602600</v>
       </c>
       <c r="G21" s="3">
-        <v>368000</v>
+        <v>527500</v>
       </c>
       <c r="H21" s="3">
-        <v>206400</v>
+        <v>370800</v>
       </c>
       <c r="I21" s="3">
-        <v>208700</v>
+        <v>208100</v>
       </c>
       <c r="J21" s="3">
+        <v>210300</v>
+      </c>
+      <c r="K21" s="3">
         <v>153800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>91400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>47100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>30500</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>17</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1182,89 +1221,98 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>574300</v>
+        <v>343500</v>
       </c>
       <c r="E23" s="3">
-        <v>579400</v>
+        <v>578700</v>
       </c>
       <c r="F23" s="3">
-        <v>507500</v>
+        <v>583900</v>
       </c>
       <c r="G23" s="3">
-        <v>354100</v>
+        <v>511400</v>
       </c>
       <c r="H23" s="3">
-        <v>195500</v>
+        <v>356800</v>
       </c>
       <c r="I23" s="3">
-        <v>199800</v>
+        <v>197000</v>
       </c>
       <c r="J23" s="3">
+        <v>201300</v>
+      </c>
+      <c r="K23" s="3">
         <v>147400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>86500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>43600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>25300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40900</v>
+        <v>5400</v>
       </c>
       <c r="E24" s="3">
-        <v>78300</v>
+        <v>41200</v>
       </c>
       <c r="F24" s="3">
-        <v>59200</v>
+        <v>78900</v>
       </c>
       <c r="G24" s="3">
-        <v>41800</v>
+        <v>59600</v>
       </c>
       <c r="H24" s="3">
+        <v>42100</v>
+      </c>
+      <c r="I24" s="3">
         <v>5100</v>
       </c>
-      <c r="I24" s="3">
-        <v>44700</v>
-      </c>
       <c r="J24" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K24" s="3">
         <v>30200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5600</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>533500</v>
+        <v>338100</v>
       </c>
       <c r="E26" s="3">
-        <v>501100</v>
+        <v>537600</v>
       </c>
       <c r="F26" s="3">
-        <v>448300</v>
+        <v>504900</v>
       </c>
       <c r="G26" s="3">
-        <v>312300</v>
+        <v>451800</v>
       </c>
       <c r="H26" s="3">
-        <v>190400</v>
+        <v>314600</v>
       </c>
       <c r="I26" s="3">
-        <v>155100</v>
+        <v>191900</v>
       </c>
       <c r="J26" s="3">
+        <v>156300</v>
+      </c>
+      <c r="K26" s="3">
         <v>117200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>69400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19700</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>533100</v>
+        <v>339000</v>
       </c>
       <c r="E27" s="3">
-        <v>501000</v>
+        <v>537200</v>
       </c>
       <c r="F27" s="3">
-        <v>449500</v>
+        <v>504800</v>
       </c>
       <c r="G27" s="3">
-        <v>313400</v>
+        <v>452900</v>
       </c>
       <c r="H27" s="3">
-        <v>192200</v>
+        <v>315800</v>
       </c>
       <c r="I27" s="3">
-        <v>155100</v>
+        <v>193700</v>
       </c>
       <c r="J27" s="3">
+        <v>156300</v>
+      </c>
+      <c r="K27" s="3">
         <v>117200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>69400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19700</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1440,11 +1500,14 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-600</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-150900</v>
+        <v>-108800</v>
       </c>
       <c r="E32" s="3">
-        <v>-147600</v>
+        <v>-152000</v>
       </c>
       <c r="F32" s="3">
-        <v>-111800</v>
+        <v>-148800</v>
       </c>
       <c r="G32" s="3">
-        <v>-34200</v>
+        <v>-112600</v>
       </c>
       <c r="H32" s="3">
-        <v>-14900</v>
+        <v>-34400</v>
       </c>
       <c r="I32" s="3">
-        <v>-12000</v>
+        <v>-15100</v>
       </c>
       <c r="J32" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>533100</v>
+        <v>339000</v>
       </c>
       <c r="E33" s="3">
-        <v>501000</v>
+        <v>537200</v>
       </c>
       <c r="F33" s="3">
-        <v>449500</v>
+        <v>504800</v>
       </c>
       <c r="G33" s="3">
-        <v>313400</v>
+        <v>452900</v>
       </c>
       <c r="H33" s="3">
-        <v>192200</v>
+        <v>315800</v>
       </c>
       <c r="I33" s="3">
-        <v>155100</v>
+        <v>193700</v>
       </c>
       <c r="J33" s="3">
+        <v>156300</v>
+      </c>
+      <c r="K33" s="3">
         <v>117200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>69400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>533100</v>
+        <v>339000</v>
       </c>
       <c r="E35" s="3">
-        <v>501000</v>
+        <v>537200</v>
       </c>
       <c r="F35" s="3">
-        <v>449500</v>
+        <v>504800</v>
       </c>
       <c r="G35" s="3">
-        <v>313400</v>
+        <v>452900</v>
       </c>
       <c r="H35" s="3">
-        <v>192200</v>
+        <v>315800</v>
       </c>
       <c r="I35" s="3">
-        <v>155100</v>
+        <v>193700</v>
       </c>
       <c r="J35" s="3">
+        <v>156300</v>
+      </c>
+      <c r="K35" s="3">
         <v>117200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>69400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,70 +1817,74 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>274200</v>
+        <v>668400</v>
       </c>
       <c r="E41" s="3">
-        <v>311300</v>
+        <v>276300</v>
       </c>
       <c r="F41" s="3">
-        <v>33200</v>
+        <v>313700</v>
       </c>
       <c r="G41" s="3">
-        <v>142700</v>
+        <v>33400</v>
       </c>
       <c r="H41" s="3">
-        <v>515700</v>
+        <v>143800</v>
       </c>
       <c r="I41" s="3">
-        <v>337000</v>
+        <v>519600</v>
       </c>
       <c r="J41" s="3">
+        <v>339600</v>
+      </c>
+      <c r="K41" s="3">
         <v>165100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>173200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>60300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31100</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2017900</v>
+        <v>2602500</v>
       </c>
       <c r="E42" s="3">
-        <v>1694900</v>
+        <v>2033400</v>
       </c>
       <c r="F42" s="3">
-        <v>1543100</v>
+        <v>1707900</v>
       </c>
       <c r="G42" s="3">
-        <v>1135800</v>
+        <v>1554900</v>
       </c>
       <c r="H42" s="3">
-        <v>380700</v>
+        <v>1144500</v>
       </c>
       <c r="I42" s="3">
-        <v>307700</v>
+        <v>383600</v>
       </c>
       <c r="J42" s="3">
+        <v>310100</v>
+      </c>
+      <c r="K42" s="3">
         <v>269100</v>
-      </c>
-      <c r="K42" s="3">
-        <v>300</v>
       </c>
       <c r="L42" s="3">
         <v>300</v>
@@ -1803,45 +1892,51 @@
       <c r="M42" s="3">
         <v>300</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>300</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>496500</v>
+        <v>350700</v>
       </c>
       <c r="E43" s="3">
-        <v>510500</v>
+        <v>500300</v>
       </c>
       <c r="F43" s="3">
-        <v>443000</v>
+        <v>514500</v>
       </c>
       <c r="G43" s="3">
-        <v>300300</v>
+        <v>446400</v>
       </c>
       <c r="H43" s="3">
-        <v>388700</v>
+        <v>302600</v>
       </c>
       <c r="I43" s="3">
-        <v>176300</v>
+        <v>391700</v>
       </c>
       <c r="J43" s="3">
+        <v>177700</v>
+      </c>
+      <c r="K43" s="3">
         <v>119800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>71200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>46900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30200</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1854,17 +1949,17 @@
       <c r="F44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H44" s="3">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>17500</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>17</v>
+        <v>15100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>17600</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>17</v>
@@ -1875,104 +1970,113 @@
       <c r="M44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>86500</v>
+        <v>58400</v>
       </c>
       <c r="E45" s="3">
-        <v>44300</v>
+        <v>87100</v>
       </c>
       <c r="F45" s="3">
-        <v>38100</v>
+        <v>44600</v>
       </c>
       <c r="G45" s="3">
-        <v>27300</v>
+        <v>38400</v>
       </c>
       <c r="H45" s="3">
-        <v>126900</v>
+        <v>27500</v>
       </c>
       <c r="I45" s="3">
-        <v>60500</v>
+        <v>127900</v>
       </c>
       <c r="J45" s="3">
+        <v>61000</v>
+      </c>
+      <c r="K45" s="3">
         <v>16100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4100</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2875100</v>
+        <v>3679900</v>
       </c>
       <c r="E46" s="3">
-        <v>2561100</v>
+        <v>2897100</v>
       </c>
       <c r="F46" s="3">
-        <v>2057400</v>
+        <v>2580700</v>
       </c>
       <c r="G46" s="3">
-        <v>1606100</v>
+        <v>2073200</v>
       </c>
       <c r="H46" s="3">
-        <v>1163600</v>
+        <v>1618400</v>
       </c>
       <c r="I46" s="3">
-        <v>899000</v>
+        <v>1172600</v>
       </c>
       <c r="J46" s="3">
+        <v>905900</v>
+      </c>
+      <c r="K46" s="3">
         <v>570000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>288900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>112800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>65700</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13900</v>
+        <v>12300</v>
       </c>
       <c r="E47" s="3">
-        <v>11900</v>
+        <v>14000</v>
       </c>
       <c r="F47" s="3">
-        <v>11400</v>
+        <v>12000</v>
       </c>
       <c r="G47" s="3">
-        <v>24900</v>
+        <v>11500</v>
       </c>
       <c r="H47" s="3">
-        <v>21200</v>
+        <v>25100</v>
       </c>
       <c r="I47" s="3">
-        <v>19400</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>17</v>
+        <v>21300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>19600</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>17</v>
@@ -1983,53 +2087,59 @@
       <c r="M47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>97000</v>
+        <v>60200</v>
       </c>
       <c r="E48" s="3">
-        <v>56800</v>
+        <v>97700</v>
       </c>
       <c r="F48" s="3">
-        <v>26600</v>
+        <v>57200</v>
       </c>
       <c r="G48" s="3">
-        <v>20400</v>
+        <v>26900</v>
       </c>
       <c r="H48" s="3">
-        <v>42100</v>
+        <v>20600</v>
       </c>
       <c r="I48" s="3">
-        <v>16200</v>
+        <v>42500</v>
       </c>
       <c r="J48" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K48" s="3">
         <v>11700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>706400</v>
+        <v>698700</v>
       </c>
       <c r="E49" s="3">
-        <v>239900</v>
+        <v>711800</v>
       </c>
       <c r="F49" s="3">
         <v>241700</v>
@@ -2038,26 +2148,29 @@
         <v>243500</v>
       </c>
       <c r="H49" s="3">
-        <v>480300</v>
+        <v>245300</v>
       </c>
       <c r="I49" s="3">
-        <v>240900</v>
+        <v>484000</v>
       </c>
       <c r="J49" s="3">
+        <v>242700</v>
+      </c>
+      <c r="K49" s="3">
         <v>241700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>235700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>222900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>227400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23000</v>
+        <v>49700</v>
       </c>
       <c r="E52" s="3">
-        <v>129400</v>
+        <v>23200</v>
       </c>
       <c r="F52" s="3">
-        <v>129600</v>
+        <v>130400</v>
       </c>
       <c r="G52" s="3">
-        <v>30100</v>
+        <v>130600</v>
       </c>
       <c r="H52" s="3">
-        <v>24500</v>
+        <v>30300</v>
       </c>
       <c r="I52" s="3">
+        <v>24700</v>
+      </c>
+      <c r="J52" s="3">
         <v>3400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3715300</v>
+        <v>4500700</v>
       </c>
       <c r="E54" s="3">
-        <v>2999000</v>
+        <v>3743800</v>
       </c>
       <c r="F54" s="3">
-        <v>2466800</v>
+        <v>3022000</v>
       </c>
       <c r="G54" s="3">
-        <v>1924900</v>
+        <v>2485700</v>
       </c>
       <c r="H54" s="3">
-        <v>1470400</v>
+        <v>1939700</v>
       </c>
       <c r="I54" s="3">
-        <v>1178900</v>
+        <v>1481700</v>
       </c>
       <c r="J54" s="3">
+        <v>1187900</v>
+      </c>
+      <c r="K54" s="3">
         <v>826400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>534400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>341400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>297100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,44 +2397,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="E57" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3700</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2318,102 +2451,111 @@
       <c r="F58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>4900</v>
       </c>
-      <c r="I58" s="3">
-        <v>27400</v>
-      </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>27600</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>400</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>642800</v>
+        <v>623800</v>
       </c>
       <c r="E59" s="3">
-        <v>615200</v>
+        <v>647700</v>
       </c>
       <c r="F59" s="3">
-        <v>648900</v>
+        <v>619900</v>
       </c>
       <c r="G59" s="3">
-        <v>607300</v>
+        <v>653900</v>
       </c>
       <c r="H59" s="3">
-        <v>571100</v>
+        <v>612000</v>
       </c>
       <c r="I59" s="3">
-        <v>306600</v>
+        <v>575500</v>
       </c>
       <c r="J59" s="3">
+        <v>308900</v>
+      </c>
+      <c r="K59" s="3">
         <v>169200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>119700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>48300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>655300</v>
+        <v>628900</v>
       </c>
       <c r="E60" s="3">
-        <v>620900</v>
+        <v>660300</v>
       </c>
       <c r="F60" s="3">
-        <v>652000</v>
+        <v>625700</v>
       </c>
       <c r="G60" s="3">
-        <v>608900</v>
+        <v>657000</v>
       </c>
       <c r="H60" s="3">
-        <v>398300</v>
+        <v>613600</v>
       </c>
       <c r="I60" s="3">
-        <v>337600</v>
+        <v>401300</v>
       </c>
       <c r="J60" s="3">
+        <v>340200</v>
+      </c>
+      <c r="K60" s="3">
         <v>169200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>120100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>48300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2447,45 +2589,51 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>115300</v>
+        <v>95500</v>
       </c>
       <c r="E62" s="3">
-        <v>91400</v>
+        <v>116200</v>
       </c>
       <c r="F62" s="3">
-        <v>75100</v>
+        <v>92100</v>
       </c>
       <c r="G62" s="3">
-        <v>73600</v>
+        <v>75700</v>
       </c>
       <c r="H62" s="3">
-        <v>77800</v>
+        <v>74200</v>
       </c>
       <c r="I62" s="3">
-        <v>81800</v>
+        <v>78400</v>
       </c>
       <c r="J62" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K62" s="3">
         <v>83400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>77700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>69600</v>
       </c>
       <c r="M62" s="3">
         <v>69600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>69600</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>955800</v>
+        <v>911000</v>
       </c>
       <c r="E66" s="3">
-        <v>708700</v>
+        <v>963100</v>
       </c>
       <c r="F66" s="3">
-        <v>723500</v>
+        <v>714100</v>
       </c>
       <c r="G66" s="3">
-        <v>680000</v>
+        <v>729000</v>
       </c>
       <c r="H66" s="3">
-        <v>474600</v>
+        <v>685200</v>
       </c>
       <c r="I66" s="3">
-        <v>419400</v>
+        <v>478300</v>
       </c>
       <c r="J66" s="3">
+        <v>422600</v>
+      </c>
+      <c r="K66" s="3">
         <v>252500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>197800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>117900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>99300</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>2108200</v>
+      <c r="D72" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E72" s="3">
-        <v>1674900</v>
+        <v>2124300</v>
       </c>
       <c r="F72" s="3">
-        <v>1173900</v>
+        <v>1687800</v>
       </c>
       <c r="G72" s="3">
-        <v>724400</v>
+        <v>1182900</v>
       </c>
       <c r="H72" s="3">
-        <v>504400</v>
+        <v>730000</v>
       </c>
       <c r="I72" s="3">
-        <v>312100</v>
+        <v>508200</v>
       </c>
       <c r="J72" s="3">
+        <v>314500</v>
+      </c>
+      <c r="K72" s="3">
         <v>157000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>60600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>37000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2759500</v>
+        <v>3589700</v>
       </c>
       <c r="E76" s="3">
-        <v>2290300</v>
+        <v>2780600</v>
       </c>
       <c r="F76" s="3">
-        <v>1743300</v>
+        <v>2307900</v>
       </c>
       <c r="G76" s="3">
-        <v>1244900</v>
+        <v>1756700</v>
       </c>
       <c r="H76" s="3">
-        <v>995800</v>
+        <v>1254500</v>
       </c>
       <c r="I76" s="3">
-        <v>759500</v>
+        <v>1003400</v>
       </c>
       <c r="J76" s="3">
+        <v>765300</v>
+      </c>
+      <c r="K76" s="3">
         <v>573900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>336500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>223500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>197800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>533100</v>
+        <v>339000</v>
       </c>
       <c r="E81" s="3">
-        <v>501000</v>
+        <v>537200</v>
       </c>
       <c r="F81" s="3">
-        <v>449500</v>
+        <v>504800</v>
       </c>
       <c r="G81" s="3">
-        <v>313400</v>
+        <v>452900</v>
       </c>
       <c r="H81" s="3">
-        <v>192200</v>
+        <v>315800</v>
       </c>
       <c r="I81" s="3">
-        <v>155100</v>
+        <v>193700</v>
       </c>
       <c r="J81" s="3">
+        <v>156300</v>
+      </c>
+      <c r="K81" s="3">
         <v>117200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>69400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>26700</v>
+      <c r="D83" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E83" s="3">
-        <v>18600</v>
+        <v>26900</v>
       </c>
       <c r="F83" s="3">
-        <v>16000</v>
+        <v>18700</v>
       </c>
       <c r="G83" s="3">
-        <v>13900</v>
+        <v>16100</v>
       </c>
       <c r="H83" s="3">
-        <v>10900</v>
+        <v>14000</v>
       </c>
       <c r="I83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J83" s="3">
         <v>8900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>520700</v>
+      <c r="D89" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E89" s="3">
-        <v>452400</v>
+        <v>524700</v>
       </c>
       <c r="F89" s="3">
-        <v>487100</v>
+        <v>455800</v>
       </c>
       <c r="G89" s="3">
-        <v>385700</v>
+        <v>490900</v>
       </c>
       <c r="H89" s="3">
-        <v>246400</v>
+        <v>388700</v>
       </c>
       <c r="I89" s="3">
-        <v>228900</v>
+        <v>248300</v>
       </c>
       <c r="J89" s="3">
+        <v>230600</v>
+      </c>
+      <c r="K89" s="3">
         <v>160300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>90300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>40100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-41300</v>
+      <c r="D91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E91" s="3">
-        <v>-32000</v>
+        <v>-41600</v>
       </c>
       <c r="F91" s="3">
-        <v>-17800</v>
+        <v>-32200</v>
       </c>
       <c r="G91" s="3">
-        <v>-13500</v>
+        <v>-18000</v>
       </c>
       <c r="H91" s="3">
-        <v>-13900</v>
+        <v>-13600</v>
       </c>
       <c r="I91" s="3">
         <v>-14000</v>
       </c>
       <c r="J91" s="3">
-        <v>-6700</v>
+        <v>-14100</v>
       </c>
       <c r="K91" s="3">
         <v>-6700</v>
       </c>
       <c r="L91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-467400</v>
+      <c r="D94" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E94" s="3">
-        <v>-182900</v>
+        <v>-471000</v>
       </c>
       <c r="F94" s="3">
-        <v>-516800</v>
+        <v>-184300</v>
       </c>
       <c r="G94" s="3">
-        <v>-769300</v>
+        <v>-520800</v>
       </c>
       <c r="H94" s="3">
-        <v>-80600</v>
+        <v>-775200</v>
       </c>
       <c r="I94" s="3">
-        <v>-63800</v>
+        <v>-81200</v>
       </c>
       <c r="J94" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-275500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1800</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,22 +3757,23 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-101900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-102700</v>
       </c>
       <c r="F96" s="3">
-        <v>-93300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-94000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3552,17 +3785,20 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-33600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-85600</v>
+      <c r="D100" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E100" s="3">
+        <v>-86300</v>
+      </c>
+      <c r="F100" s="3">
         <v>10800</v>
       </c>
-      <c r="F100" s="3">
-        <v>-85200</v>
-      </c>
       <c r="G100" s="3">
+        <v>-85800</v>
+      </c>
+      <c r="H100" s="3">
         <v>9600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4400</v>
       </c>
-      <c r="I100" s="3">
-        <v>4700</v>
-      </c>
       <c r="J100" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K100" s="3">
         <v>101400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>25800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-2700</v>
+      <c r="D101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2100</v>
       </c>
-      <c r="F101" s="3">
-        <v>6100</v>
-      </c>
       <c r="G101" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-35100</v>
+      <c r="D102" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E102" s="3">
-        <v>278100</v>
+        <v>-35400</v>
       </c>
       <c r="F102" s="3">
-        <v>-108700</v>
+        <v>280300</v>
       </c>
       <c r="G102" s="3">
-        <v>-374400</v>
+        <v>-109600</v>
       </c>
       <c r="H102" s="3">
-        <v>170600</v>
+        <v>-377300</v>
       </c>
       <c r="I102" s="3">
         <v>171900</v>
       </c>
       <c r="J102" s="3">
+        <v>173300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-13200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>109200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>29700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>ATHM</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1141700</v>
+        <v>1066400</v>
       </c>
       <c r="E8" s="3">
-        <v>1366000</v>
+        <v>1275900</v>
       </c>
       <c r="F8" s="3">
-        <v>1328500</v>
+        <v>1240900</v>
       </c>
       <c r="G8" s="3">
-        <v>1141100</v>
+        <v>1065900</v>
       </c>
       <c r="H8" s="3">
-        <v>979700</v>
+        <v>915100</v>
       </c>
       <c r="I8" s="3">
-        <v>940500</v>
+        <v>878500</v>
       </c>
       <c r="J8" s="3">
-        <v>546500</v>
+        <v>510500</v>
       </c>
       <c r="K8" s="3">
         <v>333900</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>165300</v>
+        <v>148600</v>
       </c>
       <c r="E9" s="3">
-        <v>136300</v>
+        <v>127400</v>
       </c>
       <c r="F9" s="3">
-        <v>121500</v>
+        <v>113500</v>
       </c>
       <c r="G9" s="3">
-        <v>92800</v>
+        <v>86700</v>
       </c>
       <c r="H9" s="3">
-        <v>137900</v>
+        <v>128800</v>
       </c>
       <c r="I9" s="3">
-        <v>322400</v>
+        <v>301200</v>
       </c>
       <c r="J9" s="3">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="K9" s="3">
         <v>29800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>976400</v>
+        <v>917800</v>
       </c>
       <c r="E10" s="3">
-        <v>1229600</v>
+        <v>1148600</v>
       </c>
       <c r="F10" s="3">
-        <v>1206900</v>
+        <v>1127400</v>
       </c>
       <c r="G10" s="3">
-        <v>1048300</v>
+        <v>979200</v>
       </c>
       <c r="H10" s="3">
-        <v>841900</v>
+        <v>786400</v>
       </c>
       <c r="I10" s="3">
-        <v>618100</v>
+        <v>577300</v>
       </c>
       <c r="J10" s="3">
-        <v>486500</v>
+        <v>454400</v>
       </c>
       <c r="K10" s="3">
         <v>304100</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>220600</v>
+        <v>206000</v>
       </c>
       <c r="E12" s="3">
-        <v>215200</v>
+        <v>201000</v>
       </c>
       <c r="F12" s="3">
-        <v>203700</v>
+        <v>190200</v>
       </c>
       <c r="G12" s="3">
-        <v>179100</v>
+        <v>167300</v>
       </c>
       <c r="H12" s="3">
-        <v>138600</v>
+        <v>129500</v>
       </c>
       <c r="I12" s="3">
-        <v>90100</v>
+        <v>84200</v>
       </c>
       <c r="J12" s="3">
-        <v>43200</v>
+        <v>40400</v>
       </c>
       <c r="K12" s="3">
         <v>24800</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-7600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>907100</v>
+        <v>839600</v>
       </c>
       <c r="E17" s="3">
-        <v>939300</v>
+        <v>877300</v>
       </c>
       <c r="F17" s="3">
-        <v>893300</v>
+        <v>834400</v>
       </c>
       <c r="G17" s="3">
-        <v>742400</v>
+        <v>693400</v>
       </c>
       <c r="H17" s="3">
-        <v>657400</v>
+        <v>614000</v>
       </c>
       <c r="I17" s="3">
-        <v>758500</v>
+        <v>708500</v>
       </c>
       <c r="J17" s="3">
-        <v>357200</v>
+        <v>333600</v>
       </c>
       <c r="K17" s="3">
         <v>192400</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>234600</v>
+        <v>226800</v>
       </c>
       <c r="E18" s="3">
-        <v>426700</v>
+        <v>398600</v>
       </c>
       <c r="F18" s="3">
-        <v>435100</v>
+        <v>406400</v>
       </c>
       <c r="G18" s="3">
-        <v>398700</v>
+        <v>372500</v>
       </c>
       <c r="H18" s="3">
-        <v>322300</v>
+        <v>301100</v>
       </c>
       <c r="I18" s="3">
-        <v>182000</v>
+        <v>170000</v>
       </c>
       <c r="J18" s="3">
-        <v>189300</v>
+        <v>176800</v>
       </c>
       <c r="K18" s="3">
         <v>141600</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>108800</v>
+        <v>94000</v>
       </c>
       <c r="E20" s="3">
-        <v>152000</v>
+        <v>142000</v>
       </c>
       <c r="F20" s="3">
-        <v>148800</v>
+        <v>138900</v>
       </c>
       <c r="G20" s="3">
-        <v>112600</v>
+        <v>105200</v>
       </c>
       <c r="H20" s="3">
-        <v>34400</v>
+        <v>32200</v>
       </c>
       <c r="I20" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="J20" s="3">
-        <v>12100</v>
+        <v>11300</v>
       </c>
       <c r="K20" s="3">
         <v>5800</v>
@@ -1160,26 +1160,26 @@
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>17</v>
+      <c r="D21" s="3">
+        <v>366800</v>
       </c>
       <c r="E21" s="3">
-        <v>605700</v>
+        <v>565900</v>
       </c>
       <c r="F21" s="3">
-        <v>602600</v>
+        <v>563000</v>
       </c>
       <c r="G21" s="3">
-        <v>527500</v>
+        <v>492800</v>
       </c>
       <c r="H21" s="3">
-        <v>370800</v>
+        <v>346500</v>
       </c>
       <c r="I21" s="3">
-        <v>208100</v>
+        <v>194400</v>
       </c>
       <c r="J21" s="3">
-        <v>210300</v>
+        <v>196500</v>
       </c>
       <c r="K21" s="3">
         <v>153800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>343500</v>
+        <v>320800</v>
       </c>
       <c r="E23" s="3">
-        <v>578700</v>
+        <v>540600</v>
       </c>
       <c r="F23" s="3">
-        <v>583900</v>
+        <v>545400</v>
       </c>
       <c r="G23" s="3">
-        <v>511400</v>
+        <v>477700</v>
       </c>
       <c r="H23" s="3">
-        <v>356800</v>
+        <v>333300</v>
       </c>
       <c r="I23" s="3">
-        <v>197000</v>
+        <v>184000</v>
       </c>
       <c r="J23" s="3">
-        <v>201300</v>
+        <v>188100</v>
       </c>
       <c r="K23" s="3">
         <v>147400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="E24" s="3">
-        <v>41200</v>
+        <v>38500</v>
       </c>
       <c r="F24" s="3">
-        <v>78900</v>
+        <v>73700</v>
       </c>
       <c r="G24" s="3">
-        <v>59600</v>
+        <v>55700</v>
       </c>
       <c r="H24" s="3">
+        <v>39400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J24" s="3">
         <v>42100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>5100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>45000</v>
       </c>
       <c r="K24" s="3">
         <v>30200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>338100</v>
+        <v>315800</v>
       </c>
       <c r="E26" s="3">
-        <v>537600</v>
+        <v>502100</v>
       </c>
       <c r="F26" s="3">
-        <v>504900</v>
+        <v>471600</v>
       </c>
       <c r="G26" s="3">
-        <v>451800</v>
+        <v>422000</v>
       </c>
       <c r="H26" s="3">
-        <v>314600</v>
+        <v>293900</v>
       </c>
       <c r="I26" s="3">
-        <v>191900</v>
+        <v>179200</v>
       </c>
       <c r="J26" s="3">
-        <v>156300</v>
+        <v>146000</v>
       </c>
       <c r="K26" s="3">
         <v>117200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>339000</v>
+        <v>316600</v>
       </c>
       <c r="E27" s="3">
-        <v>537200</v>
+        <v>501800</v>
       </c>
       <c r="F27" s="3">
-        <v>504800</v>
+        <v>471500</v>
       </c>
       <c r="G27" s="3">
-        <v>452900</v>
+        <v>423100</v>
       </c>
       <c r="H27" s="3">
-        <v>315800</v>
+        <v>295000</v>
       </c>
       <c r="I27" s="3">
-        <v>193700</v>
+        <v>180900</v>
       </c>
       <c r="J27" s="3">
-        <v>156300</v>
+        <v>146000</v>
       </c>
       <c r="K27" s="3">
         <v>117200</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-108800</v>
+        <v>-94000</v>
       </c>
       <c r="E32" s="3">
-        <v>-152000</v>
+        <v>-142000</v>
       </c>
       <c r="F32" s="3">
-        <v>-148800</v>
+        <v>-138900</v>
       </c>
       <c r="G32" s="3">
-        <v>-112600</v>
+        <v>-105200</v>
       </c>
       <c r="H32" s="3">
-        <v>-34400</v>
+        <v>-32200</v>
       </c>
       <c r="I32" s="3">
-        <v>-15100</v>
+        <v>-14100</v>
       </c>
       <c r="J32" s="3">
-        <v>-12100</v>
+        <v>-11300</v>
       </c>
       <c r="K32" s="3">
         <v>-5800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>339000</v>
+        <v>316600</v>
       </c>
       <c r="E33" s="3">
-        <v>537200</v>
+        <v>501800</v>
       </c>
       <c r="F33" s="3">
-        <v>504800</v>
+        <v>471500</v>
       </c>
       <c r="G33" s="3">
-        <v>452900</v>
+        <v>423100</v>
       </c>
       <c r="H33" s="3">
-        <v>315800</v>
+        <v>295000</v>
       </c>
       <c r="I33" s="3">
-        <v>193700</v>
+        <v>180900</v>
       </c>
       <c r="J33" s="3">
-        <v>156300</v>
+        <v>146000</v>
       </c>
       <c r="K33" s="3">
         <v>117200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>339000</v>
+        <v>316600</v>
       </c>
       <c r="E35" s="3">
-        <v>537200</v>
+        <v>501800</v>
       </c>
       <c r="F35" s="3">
-        <v>504800</v>
+        <v>471500</v>
       </c>
       <c r="G35" s="3">
-        <v>452900</v>
+        <v>423100</v>
       </c>
       <c r="H35" s="3">
-        <v>315800</v>
+        <v>295000</v>
       </c>
       <c r="I35" s="3">
-        <v>193700</v>
+        <v>180900</v>
       </c>
       <c r="J35" s="3">
-        <v>156300</v>
+        <v>146000</v>
       </c>
       <c r="K35" s="3">
         <v>117200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>668400</v>
+        <v>624300</v>
       </c>
       <c r="E41" s="3">
-        <v>276300</v>
+        <v>258100</v>
       </c>
       <c r="F41" s="3">
-        <v>313700</v>
+        <v>293000</v>
       </c>
       <c r="G41" s="3">
-        <v>33400</v>
+        <v>31200</v>
       </c>
       <c r="H41" s="3">
-        <v>143800</v>
+        <v>134300</v>
       </c>
       <c r="I41" s="3">
-        <v>519600</v>
+        <v>485400</v>
       </c>
       <c r="J41" s="3">
-        <v>339600</v>
+        <v>317200</v>
       </c>
       <c r="K41" s="3">
         <v>165100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2602500</v>
+        <v>2433900</v>
       </c>
       <c r="E42" s="3">
-        <v>2033400</v>
+        <v>1899300</v>
       </c>
       <c r="F42" s="3">
-        <v>1707900</v>
+        <v>1595300</v>
       </c>
       <c r="G42" s="3">
-        <v>1554900</v>
+        <v>1452400</v>
       </c>
       <c r="H42" s="3">
-        <v>1144500</v>
+        <v>1069000</v>
       </c>
       <c r="I42" s="3">
-        <v>383600</v>
+        <v>358300</v>
       </c>
       <c r="J42" s="3">
-        <v>310100</v>
+        <v>289600</v>
       </c>
       <c r="K42" s="3">
         <v>269100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>350700</v>
+        <v>333800</v>
       </c>
       <c r="E43" s="3">
-        <v>500300</v>
+        <v>467400</v>
       </c>
       <c r="F43" s="3">
-        <v>514500</v>
+        <v>480500</v>
       </c>
       <c r="G43" s="3">
-        <v>446400</v>
+        <v>417000</v>
       </c>
       <c r="H43" s="3">
-        <v>302600</v>
+        <v>282700</v>
       </c>
       <c r="I43" s="3">
-        <v>391700</v>
+        <v>365900</v>
       </c>
       <c r="J43" s="3">
-        <v>177700</v>
+        <v>166000</v>
       </c>
       <c r="K43" s="3">
         <v>119800</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="J44" s="3">
-        <v>17600</v>
+        <v>16500</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>17</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>58400</v>
+        <v>45300</v>
       </c>
       <c r="E45" s="3">
-        <v>87100</v>
+        <v>81400</v>
       </c>
       <c r="F45" s="3">
-        <v>44600</v>
+        <v>41700</v>
       </c>
       <c r="G45" s="3">
-        <v>38400</v>
+        <v>35900</v>
       </c>
       <c r="H45" s="3">
-        <v>27500</v>
+        <v>25700</v>
       </c>
       <c r="I45" s="3">
-        <v>127900</v>
+        <v>119500</v>
       </c>
       <c r="J45" s="3">
-        <v>61000</v>
+        <v>56900</v>
       </c>
       <c r="K45" s="3">
         <v>16100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3679900</v>
+        <v>3437300</v>
       </c>
       <c r="E46" s="3">
-        <v>2897100</v>
+        <v>2706100</v>
       </c>
       <c r="F46" s="3">
-        <v>2580700</v>
+        <v>2410600</v>
       </c>
       <c r="G46" s="3">
-        <v>2073200</v>
+        <v>1936500</v>
       </c>
       <c r="H46" s="3">
-        <v>1618400</v>
+        <v>1511700</v>
       </c>
       <c r="I46" s="3">
-        <v>1172600</v>
+        <v>1095300</v>
       </c>
       <c r="J46" s="3">
-        <v>905900</v>
+        <v>846200</v>
       </c>
       <c r="K46" s="3">
         <v>570000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="E47" s="3">
-        <v>14000</v>
+        <v>13100</v>
       </c>
       <c r="F47" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="G47" s="3">
-        <v>11500</v>
+        <v>10800</v>
       </c>
       <c r="H47" s="3">
-        <v>25100</v>
+        <v>23400</v>
       </c>
       <c r="I47" s="3">
-        <v>21300</v>
+        <v>19900</v>
       </c>
       <c r="J47" s="3">
-        <v>19600</v>
+        <v>18300</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>17</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>60200</v>
+        <v>75900</v>
       </c>
       <c r="E48" s="3">
-        <v>97700</v>
+        <v>91300</v>
       </c>
       <c r="F48" s="3">
-        <v>57200</v>
+        <v>53500</v>
       </c>
       <c r="G48" s="3">
-        <v>26900</v>
+        <v>25100</v>
       </c>
       <c r="H48" s="3">
-        <v>20600</v>
+        <v>19200</v>
       </c>
       <c r="I48" s="3">
-        <v>42500</v>
+        <v>39700</v>
       </c>
       <c r="J48" s="3">
-        <v>16300</v>
+        <v>15300</v>
       </c>
       <c r="K48" s="3">
         <v>11700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>698700</v>
+        <v>652600</v>
       </c>
       <c r="E49" s="3">
-        <v>711800</v>
+        <v>664900</v>
       </c>
       <c r="F49" s="3">
-        <v>241700</v>
+        <v>225800</v>
       </c>
       <c r="G49" s="3">
-        <v>243500</v>
+        <v>227500</v>
       </c>
       <c r="H49" s="3">
-        <v>245300</v>
+        <v>229200</v>
       </c>
       <c r="I49" s="3">
-        <v>484000</v>
+        <v>452100</v>
       </c>
       <c r="J49" s="3">
-        <v>242700</v>
+        <v>226700</v>
       </c>
       <c r="K49" s="3">
         <v>241700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>49700</v>
+        <v>26700</v>
       </c>
       <c r="E52" s="3">
-        <v>23200</v>
+        <v>21700</v>
       </c>
       <c r="F52" s="3">
-        <v>130400</v>
+        <v>121800</v>
       </c>
       <c r="G52" s="3">
-        <v>130600</v>
+        <v>122000</v>
       </c>
       <c r="H52" s="3">
-        <v>30300</v>
+        <v>28300</v>
       </c>
       <c r="I52" s="3">
-        <v>24700</v>
+        <v>23100</v>
       </c>
       <c r="J52" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K52" s="3">
         <v>3000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4500700</v>
+        <v>4204000</v>
       </c>
       <c r="E54" s="3">
-        <v>3743800</v>
+        <v>3497000</v>
       </c>
       <c r="F54" s="3">
-        <v>3022000</v>
+        <v>2822800</v>
       </c>
       <c r="G54" s="3">
-        <v>2485700</v>
+        <v>2321800</v>
       </c>
       <c r="H54" s="3">
-        <v>1939700</v>
+        <v>1811800</v>
       </c>
       <c r="I54" s="3">
-        <v>1481700</v>
+        <v>1384000</v>
       </c>
       <c r="J54" s="3">
-        <v>1187900</v>
+        <v>1109600</v>
       </c>
       <c r="K54" s="3">
         <v>826400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="E57" s="3">
-        <v>12600</v>
+        <v>11800</v>
       </c>
       <c r="F57" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="G57" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H57" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I57" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J57" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2458,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="J58" s="3">
-        <v>27600</v>
+        <v>25800</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>623800</v>
+        <v>582700</v>
       </c>
       <c r="E59" s="3">
-        <v>647700</v>
+        <v>605000</v>
       </c>
       <c r="F59" s="3">
-        <v>619900</v>
+        <v>579100</v>
       </c>
       <c r="G59" s="3">
-        <v>653900</v>
+        <v>610800</v>
       </c>
       <c r="H59" s="3">
-        <v>612000</v>
+        <v>571600</v>
       </c>
       <c r="I59" s="3">
-        <v>575500</v>
+        <v>537600</v>
       </c>
       <c r="J59" s="3">
-        <v>308900</v>
+        <v>288600</v>
       </c>
       <c r="K59" s="3">
         <v>169200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>628900</v>
+        <v>587400</v>
       </c>
       <c r="E60" s="3">
-        <v>660300</v>
+        <v>616800</v>
       </c>
       <c r="F60" s="3">
-        <v>625700</v>
+        <v>584400</v>
       </c>
       <c r="G60" s="3">
-        <v>657000</v>
+        <v>613700</v>
       </c>
       <c r="H60" s="3">
-        <v>613600</v>
+        <v>573100</v>
       </c>
       <c r="I60" s="3">
-        <v>401300</v>
+        <v>374900</v>
       </c>
       <c r="J60" s="3">
-        <v>340200</v>
+        <v>317800</v>
       </c>
       <c r="K60" s="3">
         <v>169200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>95500</v>
+        <v>89200</v>
       </c>
       <c r="E62" s="3">
-        <v>116200</v>
+        <v>108500</v>
       </c>
       <c r="F62" s="3">
-        <v>92100</v>
+        <v>86100</v>
       </c>
       <c r="G62" s="3">
-        <v>75700</v>
+        <v>70700</v>
       </c>
       <c r="H62" s="3">
-        <v>74200</v>
+        <v>69300</v>
       </c>
       <c r="I62" s="3">
-        <v>78400</v>
+        <v>73200</v>
       </c>
       <c r="J62" s="3">
-        <v>82400</v>
+        <v>77000</v>
       </c>
       <c r="K62" s="3">
         <v>83400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>911000</v>
+        <v>850900</v>
       </c>
       <c r="E66" s="3">
-        <v>963100</v>
+        <v>899600</v>
       </c>
       <c r="F66" s="3">
-        <v>714100</v>
+        <v>667100</v>
       </c>
       <c r="G66" s="3">
-        <v>729000</v>
+        <v>680900</v>
       </c>
       <c r="H66" s="3">
-        <v>685200</v>
+        <v>640000</v>
       </c>
       <c r="I66" s="3">
-        <v>478300</v>
+        <v>446700</v>
       </c>
       <c r="J66" s="3">
-        <v>422600</v>
+        <v>394800</v>
       </c>
       <c r="K66" s="3">
         <v>252500</v>
@@ -2966,26 +2966,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>17</v>
+      <c r="D72" s="3">
+        <v>2201700</v>
       </c>
       <c r="E72" s="3">
-        <v>2124300</v>
+        <v>1984300</v>
       </c>
       <c r="F72" s="3">
-        <v>1687800</v>
+        <v>1576500</v>
       </c>
       <c r="G72" s="3">
-        <v>1182900</v>
+        <v>1105000</v>
       </c>
       <c r="H72" s="3">
-        <v>730000</v>
+        <v>681900</v>
       </c>
       <c r="I72" s="3">
-        <v>508200</v>
+        <v>474700</v>
       </c>
       <c r="J72" s="3">
-        <v>314500</v>
+        <v>293800</v>
       </c>
       <c r="K72" s="3">
         <v>157000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3589700</v>
+        <v>3353100</v>
       </c>
       <c r="E76" s="3">
-        <v>2780600</v>
+        <v>2597300</v>
       </c>
       <c r="F76" s="3">
-        <v>2307900</v>
+        <v>2155700</v>
       </c>
       <c r="G76" s="3">
-        <v>1756700</v>
+        <v>1640900</v>
       </c>
       <c r="H76" s="3">
-        <v>1254500</v>
+        <v>1171800</v>
       </c>
       <c r="I76" s="3">
-        <v>1003400</v>
+        <v>937300</v>
       </c>
       <c r="J76" s="3">
-        <v>765300</v>
+        <v>714800</v>
       </c>
       <c r="K76" s="3">
         <v>573900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>339000</v>
+        <v>316600</v>
       </c>
       <c r="E81" s="3">
-        <v>537200</v>
+        <v>501800</v>
       </c>
       <c r="F81" s="3">
-        <v>504800</v>
+        <v>471500</v>
       </c>
       <c r="G81" s="3">
-        <v>452900</v>
+        <v>423100</v>
       </c>
       <c r="H81" s="3">
-        <v>315800</v>
+        <v>295000</v>
       </c>
       <c r="I81" s="3">
-        <v>193700</v>
+        <v>180900</v>
       </c>
       <c r="J81" s="3">
-        <v>156300</v>
+        <v>146000</v>
       </c>
       <c r="K81" s="3">
         <v>117200</v>
@@ -3300,26 +3300,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>17</v>
+      <c r="D83" s="3">
+        <v>45500</v>
       </c>
       <c r="E83" s="3">
-        <v>26900</v>
+        <v>25100</v>
       </c>
       <c r="F83" s="3">
-        <v>18700</v>
+        <v>17500</v>
       </c>
       <c r="G83" s="3">
-        <v>16100</v>
+        <v>15000</v>
       </c>
       <c r="H83" s="3">
-        <v>14000</v>
+        <v>13100</v>
       </c>
       <c r="I83" s="3">
-        <v>11000</v>
+        <v>10300</v>
       </c>
       <c r="J83" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="K83" s="3">
         <v>6400</v>
@@ -3534,26 +3534,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>17</v>
+      <c r="D89" s="3">
+        <v>519300</v>
       </c>
       <c r="E89" s="3">
-        <v>524700</v>
+        <v>490100</v>
       </c>
       <c r="F89" s="3">
-        <v>455800</v>
+        <v>425800</v>
       </c>
       <c r="G89" s="3">
-        <v>490900</v>
+        <v>458500</v>
       </c>
       <c r="H89" s="3">
-        <v>388700</v>
+        <v>363100</v>
       </c>
       <c r="I89" s="3">
-        <v>248300</v>
+        <v>232000</v>
       </c>
       <c r="J89" s="3">
-        <v>230600</v>
+        <v>215400</v>
       </c>
       <c r="K89" s="3">
         <v>160300</v>
@@ -3590,26 +3590,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>17</v>
+      <c r="D91" s="3">
+        <v>-32200</v>
       </c>
       <c r="E91" s="3">
-        <v>-41600</v>
+        <v>-38900</v>
       </c>
       <c r="F91" s="3">
-        <v>-32200</v>
+        <v>-30100</v>
       </c>
       <c r="G91" s="3">
-        <v>-18000</v>
+        <v>-16800</v>
       </c>
       <c r="H91" s="3">
-        <v>-13600</v>
+        <v>-12700</v>
       </c>
       <c r="I91" s="3">
-        <v>-14000</v>
+        <v>-13100</v>
       </c>
       <c r="J91" s="3">
-        <v>-14100</v>
+        <v>-13100</v>
       </c>
       <c r="K91" s="3">
         <v>-6700</v>
@@ -3707,26 +3707,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>17</v>
+      <c r="D94" s="3">
+        <v>-561900</v>
       </c>
       <c r="E94" s="3">
-        <v>-471000</v>
+        <v>-439900</v>
       </c>
       <c r="F94" s="3">
-        <v>-184300</v>
+        <v>-172200</v>
       </c>
       <c r="G94" s="3">
-        <v>-520800</v>
+        <v>-486500</v>
       </c>
       <c r="H94" s="3">
-        <v>-775200</v>
+        <v>-724100</v>
       </c>
       <c r="I94" s="3">
-        <v>-81200</v>
+        <v>-75900</v>
       </c>
       <c r="J94" s="3">
-        <v>-64300</v>
+        <v>-60100</v>
       </c>
       <c r="K94" s="3">
         <v>-275500</v>
@@ -3764,16 +3764,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-99200</v>
       </c>
       <c r="E96" s="3">
-        <v>-102700</v>
+        <v>-95900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-94000</v>
+        <v>-87800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3919,26 +3919,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>17</v>
+      <c r="D100" s="3">
+        <v>427100</v>
       </c>
       <c r="E100" s="3">
-        <v>-86300</v>
+        <v>-80600</v>
       </c>
       <c r="F100" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="G100" s="3">
-        <v>-85800</v>
+        <v>-80200</v>
       </c>
       <c r="H100" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="I100" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="J100" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="K100" s="3">
         <v>101400</v>
@@ -3958,26 +3958,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>17</v>
+      <c r="D101" s="3">
+        <v>-6900</v>
       </c>
       <c r="E101" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="F101" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G101" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="H101" s="3">
         <v>-400</v>
       </c>
       <c r="I101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J101" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K101" s="3">
         <v>700</v>
@@ -3997,26 +3997,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>17</v>
+      <c r="D102" s="3">
+        <v>377600</v>
       </c>
       <c r="E102" s="3">
-        <v>-35400</v>
+        <v>-33100</v>
       </c>
       <c r="F102" s="3">
-        <v>280300</v>
+        <v>261800</v>
       </c>
       <c r="G102" s="3">
-        <v>-109600</v>
+        <v>-102400</v>
       </c>
       <c r="H102" s="3">
-        <v>-377300</v>
+        <v>-352400</v>
       </c>
       <c r="I102" s="3">
-        <v>171900</v>
+        <v>160500</v>
       </c>
       <c r="J102" s="3">
-        <v>173300</v>
+        <v>161800</v>
       </c>
       <c r="K102" s="3">
         <v>-13200</v>

--- a/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1066400</v>
+        <v>1056800</v>
       </c>
       <c r="E8" s="3">
-        <v>1275900</v>
+        <v>1264400</v>
       </c>
       <c r="F8" s="3">
-        <v>1240900</v>
+        <v>1229700</v>
       </c>
       <c r="G8" s="3">
-        <v>1065900</v>
+        <v>1056300</v>
       </c>
       <c r="H8" s="3">
-        <v>915100</v>
+        <v>906900</v>
       </c>
       <c r="I8" s="3">
-        <v>878500</v>
+        <v>870600</v>
       </c>
       <c r="J8" s="3">
-        <v>510500</v>
+        <v>505800</v>
       </c>
       <c r="K8" s="3">
         <v>333900</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>148600</v>
+        <v>147300</v>
       </c>
       <c r="E9" s="3">
-        <v>127400</v>
+        <v>126200</v>
       </c>
       <c r="F9" s="3">
-        <v>113500</v>
+        <v>112500</v>
       </c>
       <c r="G9" s="3">
-        <v>86700</v>
+        <v>85900</v>
       </c>
       <c r="H9" s="3">
-        <v>128800</v>
+        <v>127600</v>
       </c>
       <c r="I9" s="3">
-        <v>301200</v>
+        <v>298500</v>
       </c>
       <c r="J9" s="3">
-        <v>56000</v>
+        <v>55500</v>
       </c>
       <c r="K9" s="3">
         <v>29800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>917800</v>
+        <v>909500</v>
       </c>
       <c r="E10" s="3">
-        <v>1148600</v>
+        <v>1138200</v>
       </c>
       <c r="F10" s="3">
-        <v>1127400</v>
+        <v>1117200</v>
       </c>
       <c r="G10" s="3">
-        <v>979200</v>
+        <v>970300</v>
       </c>
       <c r="H10" s="3">
-        <v>786400</v>
+        <v>779300</v>
       </c>
       <c r="I10" s="3">
-        <v>577300</v>
+        <v>572100</v>
       </c>
       <c r="J10" s="3">
-        <v>454400</v>
+        <v>450300</v>
       </c>
       <c r="K10" s="3">
         <v>304100</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>206000</v>
+        <v>204200</v>
       </c>
       <c r="E12" s="3">
-        <v>201000</v>
+        <v>199200</v>
       </c>
       <c r="F12" s="3">
-        <v>190200</v>
+        <v>188500</v>
       </c>
       <c r="G12" s="3">
-        <v>167300</v>
+        <v>165800</v>
       </c>
       <c r="H12" s="3">
-        <v>129500</v>
+        <v>128300</v>
       </c>
       <c r="I12" s="3">
-        <v>84200</v>
+        <v>83400</v>
       </c>
       <c r="J12" s="3">
-        <v>40400</v>
+        <v>40000</v>
       </c>
       <c r="K12" s="3">
         <v>24800</v>
@@ -935,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>839600</v>
+        <v>832100</v>
       </c>
       <c r="E17" s="3">
-        <v>877300</v>
+        <v>869400</v>
       </c>
       <c r="F17" s="3">
-        <v>834400</v>
+        <v>826900</v>
       </c>
       <c r="G17" s="3">
-        <v>693400</v>
+        <v>687200</v>
       </c>
       <c r="H17" s="3">
-        <v>614000</v>
+        <v>608500</v>
       </c>
       <c r="I17" s="3">
-        <v>708500</v>
+        <v>702100</v>
       </c>
       <c r="J17" s="3">
-        <v>333600</v>
+        <v>330600</v>
       </c>
       <c r="K17" s="3">
         <v>192400</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>226800</v>
+        <v>224700</v>
       </c>
       <c r="E18" s="3">
-        <v>398600</v>
+        <v>395000</v>
       </c>
       <c r="F18" s="3">
-        <v>406400</v>
+        <v>402800</v>
       </c>
       <c r="G18" s="3">
-        <v>372500</v>
+        <v>369100</v>
       </c>
       <c r="H18" s="3">
-        <v>301100</v>
+        <v>298400</v>
       </c>
       <c r="I18" s="3">
-        <v>170000</v>
+        <v>168400</v>
       </c>
       <c r="J18" s="3">
-        <v>176800</v>
+        <v>175200</v>
       </c>
       <c r="K18" s="3">
         <v>141600</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>94000</v>
+        <v>93200</v>
       </c>
       <c r="E20" s="3">
-        <v>142000</v>
+        <v>140700</v>
       </c>
       <c r="F20" s="3">
-        <v>138900</v>
+        <v>137700</v>
       </c>
       <c r="G20" s="3">
-        <v>105200</v>
+        <v>104200</v>
       </c>
       <c r="H20" s="3">
-        <v>32200</v>
+        <v>31900</v>
       </c>
       <c r="I20" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="J20" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="K20" s="3">
         <v>5800</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>366800</v>
+        <v>363000</v>
       </c>
       <c r="E21" s="3">
-        <v>565900</v>
+        <v>560500</v>
       </c>
       <c r="F21" s="3">
-        <v>563000</v>
+        <v>557800</v>
       </c>
       <c r="G21" s="3">
-        <v>492800</v>
+        <v>488200</v>
       </c>
       <c r="H21" s="3">
-        <v>346500</v>
+        <v>343200</v>
       </c>
       <c r="I21" s="3">
-        <v>194400</v>
+        <v>192500</v>
       </c>
       <c r="J21" s="3">
-        <v>196500</v>
+        <v>194600</v>
       </c>
       <c r="K21" s="3">
         <v>153800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>320800</v>
+        <v>317900</v>
       </c>
       <c r="E23" s="3">
-        <v>540600</v>
+        <v>535700</v>
       </c>
       <c r="F23" s="3">
-        <v>545400</v>
+        <v>540500</v>
       </c>
       <c r="G23" s="3">
-        <v>477700</v>
+        <v>473300</v>
       </c>
       <c r="H23" s="3">
-        <v>333300</v>
+        <v>330300</v>
       </c>
       <c r="I23" s="3">
-        <v>184000</v>
+        <v>182400</v>
       </c>
       <c r="J23" s="3">
-        <v>188100</v>
+        <v>186400</v>
       </c>
       <c r="K23" s="3">
         <v>147400</v>
@@ -1281,22 +1281,22 @@
         <v>5000</v>
       </c>
       <c r="E24" s="3">
-        <v>38500</v>
+        <v>38100</v>
       </c>
       <c r="F24" s="3">
-        <v>73700</v>
+        <v>73100</v>
       </c>
       <c r="G24" s="3">
-        <v>55700</v>
+        <v>55200</v>
       </c>
       <c r="H24" s="3">
-        <v>39400</v>
+        <v>39000</v>
       </c>
       <c r="I24" s="3">
         <v>4800</v>
       </c>
       <c r="J24" s="3">
-        <v>42100</v>
+        <v>41700</v>
       </c>
       <c r="K24" s="3">
         <v>30200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>315800</v>
+        <v>313000</v>
       </c>
       <c r="E26" s="3">
-        <v>502100</v>
+        <v>497600</v>
       </c>
       <c r="F26" s="3">
-        <v>471600</v>
+        <v>467400</v>
       </c>
       <c r="G26" s="3">
-        <v>422000</v>
+        <v>418200</v>
       </c>
       <c r="H26" s="3">
-        <v>293900</v>
+        <v>291300</v>
       </c>
       <c r="I26" s="3">
-        <v>179200</v>
+        <v>177600</v>
       </c>
       <c r="J26" s="3">
-        <v>146000</v>
+        <v>144700</v>
       </c>
       <c r="K26" s="3">
         <v>117200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>316600</v>
+        <v>313800</v>
       </c>
       <c r="E27" s="3">
-        <v>501800</v>
+        <v>497300</v>
       </c>
       <c r="F27" s="3">
-        <v>471500</v>
+        <v>467300</v>
       </c>
       <c r="G27" s="3">
-        <v>423100</v>
+        <v>419300</v>
       </c>
       <c r="H27" s="3">
-        <v>295000</v>
+        <v>292300</v>
       </c>
       <c r="I27" s="3">
-        <v>180900</v>
+        <v>179300</v>
       </c>
       <c r="J27" s="3">
-        <v>146000</v>
+        <v>144700</v>
       </c>
       <c r="K27" s="3">
         <v>117200</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-94000</v>
+        <v>-93200</v>
       </c>
       <c r="E32" s="3">
-        <v>-142000</v>
+        <v>-140700</v>
       </c>
       <c r="F32" s="3">
-        <v>-138900</v>
+        <v>-137700</v>
       </c>
       <c r="G32" s="3">
-        <v>-105200</v>
+        <v>-104200</v>
       </c>
       <c r="H32" s="3">
-        <v>-32200</v>
+        <v>-31900</v>
       </c>
       <c r="I32" s="3">
-        <v>-14100</v>
+        <v>-13900</v>
       </c>
       <c r="J32" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="K32" s="3">
         <v>-5800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>316600</v>
+        <v>313800</v>
       </c>
       <c r="E33" s="3">
-        <v>501800</v>
+        <v>497300</v>
       </c>
       <c r="F33" s="3">
-        <v>471500</v>
+        <v>467300</v>
       </c>
       <c r="G33" s="3">
-        <v>423100</v>
+        <v>419300</v>
       </c>
       <c r="H33" s="3">
-        <v>295000</v>
+        <v>292300</v>
       </c>
       <c r="I33" s="3">
-        <v>180900</v>
+        <v>179300</v>
       </c>
       <c r="J33" s="3">
-        <v>146000</v>
+        <v>144700</v>
       </c>
       <c r="K33" s="3">
         <v>117200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>316600</v>
+        <v>313800</v>
       </c>
       <c r="E35" s="3">
-        <v>501800</v>
+        <v>497300</v>
       </c>
       <c r="F35" s="3">
-        <v>471500</v>
+        <v>467300</v>
       </c>
       <c r="G35" s="3">
-        <v>423100</v>
+        <v>419300</v>
       </c>
       <c r="H35" s="3">
-        <v>295000</v>
+        <v>292300</v>
       </c>
       <c r="I35" s="3">
-        <v>180900</v>
+        <v>179300</v>
       </c>
       <c r="J35" s="3">
-        <v>146000</v>
+        <v>144700</v>
       </c>
       <c r="K35" s="3">
         <v>117200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>624300</v>
+        <v>618700</v>
       </c>
       <c r="E41" s="3">
-        <v>258100</v>
+        <v>255700</v>
       </c>
       <c r="F41" s="3">
-        <v>293000</v>
+        <v>290400</v>
       </c>
       <c r="G41" s="3">
-        <v>31200</v>
+        <v>31000</v>
       </c>
       <c r="H41" s="3">
-        <v>134300</v>
+        <v>133100</v>
       </c>
       <c r="I41" s="3">
-        <v>485400</v>
+        <v>481000</v>
       </c>
       <c r="J41" s="3">
-        <v>317200</v>
+        <v>314400</v>
       </c>
       <c r="K41" s="3">
         <v>165100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2433900</v>
+        <v>2411900</v>
       </c>
       <c r="E42" s="3">
-        <v>1899300</v>
+        <v>1882200</v>
       </c>
       <c r="F42" s="3">
-        <v>1595300</v>
+        <v>1580900</v>
       </c>
       <c r="G42" s="3">
-        <v>1452400</v>
+        <v>1439300</v>
       </c>
       <c r="H42" s="3">
-        <v>1069000</v>
+        <v>1059400</v>
       </c>
       <c r="I42" s="3">
-        <v>358300</v>
+        <v>355100</v>
       </c>
       <c r="J42" s="3">
-        <v>289600</v>
+        <v>287000</v>
       </c>
       <c r="K42" s="3">
         <v>269100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>333800</v>
+        <v>330800</v>
       </c>
       <c r="E43" s="3">
-        <v>467400</v>
+        <v>463100</v>
       </c>
       <c r="F43" s="3">
-        <v>480500</v>
+        <v>476200</v>
       </c>
       <c r="G43" s="3">
-        <v>417000</v>
+        <v>413200</v>
       </c>
       <c r="H43" s="3">
-        <v>282700</v>
+        <v>280100</v>
       </c>
       <c r="I43" s="3">
-        <v>365900</v>
+        <v>362600</v>
       </c>
       <c r="J43" s="3">
-        <v>166000</v>
+        <v>164500</v>
       </c>
       <c r="K43" s="3">
         <v>119800</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="J44" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>17</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>45300</v>
+        <v>44900</v>
       </c>
       <c r="E45" s="3">
-        <v>81400</v>
+        <v>80700</v>
       </c>
       <c r="F45" s="3">
-        <v>41700</v>
+        <v>41300</v>
       </c>
       <c r="G45" s="3">
-        <v>35900</v>
+        <v>35500</v>
       </c>
       <c r="H45" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="I45" s="3">
-        <v>119500</v>
+        <v>118400</v>
       </c>
       <c r="J45" s="3">
-        <v>56900</v>
+        <v>56400</v>
       </c>
       <c r="K45" s="3">
         <v>16100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3437300</v>
+        <v>3406300</v>
       </c>
       <c r="E46" s="3">
-        <v>2706100</v>
+        <v>2681700</v>
       </c>
       <c r="F46" s="3">
-        <v>2410600</v>
+        <v>2388800</v>
       </c>
       <c r="G46" s="3">
-        <v>1936500</v>
+        <v>1919000</v>
       </c>
       <c r="H46" s="3">
-        <v>1511700</v>
+        <v>1498100</v>
       </c>
       <c r="I46" s="3">
-        <v>1095300</v>
+        <v>1085400</v>
       </c>
       <c r="J46" s="3">
-        <v>846200</v>
+        <v>838600</v>
       </c>
       <c r="K46" s="3">
         <v>570000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="E47" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="F47" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="G47" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="H47" s="3">
-        <v>23400</v>
+        <v>23200</v>
       </c>
       <c r="I47" s="3">
-        <v>19900</v>
+        <v>19800</v>
       </c>
       <c r="J47" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>17</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>75900</v>
+        <v>75200</v>
       </c>
       <c r="E48" s="3">
-        <v>91300</v>
+        <v>90500</v>
       </c>
       <c r="F48" s="3">
-        <v>53500</v>
+        <v>53000</v>
       </c>
       <c r="G48" s="3">
-        <v>25100</v>
+        <v>24900</v>
       </c>
       <c r="H48" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="I48" s="3">
-        <v>39700</v>
+        <v>39300</v>
       </c>
       <c r="J48" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="K48" s="3">
         <v>11700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>652600</v>
+        <v>646700</v>
       </c>
       <c r="E49" s="3">
-        <v>664900</v>
+        <v>658900</v>
       </c>
       <c r="F49" s="3">
-        <v>225800</v>
+        <v>223700</v>
       </c>
       <c r="G49" s="3">
-        <v>227500</v>
+        <v>225400</v>
       </c>
       <c r="H49" s="3">
-        <v>229200</v>
+        <v>227100</v>
       </c>
       <c r="I49" s="3">
-        <v>452100</v>
+        <v>448000</v>
       </c>
       <c r="J49" s="3">
-        <v>226700</v>
+        <v>224700</v>
       </c>
       <c r="K49" s="3">
         <v>241700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26700</v>
+        <v>26500</v>
       </c>
       <c r="E52" s="3">
-        <v>21700</v>
+        <v>21500</v>
       </c>
       <c r="F52" s="3">
-        <v>121800</v>
+        <v>120700</v>
       </c>
       <c r="G52" s="3">
-        <v>122000</v>
+        <v>120900</v>
       </c>
       <c r="H52" s="3">
-        <v>28300</v>
+        <v>28000</v>
       </c>
       <c r="I52" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="J52" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K52" s="3">
         <v>3000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4204000</v>
+        <v>4166100</v>
       </c>
       <c r="E54" s="3">
-        <v>3497000</v>
+        <v>3465400</v>
       </c>
       <c r="F54" s="3">
-        <v>2822800</v>
+        <v>2797300</v>
       </c>
       <c r="G54" s="3">
-        <v>2321800</v>
+        <v>2300900</v>
       </c>
       <c r="H54" s="3">
-        <v>1811800</v>
+        <v>1795400</v>
       </c>
       <c r="I54" s="3">
-        <v>1384000</v>
+        <v>1371500</v>
       </c>
       <c r="J54" s="3">
-        <v>1109600</v>
+        <v>1099600</v>
       </c>
       <c r="K54" s="3">
         <v>826400</v>
@@ -2407,10 +2407,10 @@
         <v>4700</v>
       </c>
       <c r="E57" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="F57" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="G57" s="3">
         <v>2900</v>
@@ -2419,10 +2419,10 @@
         <v>1500</v>
       </c>
       <c r="I57" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J57" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2458,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="J58" s="3">
-        <v>25800</v>
+        <v>25500</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>582700</v>
+        <v>577400</v>
       </c>
       <c r="E59" s="3">
-        <v>605000</v>
+        <v>599600</v>
       </c>
       <c r="F59" s="3">
-        <v>579100</v>
+        <v>573800</v>
       </c>
       <c r="G59" s="3">
-        <v>610800</v>
+        <v>605300</v>
       </c>
       <c r="H59" s="3">
-        <v>571600</v>
+        <v>566500</v>
       </c>
       <c r="I59" s="3">
-        <v>537600</v>
+        <v>532700</v>
       </c>
       <c r="J59" s="3">
-        <v>288600</v>
+        <v>285900</v>
       </c>
       <c r="K59" s="3">
         <v>169200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>587400</v>
+        <v>582100</v>
       </c>
       <c r="E60" s="3">
-        <v>616800</v>
+        <v>611200</v>
       </c>
       <c r="F60" s="3">
-        <v>584400</v>
+        <v>579100</v>
       </c>
       <c r="G60" s="3">
-        <v>613700</v>
+        <v>608200</v>
       </c>
       <c r="H60" s="3">
-        <v>573100</v>
+        <v>568000</v>
       </c>
       <c r="I60" s="3">
-        <v>374900</v>
+        <v>371500</v>
       </c>
       <c r="J60" s="3">
-        <v>317800</v>
+        <v>314900</v>
       </c>
       <c r="K60" s="3">
         <v>169200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>89200</v>
+        <v>88400</v>
       </c>
       <c r="E62" s="3">
-        <v>108500</v>
+        <v>107500</v>
       </c>
       <c r="F62" s="3">
-        <v>86100</v>
+        <v>85300</v>
       </c>
       <c r="G62" s="3">
-        <v>70700</v>
+        <v>70100</v>
       </c>
       <c r="H62" s="3">
-        <v>69300</v>
+        <v>68700</v>
       </c>
       <c r="I62" s="3">
-        <v>73200</v>
+        <v>72500</v>
       </c>
       <c r="J62" s="3">
-        <v>77000</v>
+        <v>76300</v>
       </c>
       <c r="K62" s="3">
         <v>83400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>850900</v>
+        <v>843300</v>
       </c>
       <c r="E66" s="3">
-        <v>899600</v>
+        <v>891500</v>
       </c>
       <c r="F66" s="3">
-        <v>667100</v>
+        <v>661000</v>
       </c>
       <c r="G66" s="3">
-        <v>680900</v>
+        <v>674800</v>
       </c>
       <c r="H66" s="3">
-        <v>640000</v>
+        <v>634300</v>
       </c>
       <c r="I66" s="3">
-        <v>446700</v>
+        <v>442700</v>
       </c>
       <c r="J66" s="3">
-        <v>394800</v>
+        <v>391200</v>
       </c>
       <c r="K66" s="3">
         <v>252500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2201700</v>
+        <v>2181800</v>
       </c>
       <c r="E72" s="3">
-        <v>1984300</v>
+        <v>1966400</v>
       </c>
       <c r="F72" s="3">
-        <v>1576500</v>
+        <v>1562300</v>
       </c>
       <c r="G72" s="3">
-        <v>1105000</v>
+        <v>1095000</v>
       </c>
       <c r="H72" s="3">
-        <v>681900</v>
+        <v>675700</v>
       </c>
       <c r="I72" s="3">
-        <v>474700</v>
+        <v>470400</v>
       </c>
       <c r="J72" s="3">
-        <v>293800</v>
+        <v>291100</v>
       </c>
       <c r="K72" s="3">
         <v>157000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3353100</v>
+        <v>3322800</v>
       </c>
       <c r="E76" s="3">
-        <v>2597300</v>
+        <v>2573900</v>
       </c>
       <c r="F76" s="3">
-        <v>2155700</v>
+        <v>2136300</v>
       </c>
       <c r="G76" s="3">
-        <v>1640900</v>
+        <v>1626100</v>
       </c>
       <c r="H76" s="3">
-        <v>1171800</v>
+        <v>1161200</v>
       </c>
       <c r="I76" s="3">
-        <v>937300</v>
+        <v>928800</v>
       </c>
       <c r="J76" s="3">
-        <v>714800</v>
+        <v>708400</v>
       </c>
       <c r="K76" s="3">
         <v>573900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>316600</v>
+        <v>313800</v>
       </c>
       <c r="E81" s="3">
-        <v>501800</v>
+        <v>497300</v>
       </c>
       <c r="F81" s="3">
-        <v>471500</v>
+        <v>467300</v>
       </c>
       <c r="G81" s="3">
-        <v>423100</v>
+        <v>419300</v>
       </c>
       <c r="H81" s="3">
-        <v>295000</v>
+        <v>292300</v>
       </c>
       <c r="I81" s="3">
-        <v>180900</v>
+        <v>179300</v>
       </c>
       <c r="J81" s="3">
-        <v>146000</v>
+        <v>144700</v>
       </c>
       <c r="K81" s="3">
         <v>117200</v>
@@ -3301,22 +3301,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>45500</v>
+        <v>45100</v>
       </c>
       <c r="E83" s="3">
-        <v>25100</v>
+        <v>24900</v>
       </c>
       <c r="F83" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="G83" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="H83" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="I83" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="J83" s="3">
         <v>8300</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>519300</v>
+        <v>514600</v>
       </c>
       <c r="E89" s="3">
-        <v>490100</v>
+        <v>485600</v>
       </c>
       <c r="F89" s="3">
-        <v>425800</v>
+        <v>421900</v>
       </c>
       <c r="G89" s="3">
-        <v>458500</v>
+        <v>454400</v>
       </c>
       <c r="H89" s="3">
-        <v>363100</v>
+        <v>359800</v>
       </c>
       <c r="I89" s="3">
-        <v>232000</v>
+        <v>229900</v>
       </c>
       <c r="J89" s="3">
-        <v>215400</v>
+        <v>213500</v>
       </c>
       <c r="K89" s="3">
         <v>160300</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32200</v>
+        <v>-32000</v>
       </c>
       <c r="E91" s="3">
-        <v>-38900</v>
+        <v>-38500</v>
       </c>
       <c r="F91" s="3">
-        <v>-30100</v>
+        <v>-29800</v>
       </c>
       <c r="G91" s="3">
-        <v>-16800</v>
+        <v>-16600</v>
       </c>
       <c r="H91" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="I91" s="3">
-        <v>-13100</v>
+        <v>-13000</v>
       </c>
       <c r="J91" s="3">
-        <v>-13100</v>
+        <v>-13000</v>
       </c>
       <c r="K91" s="3">
         <v>-6700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-561900</v>
+        <v>-556800</v>
       </c>
       <c r="E94" s="3">
-        <v>-439900</v>
+        <v>-436000</v>
       </c>
       <c r="F94" s="3">
-        <v>-172200</v>
+        <v>-170600</v>
       </c>
       <c r="G94" s="3">
-        <v>-486500</v>
+        <v>-482100</v>
       </c>
       <c r="H94" s="3">
-        <v>-724100</v>
+        <v>-717600</v>
       </c>
       <c r="I94" s="3">
-        <v>-75900</v>
+        <v>-75200</v>
       </c>
       <c r="J94" s="3">
-        <v>-60100</v>
+        <v>-59500</v>
       </c>
       <c r="K94" s="3">
         <v>-275500</v>
@@ -3764,16 +3764,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-99200</v>
+        <v>-98300</v>
       </c>
       <c r="E96" s="3">
-        <v>-95900</v>
+        <v>-95100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-87800</v>
+        <v>-87000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>427100</v>
+        <v>423200</v>
       </c>
       <c r="E100" s="3">
-        <v>-80600</v>
+        <v>-79900</v>
       </c>
       <c r="F100" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="G100" s="3">
-        <v>-80200</v>
+        <v>-79400</v>
       </c>
       <c r="H100" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="I100" s="3">
         <v>4100</v>
       </c>
       <c r="J100" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K100" s="3">
         <v>101400</v>
@@ -3959,16 +3959,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="E101" s="3">
         <v>-2600</v>
       </c>
       <c r="F101" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G101" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="H101" s="3">
         <v>-400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>377600</v>
+        <v>374200</v>
       </c>
       <c r="E102" s="3">
-        <v>-33100</v>
+        <v>-32800</v>
       </c>
       <c r="F102" s="3">
-        <v>261800</v>
+        <v>259400</v>
       </c>
       <c r="G102" s="3">
-        <v>-102400</v>
+        <v>-101400</v>
       </c>
       <c r="H102" s="3">
-        <v>-352400</v>
+        <v>-349300</v>
       </c>
       <c r="I102" s="3">
-        <v>160500</v>
+        <v>159100</v>
       </c>
       <c r="J102" s="3">
-        <v>161800</v>
+        <v>160400</v>
       </c>
       <c r="K102" s="3">
         <v>-13200</v>

--- a/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1056800</v>
+        <v>1007400</v>
       </c>
       <c r="E8" s="3">
-        <v>1264400</v>
+        <v>1205300</v>
       </c>
       <c r="F8" s="3">
-        <v>1229700</v>
+        <v>1172200</v>
       </c>
       <c r="G8" s="3">
-        <v>1056300</v>
+        <v>1006900</v>
       </c>
       <c r="H8" s="3">
-        <v>906900</v>
+        <v>864500</v>
       </c>
       <c r="I8" s="3">
-        <v>870600</v>
+        <v>829900</v>
       </c>
       <c r="J8" s="3">
-        <v>505800</v>
+        <v>482200</v>
       </c>
       <c r="K8" s="3">
         <v>333900</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>147300</v>
+        <v>140400</v>
       </c>
       <c r="E9" s="3">
-        <v>126200</v>
+        <v>120300</v>
       </c>
       <c r="F9" s="3">
-        <v>112500</v>
+        <v>107200</v>
       </c>
       <c r="G9" s="3">
-        <v>85900</v>
+        <v>81900</v>
       </c>
       <c r="H9" s="3">
-        <v>127600</v>
+        <v>121600</v>
       </c>
       <c r="I9" s="3">
-        <v>298500</v>
+        <v>284500</v>
       </c>
       <c r="J9" s="3">
-        <v>55500</v>
+        <v>52900</v>
       </c>
       <c r="K9" s="3">
         <v>29800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>909500</v>
+        <v>867000</v>
       </c>
       <c r="E10" s="3">
-        <v>1138200</v>
+        <v>1085000</v>
       </c>
       <c r="F10" s="3">
-        <v>1117200</v>
+        <v>1064900</v>
       </c>
       <c r="G10" s="3">
-        <v>970300</v>
+        <v>925000</v>
       </c>
       <c r="H10" s="3">
-        <v>779300</v>
+        <v>742800</v>
       </c>
       <c r="I10" s="3">
-        <v>572100</v>
+        <v>545400</v>
       </c>
       <c r="J10" s="3">
-        <v>450300</v>
+        <v>429300</v>
       </c>
       <c r="K10" s="3">
         <v>304100</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>204200</v>
+        <v>194600</v>
       </c>
       <c r="E12" s="3">
-        <v>199200</v>
+        <v>189900</v>
       </c>
       <c r="F12" s="3">
-        <v>188500</v>
+        <v>179700</v>
       </c>
       <c r="G12" s="3">
-        <v>165800</v>
+        <v>158000</v>
       </c>
       <c r="H12" s="3">
-        <v>128300</v>
+        <v>122300</v>
       </c>
       <c r="I12" s="3">
-        <v>83400</v>
+        <v>79500</v>
       </c>
       <c r="J12" s="3">
-        <v>40000</v>
+        <v>38100</v>
       </c>
       <c r="K12" s="3">
         <v>24800</v>
@@ -935,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-7500</v>
+        <v>-7200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>832100</v>
+        <v>793200</v>
       </c>
       <c r="E17" s="3">
-        <v>869400</v>
+        <v>828800</v>
       </c>
       <c r="F17" s="3">
-        <v>826900</v>
+        <v>788200</v>
       </c>
       <c r="G17" s="3">
-        <v>687200</v>
+        <v>655000</v>
       </c>
       <c r="H17" s="3">
-        <v>608500</v>
+        <v>580000</v>
       </c>
       <c r="I17" s="3">
-        <v>702100</v>
+        <v>669300</v>
       </c>
       <c r="J17" s="3">
-        <v>330600</v>
+        <v>315200</v>
       </c>
       <c r="K17" s="3">
         <v>192400</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>224700</v>
+        <v>214200</v>
       </c>
       <c r="E18" s="3">
-        <v>395000</v>
+        <v>376500</v>
       </c>
       <c r="F18" s="3">
-        <v>402800</v>
+        <v>383900</v>
       </c>
       <c r="G18" s="3">
-        <v>369100</v>
+        <v>351800</v>
       </c>
       <c r="H18" s="3">
-        <v>298400</v>
+        <v>284400</v>
       </c>
       <c r="I18" s="3">
-        <v>168400</v>
+        <v>160500</v>
       </c>
       <c r="J18" s="3">
-        <v>175200</v>
+        <v>167000</v>
       </c>
       <c r="K18" s="3">
         <v>141600</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>93200</v>
+        <v>88800</v>
       </c>
       <c r="E20" s="3">
-        <v>140700</v>
+        <v>134100</v>
       </c>
       <c r="F20" s="3">
-        <v>137700</v>
+        <v>131300</v>
       </c>
       <c r="G20" s="3">
-        <v>104200</v>
+        <v>99400</v>
       </c>
       <c r="H20" s="3">
-        <v>31900</v>
+        <v>30400</v>
       </c>
       <c r="I20" s="3">
-        <v>13900</v>
+        <v>13300</v>
       </c>
       <c r="J20" s="3">
-        <v>11200</v>
+        <v>10600</v>
       </c>
       <c r="K20" s="3">
         <v>5800</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>363000</v>
+        <v>345700</v>
       </c>
       <c r="E21" s="3">
-        <v>560500</v>
+        <v>534200</v>
       </c>
       <c r="F21" s="3">
-        <v>557800</v>
+        <v>531600</v>
       </c>
       <c r="G21" s="3">
-        <v>488200</v>
+        <v>465300</v>
       </c>
       <c r="H21" s="3">
-        <v>343200</v>
+        <v>327100</v>
       </c>
       <c r="I21" s="3">
-        <v>192500</v>
+        <v>183500</v>
       </c>
       <c r="J21" s="3">
-        <v>194600</v>
+        <v>185500</v>
       </c>
       <c r="K21" s="3">
         <v>153800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>317900</v>
+        <v>303100</v>
       </c>
       <c r="E23" s="3">
-        <v>535700</v>
+        <v>510700</v>
       </c>
       <c r="F23" s="3">
-        <v>540500</v>
+        <v>515200</v>
       </c>
       <c r="G23" s="3">
-        <v>473300</v>
+        <v>451200</v>
       </c>
       <c r="H23" s="3">
-        <v>330300</v>
+        <v>314800</v>
       </c>
       <c r="I23" s="3">
-        <v>182400</v>
+        <v>173800</v>
       </c>
       <c r="J23" s="3">
-        <v>186400</v>
+        <v>177600</v>
       </c>
       <c r="K23" s="3">
         <v>147400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="E24" s="3">
-        <v>38100</v>
+        <v>36300</v>
       </c>
       <c r="F24" s="3">
-        <v>73100</v>
+        <v>69700</v>
       </c>
       <c r="G24" s="3">
-        <v>55200</v>
+        <v>52600</v>
       </c>
       <c r="H24" s="3">
-        <v>39000</v>
+        <v>37200</v>
       </c>
       <c r="I24" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="J24" s="3">
-        <v>41700</v>
+        <v>39700</v>
       </c>
       <c r="K24" s="3">
         <v>30200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>313000</v>
+        <v>298300</v>
       </c>
       <c r="E26" s="3">
-        <v>497600</v>
+        <v>474300</v>
       </c>
       <c r="F26" s="3">
-        <v>467400</v>
+        <v>445500</v>
       </c>
       <c r="G26" s="3">
-        <v>418200</v>
+        <v>398600</v>
       </c>
       <c r="H26" s="3">
-        <v>291300</v>
+        <v>277600</v>
       </c>
       <c r="I26" s="3">
-        <v>177600</v>
+        <v>169300</v>
       </c>
       <c r="J26" s="3">
-        <v>144700</v>
+        <v>137900</v>
       </c>
       <c r="K26" s="3">
         <v>117200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>313800</v>
+        <v>299100</v>
       </c>
       <c r="E27" s="3">
-        <v>497300</v>
+        <v>474000</v>
       </c>
       <c r="F27" s="3">
-        <v>467300</v>
+        <v>445400</v>
       </c>
       <c r="G27" s="3">
-        <v>419300</v>
+        <v>399600</v>
       </c>
       <c r="H27" s="3">
-        <v>292300</v>
+        <v>278600</v>
       </c>
       <c r="I27" s="3">
-        <v>179300</v>
+        <v>170900</v>
       </c>
       <c r="J27" s="3">
-        <v>144700</v>
+        <v>137900</v>
       </c>
       <c r="K27" s="3">
         <v>117200</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-93200</v>
+        <v>-88800</v>
       </c>
       <c r="E32" s="3">
-        <v>-140700</v>
+        <v>-134100</v>
       </c>
       <c r="F32" s="3">
-        <v>-137700</v>
+        <v>-131300</v>
       </c>
       <c r="G32" s="3">
-        <v>-104200</v>
+        <v>-99400</v>
       </c>
       <c r="H32" s="3">
-        <v>-31900</v>
+        <v>-30400</v>
       </c>
       <c r="I32" s="3">
-        <v>-13900</v>
+        <v>-13300</v>
       </c>
       <c r="J32" s="3">
-        <v>-11200</v>
+        <v>-10600</v>
       </c>
       <c r="K32" s="3">
         <v>-5800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>313800</v>
+        <v>299100</v>
       </c>
       <c r="E33" s="3">
-        <v>497300</v>
+        <v>474000</v>
       </c>
       <c r="F33" s="3">
-        <v>467300</v>
+        <v>445400</v>
       </c>
       <c r="G33" s="3">
-        <v>419300</v>
+        <v>399600</v>
       </c>
       <c r="H33" s="3">
-        <v>292300</v>
+        <v>278600</v>
       </c>
       <c r="I33" s="3">
-        <v>179300</v>
+        <v>170900</v>
       </c>
       <c r="J33" s="3">
-        <v>144700</v>
+        <v>137900</v>
       </c>
       <c r="K33" s="3">
         <v>117200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>313800</v>
+        <v>299100</v>
       </c>
       <c r="E35" s="3">
-        <v>497300</v>
+        <v>474000</v>
       </c>
       <c r="F35" s="3">
-        <v>467300</v>
+        <v>445400</v>
       </c>
       <c r="G35" s="3">
-        <v>419300</v>
+        <v>399600</v>
       </c>
       <c r="H35" s="3">
-        <v>292300</v>
+        <v>278600</v>
       </c>
       <c r="I35" s="3">
-        <v>179300</v>
+        <v>170900</v>
       </c>
       <c r="J35" s="3">
-        <v>144700</v>
+        <v>137900</v>
       </c>
       <c r="K35" s="3">
         <v>117200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>618700</v>
+        <v>589700</v>
       </c>
       <c r="E41" s="3">
-        <v>255700</v>
+        <v>243800</v>
       </c>
       <c r="F41" s="3">
-        <v>290400</v>
+        <v>276800</v>
       </c>
       <c r="G41" s="3">
-        <v>31000</v>
+        <v>29500</v>
       </c>
       <c r="H41" s="3">
-        <v>133100</v>
+        <v>126900</v>
       </c>
       <c r="I41" s="3">
-        <v>481000</v>
+        <v>458500</v>
       </c>
       <c r="J41" s="3">
-        <v>314400</v>
+        <v>299600</v>
       </c>
       <c r="K41" s="3">
         <v>165100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2411900</v>
+        <v>2299100</v>
       </c>
       <c r="E42" s="3">
-        <v>1882200</v>
+        <v>1794200</v>
       </c>
       <c r="F42" s="3">
-        <v>1580900</v>
+        <v>1507000</v>
       </c>
       <c r="G42" s="3">
-        <v>1439300</v>
+        <v>1372000</v>
       </c>
       <c r="H42" s="3">
-        <v>1059400</v>
+        <v>1009800</v>
       </c>
       <c r="I42" s="3">
-        <v>355100</v>
+        <v>338500</v>
       </c>
       <c r="J42" s="3">
-        <v>287000</v>
+        <v>273600</v>
       </c>
       <c r="K42" s="3">
         <v>269100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>330800</v>
+        <v>315300</v>
       </c>
       <c r="E43" s="3">
-        <v>463100</v>
+        <v>441500</v>
       </c>
       <c r="F43" s="3">
-        <v>476200</v>
+        <v>453900</v>
       </c>
       <c r="G43" s="3">
-        <v>413200</v>
+        <v>393900</v>
       </c>
       <c r="H43" s="3">
-        <v>280100</v>
+        <v>267000</v>
       </c>
       <c r="I43" s="3">
-        <v>362600</v>
+        <v>345600</v>
       </c>
       <c r="J43" s="3">
-        <v>164500</v>
+        <v>156800</v>
       </c>
       <c r="K43" s="3">
         <v>119800</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="J44" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>17</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>44900</v>
+        <v>42800</v>
       </c>
       <c r="E45" s="3">
-        <v>80700</v>
+        <v>76900</v>
       </c>
       <c r="F45" s="3">
-        <v>41300</v>
+        <v>39400</v>
       </c>
       <c r="G45" s="3">
-        <v>35500</v>
+        <v>33900</v>
       </c>
       <c r="H45" s="3">
-        <v>25400</v>
+        <v>24200</v>
       </c>
       <c r="I45" s="3">
-        <v>118400</v>
+        <v>112900</v>
       </c>
       <c r="J45" s="3">
-        <v>56400</v>
+        <v>53800</v>
       </c>
       <c r="K45" s="3">
         <v>16100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3406300</v>
+        <v>3246900</v>
       </c>
       <c r="E46" s="3">
-        <v>2681700</v>
+        <v>2556300</v>
       </c>
       <c r="F46" s="3">
-        <v>2388800</v>
+        <v>2277100</v>
       </c>
       <c r="G46" s="3">
-        <v>1919000</v>
+        <v>1829300</v>
       </c>
       <c r="H46" s="3">
-        <v>1498100</v>
+        <v>1428000</v>
       </c>
       <c r="I46" s="3">
-        <v>1085400</v>
+        <v>1034600</v>
       </c>
       <c r="J46" s="3">
-        <v>838600</v>
+        <v>799400</v>
       </c>
       <c r="K46" s="3">
         <v>570000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="E47" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="F47" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="G47" s="3">
-        <v>10700</v>
+        <v>10200</v>
       </c>
       <c r="H47" s="3">
-        <v>23200</v>
+        <v>22100</v>
       </c>
       <c r="I47" s="3">
-        <v>19800</v>
+        <v>18800</v>
       </c>
       <c r="J47" s="3">
-        <v>18100</v>
+        <v>17300</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>17</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>75200</v>
+        <v>71700</v>
       </c>
       <c r="E48" s="3">
-        <v>90500</v>
+        <v>86200</v>
       </c>
       <c r="F48" s="3">
-        <v>53000</v>
+        <v>50500</v>
       </c>
       <c r="G48" s="3">
-        <v>24900</v>
+        <v>23700</v>
       </c>
       <c r="H48" s="3">
-        <v>19000</v>
+        <v>18100</v>
       </c>
       <c r="I48" s="3">
-        <v>39300</v>
+        <v>37500</v>
       </c>
       <c r="J48" s="3">
-        <v>15100</v>
+        <v>14400</v>
       </c>
       <c r="K48" s="3">
         <v>11700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>646700</v>
+        <v>616500</v>
       </c>
       <c r="E49" s="3">
-        <v>658900</v>
+        <v>628000</v>
       </c>
       <c r="F49" s="3">
-        <v>223700</v>
+        <v>213300</v>
       </c>
       <c r="G49" s="3">
-        <v>225400</v>
+        <v>214900</v>
       </c>
       <c r="H49" s="3">
-        <v>227100</v>
+        <v>216500</v>
       </c>
       <c r="I49" s="3">
-        <v>448000</v>
+        <v>427100</v>
       </c>
       <c r="J49" s="3">
-        <v>224700</v>
+        <v>214100</v>
       </c>
       <c r="K49" s="3">
         <v>241700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26500</v>
+        <v>25200</v>
       </c>
       <c r="E52" s="3">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="F52" s="3">
-        <v>120700</v>
+        <v>115000</v>
       </c>
       <c r="G52" s="3">
-        <v>120900</v>
+        <v>115300</v>
       </c>
       <c r="H52" s="3">
-        <v>28000</v>
+        <v>26700</v>
       </c>
       <c r="I52" s="3">
-        <v>22900</v>
+        <v>21800</v>
       </c>
       <c r="J52" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="K52" s="3">
         <v>3000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4166100</v>
+        <v>3971200</v>
       </c>
       <c r="E54" s="3">
-        <v>3465400</v>
+        <v>3303300</v>
       </c>
       <c r="F54" s="3">
-        <v>2797300</v>
+        <v>2666500</v>
       </c>
       <c r="G54" s="3">
-        <v>2300900</v>
+        <v>2193300</v>
       </c>
       <c r="H54" s="3">
-        <v>1795400</v>
+        <v>1711500</v>
       </c>
       <c r="I54" s="3">
-        <v>1371500</v>
+        <v>1307400</v>
       </c>
       <c r="J54" s="3">
-        <v>1099600</v>
+        <v>1048200</v>
       </c>
       <c r="K54" s="3">
         <v>826400</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="E57" s="3">
-        <v>11700</v>
+        <v>11100</v>
       </c>
       <c r="F57" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="G57" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I57" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J57" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2458,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="J58" s="3">
-        <v>25500</v>
+        <v>24400</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>577400</v>
+        <v>550400</v>
       </c>
       <c r="E59" s="3">
-        <v>599600</v>
+        <v>571500</v>
       </c>
       <c r="F59" s="3">
-        <v>573800</v>
+        <v>547000</v>
       </c>
       <c r="G59" s="3">
-        <v>605300</v>
+        <v>577000</v>
       </c>
       <c r="H59" s="3">
-        <v>566500</v>
+        <v>540000</v>
       </c>
       <c r="I59" s="3">
-        <v>532700</v>
+        <v>507800</v>
       </c>
       <c r="J59" s="3">
-        <v>285900</v>
+        <v>272600</v>
       </c>
       <c r="K59" s="3">
         <v>169200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>582100</v>
+        <v>554900</v>
       </c>
       <c r="E60" s="3">
-        <v>611200</v>
+        <v>582600</v>
       </c>
       <c r="F60" s="3">
-        <v>579100</v>
+        <v>552100</v>
       </c>
       <c r="G60" s="3">
-        <v>608200</v>
+        <v>579700</v>
       </c>
       <c r="H60" s="3">
-        <v>568000</v>
+        <v>541400</v>
       </c>
       <c r="I60" s="3">
-        <v>371500</v>
+        <v>354100</v>
       </c>
       <c r="J60" s="3">
-        <v>314900</v>
+        <v>300200</v>
       </c>
       <c r="K60" s="3">
         <v>169200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>88400</v>
+        <v>84300</v>
       </c>
       <c r="E62" s="3">
-        <v>107500</v>
+        <v>102500</v>
       </c>
       <c r="F62" s="3">
-        <v>85300</v>
+        <v>81300</v>
       </c>
       <c r="G62" s="3">
-        <v>70100</v>
+        <v>66800</v>
       </c>
       <c r="H62" s="3">
-        <v>68700</v>
+        <v>65500</v>
       </c>
       <c r="I62" s="3">
-        <v>72500</v>
+        <v>69200</v>
       </c>
       <c r="J62" s="3">
-        <v>76300</v>
+        <v>72700</v>
       </c>
       <c r="K62" s="3">
         <v>83400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>843300</v>
+        <v>803800</v>
       </c>
       <c r="E66" s="3">
-        <v>891500</v>
+        <v>849800</v>
       </c>
       <c r="F66" s="3">
-        <v>661000</v>
+        <v>630100</v>
       </c>
       <c r="G66" s="3">
-        <v>674800</v>
+        <v>643200</v>
       </c>
       <c r="H66" s="3">
-        <v>634300</v>
+        <v>604600</v>
       </c>
       <c r="I66" s="3">
-        <v>442700</v>
+        <v>422000</v>
       </c>
       <c r="J66" s="3">
-        <v>391200</v>
+        <v>372900</v>
       </c>
       <c r="K66" s="3">
         <v>252500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2181800</v>
+        <v>2079800</v>
       </c>
       <c r="E72" s="3">
-        <v>1966400</v>
+        <v>1874400</v>
       </c>
       <c r="F72" s="3">
-        <v>1562300</v>
+        <v>1489200</v>
       </c>
       <c r="G72" s="3">
-        <v>1095000</v>
+        <v>1043800</v>
       </c>
       <c r="H72" s="3">
-        <v>675700</v>
+        <v>644100</v>
       </c>
       <c r="I72" s="3">
-        <v>470400</v>
+        <v>448400</v>
       </c>
       <c r="J72" s="3">
-        <v>291100</v>
+        <v>277500</v>
       </c>
       <c r="K72" s="3">
         <v>157000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3322800</v>
+        <v>3167400</v>
       </c>
       <c r="E76" s="3">
-        <v>2573900</v>
+        <v>2453500</v>
       </c>
       <c r="F76" s="3">
-        <v>2136300</v>
+        <v>2036400</v>
       </c>
       <c r="G76" s="3">
-        <v>1626100</v>
+        <v>1550000</v>
       </c>
       <c r="H76" s="3">
-        <v>1161200</v>
+        <v>1106900</v>
       </c>
       <c r="I76" s="3">
-        <v>928800</v>
+        <v>885400</v>
       </c>
       <c r="J76" s="3">
-        <v>708400</v>
+        <v>675300</v>
       </c>
       <c r="K76" s="3">
         <v>573900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>313800</v>
+        <v>299100</v>
       </c>
       <c r="E81" s="3">
-        <v>497300</v>
+        <v>474000</v>
       </c>
       <c r="F81" s="3">
-        <v>467300</v>
+        <v>445400</v>
       </c>
       <c r="G81" s="3">
-        <v>419300</v>
+        <v>399600</v>
       </c>
       <c r="H81" s="3">
-        <v>292300</v>
+        <v>278600</v>
       </c>
       <c r="I81" s="3">
-        <v>179300</v>
+        <v>170900</v>
       </c>
       <c r="J81" s="3">
-        <v>144700</v>
+        <v>137900</v>
       </c>
       <c r="K81" s="3">
         <v>117200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>45100</v>
+        <v>43000</v>
       </c>
       <c r="E83" s="3">
-        <v>24900</v>
+        <v>23700</v>
       </c>
       <c r="F83" s="3">
-        <v>17300</v>
+        <v>16500</v>
       </c>
       <c r="G83" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="H83" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="I83" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="J83" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="K83" s="3">
         <v>6400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>514600</v>
+        <v>490500</v>
       </c>
       <c r="E89" s="3">
-        <v>485600</v>
+        <v>462900</v>
       </c>
       <c r="F89" s="3">
-        <v>421900</v>
+        <v>402200</v>
       </c>
       <c r="G89" s="3">
-        <v>454400</v>
+        <v>433100</v>
       </c>
       <c r="H89" s="3">
-        <v>359800</v>
+        <v>342900</v>
       </c>
       <c r="I89" s="3">
-        <v>229900</v>
+        <v>219100</v>
       </c>
       <c r="J89" s="3">
-        <v>213500</v>
+        <v>203500</v>
       </c>
       <c r="K89" s="3">
         <v>160300</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32000</v>
+        <v>-30500</v>
       </c>
       <c r="E91" s="3">
-        <v>-38500</v>
+        <v>-36700</v>
       </c>
       <c r="F91" s="3">
-        <v>-29800</v>
+        <v>-28400</v>
       </c>
       <c r="G91" s="3">
-        <v>-16600</v>
+        <v>-15800</v>
       </c>
       <c r="H91" s="3">
-        <v>-12600</v>
+        <v>-12000</v>
       </c>
       <c r="I91" s="3">
-        <v>-13000</v>
+        <v>-12400</v>
       </c>
       <c r="J91" s="3">
-        <v>-13000</v>
+        <v>-12400</v>
       </c>
       <c r="K91" s="3">
         <v>-6700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-556800</v>
+        <v>-530800</v>
       </c>
       <c r="E94" s="3">
-        <v>-436000</v>
+        <v>-415600</v>
       </c>
       <c r="F94" s="3">
-        <v>-170600</v>
+        <v>-162600</v>
       </c>
       <c r="G94" s="3">
-        <v>-482100</v>
+        <v>-459500</v>
       </c>
       <c r="H94" s="3">
-        <v>-717600</v>
+        <v>-684000</v>
       </c>
       <c r="I94" s="3">
-        <v>-75200</v>
+        <v>-71700</v>
       </c>
       <c r="J94" s="3">
-        <v>-59500</v>
+        <v>-56700</v>
       </c>
       <c r="K94" s="3">
         <v>-275500</v>
@@ -3764,16 +3764,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-98300</v>
+        <v>-93700</v>
       </c>
       <c r="E96" s="3">
-        <v>-95100</v>
+        <v>-90600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-87000</v>
+        <v>-82900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>423200</v>
+        <v>403400</v>
       </c>
       <c r="E100" s="3">
-        <v>-79900</v>
+        <v>-76100</v>
       </c>
       <c r="F100" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="G100" s="3">
-        <v>-79400</v>
+        <v>-75700</v>
       </c>
       <c r="H100" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="I100" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="J100" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="K100" s="3">
         <v>101400</v>
@@ -3959,16 +3959,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="E101" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="F101" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="G101" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="H101" s="3">
         <v>-400</v>
@@ -3977,7 +3977,7 @@
         <v>300</v>
       </c>
       <c r="J101" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K101" s="3">
         <v>700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>374200</v>
+        <v>356700</v>
       </c>
       <c r="E102" s="3">
-        <v>-32800</v>
+        <v>-31200</v>
       </c>
       <c r="F102" s="3">
-        <v>259400</v>
+        <v>247300</v>
       </c>
       <c r="G102" s="3">
-        <v>-101400</v>
+        <v>-96700</v>
       </c>
       <c r="H102" s="3">
-        <v>-349300</v>
+        <v>-332900</v>
       </c>
       <c r="I102" s="3">
-        <v>159100</v>
+        <v>151700</v>
       </c>
       <c r="J102" s="3">
-        <v>160400</v>
+        <v>152900</v>
       </c>
       <c r="K102" s="3">
         <v>-13200</v>

--- a/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>ATHM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1007400</v>
+        <v>996800</v>
       </c>
       <c r="E8" s="3">
-        <v>1205300</v>
+        <v>1039400</v>
       </c>
       <c r="F8" s="3">
-        <v>1172200</v>
+        <v>1243500</v>
       </c>
       <c r="G8" s="3">
-        <v>1006900</v>
+        <v>1209400</v>
       </c>
       <c r="H8" s="3">
-        <v>864500</v>
+        <v>1038800</v>
       </c>
       <c r="I8" s="3">
-        <v>829900</v>
+        <v>891900</v>
       </c>
       <c r="J8" s="3">
+        <v>856200</v>
+      </c>
+      <c r="K8" s="3">
         <v>482200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>333900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>185100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>105100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>63000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>140400</v>
+        <v>177400</v>
       </c>
       <c r="E9" s="3">
-        <v>120300</v>
+        <v>144900</v>
       </c>
       <c r="F9" s="3">
-        <v>107200</v>
+        <v>124100</v>
       </c>
       <c r="G9" s="3">
-        <v>81900</v>
+        <v>110600</v>
       </c>
       <c r="H9" s="3">
-        <v>121600</v>
+        <v>84500</v>
       </c>
       <c r="I9" s="3">
-        <v>284500</v>
+        <v>125500</v>
       </c>
       <c r="J9" s="3">
+        <v>293500</v>
+      </c>
+      <c r="K9" s="3">
         <v>52900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>29800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>25600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>867000</v>
+        <v>819400</v>
       </c>
       <c r="E10" s="3">
-        <v>1085000</v>
+        <v>894500</v>
       </c>
       <c r="F10" s="3">
-        <v>1064900</v>
+        <v>1119400</v>
       </c>
       <c r="G10" s="3">
-        <v>925000</v>
+        <v>1098700</v>
       </c>
       <c r="H10" s="3">
-        <v>742800</v>
+        <v>954300</v>
       </c>
       <c r="I10" s="3">
-        <v>545400</v>
+        <v>766400</v>
       </c>
       <c r="J10" s="3">
+        <v>562700</v>
+      </c>
+      <c r="K10" s="3">
         <v>429300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>304100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>163200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>79500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>44000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>194600</v>
+        <v>203500</v>
       </c>
       <c r="E12" s="3">
-        <v>189900</v>
+        <v>200800</v>
       </c>
       <c r="F12" s="3">
-        <v>179700</v>
+        <v>195900</v>
       </c>
       <c r="G12" s="3">
-        <v>158000</v>
+        <v>185400</v>
       </c>
       <c r="H12" s="3">
-        <v>122300</v>
+        <v>163000</v>
       </c>
       <c r="I12" s="3">
-        <v>79500</v>
+        <v>126200</v>
       </c>
       <c r="J12" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K12" s="3">
         <v>38100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2400</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,17 +944,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-7400</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
@@ -955,8 +974,8 @@
       <c r="J14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -967,9 +986,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>793200</v>
+        <v>864700</v>
       </c>
       <c r="E17" s="3">
-        <v>828800</v>
+        <v>818300</v>
       </c>
       <c r="F17" s="3">
-        <v>788200</v>
+        <v>855100</v>
       </c>
       <c r="G17" s="3">
-        <v>655000</v>
+        <v>813300</v>
       </c>
       <c r="H17" s="3">
-        <v>580000</v>
+        <v>675800</v>
       </c>
       <c r="I17" s="3">
-        <v>669300</v>
+        <v>598500</v>
       </c>
       <c r="J17" s="3">
+        <v>690600</v>
+      </c>
+      <c r="K17" s="3">
         <v>315200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>192400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>62300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>38000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>214200</v>
+        <v>132100</v>
       </c>
       <c r="E18" s="3">
-        <v>376500</v>
+        <v>221000</v>
       </c>
       <c r="F18" s="3">
-        <v>383900</v>
+        <v>388500</v>
       </c>
       <c r="G18" s="3">
-        <v>351800</v>
+        <v>396100</v>
       </c>
       <c r="H18" s="3">
-        <v>284400</v>
+        <v>363000</v>
       </c>
       <c r="I18" s="3">
-        <v>160500</v>
+        <v>293500</v>
       </c>
       <c r="J18" s="3">
+        <v>165600</v>
+      </c>
+      <c r="K18" s="3">
         <v>167000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>141600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>84400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>25000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>88800</v>
+        <v>121000</v>
       </c>
       <c r="E20" s="3">
-        <v>134100</v>
+        <v>91600</v>
       </c>
       <c r="F20" s="3">
-        <v>131300</v>
+        <v>138400</v>
       </c>
       <c r="G20" s="3">
-        <v>99400</v>
+        <v>135400</v>
       </c>
       <c r="H20" s="3">
-        <v>30400</v>
+        <v>102500</v>
       </c>
       <c r="I20" s="3">
-        <v>13300</v>
+        <v>31400</v>
       </c>
       <c r="J20" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K20" s="3">
         <v>10600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>345700</v>
+      <c r="D21" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E21" s="3">
-        <v>534200</v>
+        <v>357100</v>
       </c>
       <c r="F21" s="3">
-        <v>531600</v>
+        <v>551400</v>
       </c>
       <c r="G21" s="3">
-        <v>465300</v>
+        <v>548600</v>
       </c>
       <c r="H21" s="3">
-        <v>327100</v>
+        <v>480200</v>
       </c>
       <c r="I21" s="3">
-        <v>183500</v>
+        <v>337600</v>
       </c>
       <c r="J21" s="3">
+        <v>189400</v>
+      </c>
+      <c r="K21" s="3">
         <v>185500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>153800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>91400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>47100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>30500</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1224,95 +1263,104 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>303100</v>
+        <v>253200</v>
       </c>
       <c r="E23" s="3">
-        <v>510700</v>
+        <v>312700</v>
       </c>
       <c r="F23" s="3">
-        <v>515200</v>
+        <v>526900</v>
       </c>
       <c r="G23" s="3">
-        <v>451200</v>
+        <v>531500</v>
       </c>
       <c r="H23" s="3">
-        <v>314800</v>
+        <v>465500</v>
       </c>
       <c r="I23" s="3">
-        <v>173800</v>
+        <v>324800</v>
       </c>
       <c r="J23" s="3">
+        <v>179400</v>
+      </c>
+      <c r="K23" s="3">
         <v>177600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>147400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>86500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>43600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>25300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>37500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>71900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>54300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>38400</v>
+      </c>
+      <c r="J24" s="3">
         <v>4700</v>
       </c>
-      <c r="E24" s="3">
-        <v>36300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>69700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>52600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>37200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>39700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5600</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>298300</v>
+        <v>262100</v>
       </c>
       <c r="E26" s="3">
-        <v>474300</v>
+        <v>307800</v>
       </c>
       <c r="F26" s="3">
-        <v>445500</v>
+        <v>489400</v>
       </c>
       <c r="G26" s="3">
-        <v>398600</v>
+        <v>459700</v>
       </c>
       <c r="H26" s="3">
-        <v>277600</v>
+        <v>411300</v>
       </c>
       <c r="I26" s="3">
-        <v>169300</v>
+        <v>286400</v>
       </c>
       <c r="J26" s="3">
+        <v>174700</v>
+      </c>
+      <c r="K26" s="3">
         <v>137900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>117200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>69400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19700</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>299100</v>
+        <v>259500</v>
       </c>
       <c r="E27" s="3">
-        <v>474000</v>
+        <v>308600</v>
       </c>
       <c r="F27" s="3">
-        <v>445400</v>
+        <v>489100</v>
       </c>
       <c r="G27" s="3">
-        <v>399600</v>
+        <v>459600</v>
       </c>
       <c r="H27" s="3">
-        <v>278600</v>
+        <v>412300</v>
       </c>
       <c r="I27" s="3">
-        <v>170900</v>
+        <v>287500</v>
       </c>
       <c r="J27" s="3">
+        <v>176400</v>
+      </c>
+      <c r="K27" s="3">
         <v>137900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>117200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>69400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19700</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1503,11 +1563,14 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-600</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-88800</v>
+        <v>-121000</v>
       </c>
       <c r="E32" s="3">
-        <v>-134100</v>
+        <v>-91600</v>
       </c>
       <c r="F32" s="3">
-        <v>-131300</v>
+        <v>-138400</v>
       </c>
       <c r="G32" s="3">
-        <v>-99400</v>
+        <v>-135400</v>
       </c>
       <c r="H32" s="3">
-        <v>-30400</v>
+        <v>-102500</v>
       </c>
       <c r="I32" s="3">
-        <v>-13300</v>
+        <v>-31400</v>
       </c>
       <c r="J32" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>299100</v>
+        <v>259500</v>
       </c>
       <c r="E33" s="3">
-        <v>474000</v>
+        <v>308600</v>
       </c>
       <c r="F33" s="3">
-        <v>445400</v>
+        <v>489100</v>
       </c>
       <c r="G33" s="3">
-        <v>399600</v>
+        <v>459600</v>
       </c>
       <c r="H33" s="3">
-        <v>278600</v>
+        <v>412300</v>
       </c>
       <c r="I33" s="3">
-        <v>170900</v>
+        <v>287500</v>
       </c>
       <c r="J33" s="3">
+        <v>176400</v>
+      </c>
+      <c r="K33" s="3">
         <v>137900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>117200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>69400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19100</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>299100</v>
+        <v>259500</v>
       </c>
       <c r="E35" s="3">
-        <v>474000</v>
+        <v>308600</v>
       </c>
       <c r="F35" s="3">
-        <v>445400</v>
+        <v>489100</v>
       </c>
       <c r="G35" s="3">
-        <v>399600</v>
+        <v>459600</v>
       </c>
       <c r="H35" s="3">
-        <v>278600</v>
+        <v>412300</v>
       </c>
       <c r="I35" s="3">
-        <v>170900</v>
+        <v>287500</v>
       </c>
       <c r="J35" s="3">
+        <v>176400</v>
+      </c>
+      <c r="K35" s="3">
         <v>137900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>117200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>69400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19100</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,76 +1903,80 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>589700</v>
+        <v>402300</v>
       </c>
       <c r="E41" s="3">
-        <v>243800</v>
+        <v>608400</v>
       </c>
       <c r="F41" s="3">
-        <v>276800</v>
+        <v>251500</v>
       </c>
       <c r="G41" s="3">
-        <v>29500</v>
+        <v>285600</v>
       </c>
       <c r="H41" s="3">
-        <v>126900</v>
+        <v>30400</v>
       </c>
       <c r="I41" s="3">
-        <v>458500</v>
+        <v>130900</v>
       </c>
       <c r="J41" s="3">
+        <v>473100</v>
+      </c>
+      <c r="K41" s="3">
         <v>299600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>165100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>173200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>60300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31100</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2299100</v>
+        <v>2768900</v>
       </c>
       <c r="E42" s="3">
-        <v>1794200</v>
+        <v>2372100</v>
       </c>
       <c r="F42" s="3">
-        <v>1507000</v>
+        <v>1851100</v>
       </c>
       <c r="G42" s="3">
-        <v>1372000</v>
+        <v>1554900</v>
       </c>
       <c r="H42" s="3">
-        <v>1009800</v>
+        <v>1415500</v>
       </c>
       <c r="I42" s="3">
-        <v>338500</v>
+        <v>1041900</v>
       </c>
       <c r="J42" s="3">
+        <v>349200</v>
+      </c>
+      <c r="K42" s="3">
         <v>273600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>269100</v>
-      </c>
-      <c r="L42" s="3">
-        <v>300</v>
       </c>
       <c r="M42" s="3">
         <v>300</v>
@@ -1895,48 +1984,54 @@
       <c r="N42" s="3">
         <v>300</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>300</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>315300</v>
+        <v>284000</v>
       </c>
       <c r="E43" s="3">
-        <v>441500</v>
+        <v>632600</v>
       </c>
       <c r="F43" s="3">
-        <v>453900</v>
+        <v>455500</v>
       </c>
       <c r="G43" s="3">
-        <v>393900</v>
+        <v>468300</v>
       </c>
       <c r="H43" s="3">
-        <v>267000</v>
+        <v>406400</v>
       </c>
       <c r="I43" s="3">
-        <v>345600</v>
+        <v>275500</v>
       </c>
       <c r="J43" s="3">
+        <v>356600</v>
+      </c>
+      <c r="K43" s="3">
         <v>156800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>119800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>71200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>46900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>30200</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1952,17 +2047,17 @@
       <c r="G44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I44" s="3">
-        <v>13300</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K44" s="3">
         <v>15500</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>17</v>
@@ -1973,113 +2068,122 @@
       <c r="N44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42800</v>
+        <v>52700</v>
       </c>
       <c r="E45" s="3">
-        <v>76900</v>
+        <v>84400</v>
       </c>
       <c r="F45" s="3">
-        <v>39400</v>
+        <v>79300</v>
       </c>
       <c r="G45" s="3">
-        <v>33900</v>
+        <v>40600</v>
       </c>
       <c r="H45" s="3">
-        <v>24200</v>
+        <v>34900</v>
       </c>
       <c r="I45" s="3">
-        <v>112900</v>
+        <v>25000</v>
       </c>
       <c r="J45" s="3">
+        <v>116400</v>
+      </c>
+      <c r="K45" s="3">
         <v>53800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4100</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3246900</v>
+        <v>3507900</v>
       </c>
       <c r="E46" s="3">
-        <v>2556300</v>
+        <v>3350000</v>
       </c>
       <c r="F46" s="3">
-        <v>2277100</v>
+        <v>2637400</v>
       </c>
       <c r="G46" s="3">
-        <v>1829300</v>
+        <v>2349400</v>
       </c>
       <c r="H46" s="3">
-        <v>1428000</v>
+        <v>1887400</v>
       </c>
       <c r="I46" s="3">
-        <v>1034600</v>
+        <v>1473300</v>
       </c>
       <c r="J46" s="3">
+        <v>1067500</v>
+      </c>
+      <c r="K46" s="3">
         <v>799400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>570000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>288900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>112800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>65700</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>12700</v>
+      </c>
+      <c r="G47" s="3">
         <v>10900</v>
       </c>
-      <c r="E47" s="3">
-        <v>12300</v>
-      </c>
-      <c r="F47" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G47" s="3">
-        <v>10200</v>
-      </c>
       <c r="H47" s="3">
-        <v>22100</v>
+        <v>10500</v>
       </c>
       <c r="I47" s="3">
-        <v>18800</v>
+        <v>22800</v>
       </c>
       <c r="J47" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K47" s="3">
         <v>17300</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>17</v>
@@ -2090,87 +2194,96 @@
       <c r="N47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>71700</v>
+        <v>36700</v>
       </c>
       <c r="E48" s="3">
-        <v>86200</v>
+        <v>128700</v>
       </c>
       <c r="F48" s="3">
-        <v>50500</v>
+        <v>89000</v>
       </c>
       <c r="G48" s="3">
-        <v>23700</v>
+        <v>52100</v>
       </c>
       <c r="H48" s="3">
-        <v>18100</v>
+        <v>24400</v>
       </c>
       <c r="I48" s="3">
-        <v>37500</v>
+        <v>18700</v>
       </c>
       <c r="J48" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K48" s="3">
         <v>14400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>616500</v>
+        <v>606100</v>
       </c>
       <c r="E49" s="3">
-        <v>628000</v>
+        <v>1253500</v>
       </c>
       <c r="F49" s="3">
-        <v>213300</v>
+        <v>648000</v>
       </c>
       <c r="G49" s="3">
-        <v>214900</v>
+        <v>220000</v>
       </c>
       <c r="H49" s="3">
-        <v>216500</v>
+        <v>221700</v>
       </c>
       <c r="I49" s="3">
-        <v>427100</v>
+        <v>223400</v>
       </c>
       <c r="J49" s="3">
+        <v>440600</v>
+      </c>
+      <c r="K49" s="3">
         <v>214100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>241700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>235700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>222900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>227400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25200</v>
+        <v>55500</v>
       </c>
       <c r="E52" s="3">
-        <v>20500</v>
+        <v>45200</v>
       </c>
       <c r="F52" s="3">
-        <v>115000</v>
+        <v>21100</v>
       </c>
       <c r="G52" s="3">
-        <v>115300</v>
+        <v>118700</v>
       </c>
       <c r="H52" s="3">
-        <v>26700</v>
+        <v>118900</v>
       </c>
       <c r="I52" s="3">
-        <v>21800</v>
+        <v>27600</v>
       </c>
       <c r="J52" s="3">
-        <v>3000</v>
+        <v>22500</v>
       </c>
       <c r="K52" s="3">
         <v>3000</v>
       </c>
       <c r="L52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M52" s="3">
         <v>900</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3971200</v>
+        <v>4267800</v>
       </c>
       <c r="E54" s="3">
-        <v>3303300</v>
+        <v>4078700</v>
       </c>
       <c r="F54" s="3">
-        <v>2666500</v>
+        <v>3408200</v>
       </c>
       <c r="G54" s="3">
-        <v>2193300</v>
+        <v>2751200</v>
       </c>
       <c r="H54" s="3">
-        <v>1711500</v>
+        <v>2262900</v>
       </c>
       <c r="I54" s="3">
-        <v>1307400</v>
+        <v>1765800</v>
       </c>
       <c r="J54" s="3">
+        <v>1348900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1048200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>826400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>534400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>341400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>297100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,47 +2527,51 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4400</v>
+        <v>3900</v>
       </c>
       <c r="E57" s="3">
-        <v>11100</v>
+        <v>4600</v>
       </c>
       <c r="F57" s="3">
-        <v>5100</v>
+        <v>11500</v>
       </c>
       <c r="G57" s="3">
-        <v>2800</v>
+        <v>5200</v>
       </c>
       <c r="H57" s="3">
-        <v>1400</v>
+        <v>2900</v>
       </c>
       <c r="I57" s="3">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="J57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2454,108 +2587,117 @@
       <c r="G58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I58" s="3">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K58" s="3">
         <v>24400</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>550400</v>
+        <v>579000</v>
       </c>
       <c r="E59" s="3">
-        <v>571500</v>
+        <v>861600</v>
       </c>
       <c r="F59" s="3">
-        <v>547000</v>
+        <v>589700</v>
       </c>
       <c r="G59" s="3">
-        <v>577000</v>
+        <v>564400</v>
       </c>
       <c r="H59" s="3">
-        <v>540000</v>
+        <v>595300</v>
       </c>
       <c r="I59" s="3">
-        <v>507800</v>
+        <v>557100</v>
       </c>
       <c r="J59" s="3">
+        <v>523900</v>
+      </c>
+      <c r="K59" s="3">
         <v>272600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>169200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>119700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>29000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>554900</v>
+        <v>582900</v>
       </c>
       <c r="E60" s="3">
-        <v>582600</v>
+        <v>572500</v>
       </c>
       <c r="F60" s="3">
-        <v>552100</v>
+        <v>601100</v>
       </c>
       <c r="G60" s="3">
-        <v>579700</v>
+        <v>569600</v>
       </c>
       <c r="H60" s="3">
-        <v>541400</v>
+        <v>598100</v>
       </c>
       <c r="I60" s="3">
-        <v>354100</v>
+        <v>558600</v>
       </c>
       <c r="J60" s="3">
+        <v>365400</v>
+      </c>
+      <c r="K60" s="3">
         <v>300200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>169200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>120100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>48300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29600</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2592,48 +2734,54 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>84300</v>
+        <v>81700</v>
       </c>
       <c r="E62" s="3">
-        <v>102500</v>
+        <v>91100</v>
       </c>
       <c r="F62" s="3">
-        <v>81300</v>
+        <v>105800</v>
       </c>
       <c r="G62" s="3">
-        <v>66800</v>
+        <v>83900</v>
       </c>
       <c r="H62" s="3">
-        <v>65500</v>
+        <v>68900</v>
       </c>
       <c r="I62" s="3">
-        <v>69200</v>
+        <v>67600</v>
       </c>
       <c r="J62" s="3">
+        <v>71300</v>
+      </c>
+      <c r="K62" s="3">
         <v>72700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>83400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>77700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>69600</v>
       </c>
       <c r="N62" s="3">
         <v>69600</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>69600</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>803800</v>
+        <v>836900</v>
       </c>
       <c r="E66" s="3">
-        <v>849800</v>
+        <v>829300</v>
       </c>
       <c r="F66" s="3">
-        <v>630100</v>
+        <v>876800</v>
       </c>
       <c r="G66" s="3">
-        <v>643200</v>
+        <v>650100</v>
       </c>
       <c r="H66" s="3">
-        <v>604600</v>
+        <v>663700</v>
       </c>
       <c r="I66" s="3">
-        <v>422000</v>
+        <v>623800</v>
       </c>
       <c r="J66" s="3">
+        <v>435400</v>
+      </c>
+      <c r="K66" s="3">
         <v>372900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>252500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>197800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>117900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>99300</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>2079800</v>
+      <c r="D72" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E72" s="3">
-        <v>1874400</v>
+        <v>2145800</v>
       </c>
       <c r="F72" s="3">
-        <v>1489200</v>
+        <v>1933900</v>
       </c>
       <c r="G72" s="3">
-        <v>1043800</v>
+        <v>1536500</v>
       </c>
       <c r="H72" s="3">
-        <v>644100</v>
+        <v>1076900</v>
       </c>
       <c r="I72" s="3">
-        <v>448400</v>
+        <v>664600</v>
       </c>
       <c r="J72" s="3">
+        <v>462700</v>
+      </c>
+      <c r="K72" s="3">
         <v>277500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>157000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>60600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>37000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3167400</v>
+        <v>3430900</v>
       </c>
       <c r="E76" s="3">
-        <v>2453500</v>
+        <v>3249400</v>
       </c>
       <c r="F76" s="3">
-        <v>2036400</v>
+        <v>2531400</v>
       </c>
       <c r="G76" s="3">
-        <v>1550000</v>
+        <v>2101000</v>
       </c>
       <c r="H76" s="3">
-        <v>1106900</v>
+        <v>1599200</v>
       </c>
       <c r="I76" s="3">
-        <v>885400</v>
+        <v>1142000</v>
       </c>
       <c r="J76" s="3">
+        <v>913500</v>
+      </c>
+      <c r="K76" s="3">
         <v>675300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>573900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>336500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>223500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>197800</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>299100</v>
+        <v>259500</v>
       </c>
       <c r="E81" s="3">
-        <v>474000</v>
+        <v>308600</v>
       </c>
       <c r="F81" s="3">
-        <v>445400</v>
+        <v>489100</v>
       </c>
       <c r="G81" s="3">
-        <v>399600</v>
+        <v>459600</v>
       </c>
       <c r="H81" s="3">
-        <v>278600</v>
+        <v>412300</v>
       </c>
       <c r="I81" s="3">
-        <v>170900</v>
+        <v>287500</v>
       </c>
       <c r="J81" s="3">
+        <v>176400</v>
+      </c>
+      <c r="K81" s="3">
         <v>137900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>117200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>69400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19100</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>43000</v>
+      <c r="D83" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E83" s="3">
-        <v>23700</v>
+        <v>44400</v>
       </c>
       <c r="F83" s="3">
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="G83" s="3">
-        <v>14200</v>
+        <v>17000</v>
       </c>
       <c r="H83" s="3">
-        <v>12400</v>
+        <v>14600</v>
       </c>
       <c r="I83" s="3">
-        <v>9700</v>
+        <v>12800</v>
       </c>
       <c r="J83" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K83" s="3">
         <v>7900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5200</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>490500</v>
+        <v>368400</v>
       </c>
       <c r="E89" s="3">
-        <v>462900</v>
+        <v>506100</v>
       </c>
       <c r="F89" s="3">
-        <v>402200</v>
+        <v>477600</v>
       </c>
       <c r="G89" s="3">
-        <v>433100</v>
+        <v>415000</v>
       </c>
       <c r="H89" s="3">
-        <v>342900</v>
+        <v>446900</v>
       </c>
       <c r="I89" s="3">
-        <v>219100</v>
+        <v>353800</v>
       </c>
       <c r="J89" s="3">
+        <v>226100</v>
+      </c>
+      <c r="K89" s="3">
         <v>203500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>160300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>90300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>40100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-30500</v>
+      <c r="D91" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E91" s="3">
-        <v>-36700</v>
+        <v>-31400</v>
       </c>
       <c r="F91" s="3">
-        <v>-28400</v>
+        <v>-37900</v>
       </c>
       <c r="G91" s="3">
-        <v>-15800</v>
+        <v>-29300</v>
       </c>
       <c r="H91" s="3">
-        <v>-12000</v>
+        <v>-16300</v>
       </c>
       <c r="I91" s="3">
         <v>-12400</v>
       </c>
       <c r="J91" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-12400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-6700</v>
       </c>
       <c r="L91" s="3">
         <v>-6700</v>
       </c>
       <c r="M91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4600</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-530800</v>
+      <c r="D94" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E94" s="3">
-        <v>-415600</v>
+        <v>-547600</v>
       </c>
       <c r="F94" s="3">
-        <v>-162600</v>
+        <v>-428800</v>
       </c>
       <c r="G94" s="3">
-        <v>-459500</v>
+        <v>-167800</v>
       </c>
       <c r="H94" s="3">
-        <v>-684000</v>
+        <v>-474100</v>
       </c>
       <c r="I94" s="3">
-        <v>-71700</v>
+        <v>-705700</v>
       </c>
       <c r="J94" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-56700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-275500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1800</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,25 +3990,26 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-93700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-90600</v>
+        <v>-96700</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-93500</v>
       </c>
       <c r="G96" s="3">
-        <v>-82900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-85600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3788,17 +4021,20 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-33600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-6400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>403400</v>
+      <c r="D100" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E100" s="3">
-        <v>-76100</v>
+        <v>416300</v>
       </c>
       <c r="F100" s="3">
-        <v>9600</v>
+        <v>-78600</v>
       </c>
       <c r="G100" s="3">
-        <v>-75700</v>
+        <v>9900</v>
       </c>
       <c r="H100" s="3">
-        <v>8500</v>
+        <v>-78100</v>
       </c>
       <c r="I100" s="3">
-        <v>3900</v>
+        <v>8800</v>
       </c>
       <c r="J100" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K100" s="3">
         <v>4200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>101400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>25800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13700</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-6500</v>
+      <c r="D101" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E101" s="3">
-        <v>-2400</v>
+        <v>-6700</v>
       </c>
       <c r="F101" s="3">
-        <v>-1800</v>
+        <v>-2500</v>
       </c>
       <c r="G101" s="3">
-        <v>5400</v>
+        <v>-1900</v>
       </c>
       <c r="H101" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>356700</v>
+      <c r="D102" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E102" s="3">
-        <v>-31200</v>
+        <v>368000</v>
       </c>
       <c r="F102" s="3">
-        <v>247300</v>
+        <v>-32200</v>
       </c>
       <c r="G102" s="3">
-        <v>-96700</v>
+        <v>255100</v>
       </c>
       <c r="H102" s="3">
-        <v>-332900</v>
+        <v>-99800</v>
       </c>
       <c r="I102" s="3">
-        <v>151700</v>
+        <v>-343500</v>
       </c>
       <c r="J102" s="3">
+        <v>156500</v>
+      </c>
+      <c r="K102" s="3">
         <v>152900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>109200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>29700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>ATHM</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>996800</v>
+        <v>986600</v>
       </c>
       <c r="E8" s="3">
-        <v>1039400</v>
+        <v>1028700</v>
       </c>
       <c r="F8" s="3">
-        <v>1243500</v>
+        <v>1230800</v>
       </c>
       <c r="G8" s="3">
-        <v>1209400</v>
+        <v>1197000</v>
       </c>
       <c r="H8" s="3">
-        <v>1038800</v>
+        <v>1028200</v>
       </c>
       <c r="I8" s="3">
-        <v>891900</v>
+        <v>882800</v>
       </c>
       <c r="J8" s="3">
-        <v>856200</v>
+        <v>847400</v>
       </c>
       <c r="K8" s="3">
         <v>482200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>177400</v>
+        <v>161700</v>
       </c>
       <c r="E9" s="3">
-        <v>144900</v>
+        <v>143400</v>
       </c>
       <c r="F9" s="3">
-        <v>124100</v>
+        <v>122800</v>
       </c>
       <c r="G9" s="3">
-        <v>110600</v>
+        <v>109500</v>
       </c>
       <c r="H9" s="3">
-        <v>84500</v>
+        <v>83600</v>
       </c>
       <c r="I9" s="3">
-        <v>125500</v>
+        <v>124200</v>
       </c>
       <c r="J9" s="3">
-        <v>293500</v>
+        <v>290500</v>
       </c>
       <c r="K9" s="3">
         <v>52900</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>819400</v>
+        <v>824900</v>
       </c>
       <c r="E10" s="3">
-        <v>894500</v>
+        <v>885400</v>
       </c>
       <c r="F10" s="3">
-        <v>1119400</v>
+        <v>1108000</v>
       </c>
       <c r="G10" s="3">
-        <v>1098700</v>
+        <v>1087500</v>
       </c>
       <c r="H10" s="3">
-        <v>954300</v>
+        <v>944600</v>
       </c>
       <c r="I10" s="3">
-        <v>766400</v>
+        <v>758600</v>
       </c>
       <c r="J10" s="3">
-        <v>562700</v>
+        <v>556900</v>
       </c>
       <c r="K10" s="3">
         <v>429300</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>203500</v>
+        <v>201400</v>
       </c>
       <c r="E12" s="3">
-        <v>200800</v>
+        <v>198700</v>
       </c>
       <c r="F12" s="3">
-        <v>195900</v>
+        <v>193900</v>
       </c>
       <c r="G12" s="3">
-        <v>185400</v>
+        <v>183500</v>
       </c>
       <c r="H12" s="3">
-        <v>163000</v>
+        <v>161400</v>
       </c>
       <c r="I12" s="3">
-        <v>126200</v>
+        <v>124900</v>
       </c>
       <c r="J12" s="3">
-        <v>82100</v>
+        <v>81200</v>
       </c>
       <c r="K12" s="3">
         <v>38100</v>
@@ -953,11 +953,11 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
+      <c r="D14" s="3">
+        <v>-8000</v>
       </c>
       <c r="E14" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>864700</v>
+        <v>847800</v>
       </c>
       <c r="E17" s="3">
-        <v>818300</v>
+        <v>810000</v>
       </c>
       <c r="F17" s="3">
-        <v>855100</v>
+        <v>846300</v>
       </c>
       <c r="G17" s="3">
-        <v>813300</v>
+        <v>804900</v>
       </c>
       <c r="H17" s="3">
-        <v>675800</v>
+        <v>668900</v>
       </c>
       <c r="I17" s="3">
-        <v>598500</v>
+        <v>592300</v>
       </c>
       <c r="J17" s="3">
-        <v>690600</v>
+        <v>683500</v>
       </c>
       <c r="K17" s="3">
         <v>315200</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>132100</v>
+        <v>138800</v>
       </c>
       <c r="E18" s="3">
-        <v>221000</v>
+        <v>218800</v>
       </c>
       <c r="F18" s="3">
-        <v>388500</v>
+        <v>384500</v>
       </c>
       <c r="G18" s="3">
-        <v>396100</v>
+        <v>392100</v>
       </c>
       <c r="H18" s="3">
-        <v>363000</v>
+        <v>359300</v>
       </c>
       <c r="I18" s="3">
-        <v>293500</v>
+        <v>290400</v>
       </c>
       <c r="J18" s="3">
-        <v>165600</v>
+        <v>164000</v>
       </c>
       <c r="K18" s="3">
         <v>167000</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>121000</v>
+        <v>111800</v>
       </c>
       <c r="E20" s="3">
-        <v>91600</v>
+        <v>90700</v>
       </c>
       <c r="F20" s="3">
-        <v>138400</v>
+        <v>137000</v>
       </c>
       <c r="G20" s="3">
-        <v>135400</v>
+        <v>134000</v>
       </c>
       <c r="H20" s="3">
-        <v>102500</v>
+        <v>101500</v>
       </c>
       <c r="I20" s="3">
-        <v>31400</v>
+        <v>31000</v>
       </c>
       <c r="J20" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="K20" s="3">
         <v>10600</v>
@@ -1196,26 +1196,26 @@
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>17</v>
+      <c r="D21" s="3">
+        <v>294200</v>
       </c>
       <c r="E21" s="3">
-        <v>357100</v>
+        <v>353600</v>
       </c>
       <c r="F21" s="3">
-        <v>551400</v>
+        <v>545800</v>
       </c>
       <c r="G21" s="3">
-        <v>548600</v>
+        <v>543000</v>
       </c>
       <c r="H21" s="3">
-        <v>480200</v>
+        <v>475300</v>
       </c>
       <c r="I21" s="3">
-        <v>337600</v>
+        <v>334200</v>
       </c>
       <c r="J21" s="3">
-        <v>189400</v>
+        <v>187500</v>
       </c>
       <c r="K21" s="3">
         <v>185500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>253200</v>
+        <v>250600</v>
       </c>
       <c r="E23" s="3">
-        <v>312700</v>
+        <v>309500</v>
       </c>
       <c r="F23" s="3">
-        <v>526900</v>
+        <v>521500</v>
       </c>
       <c r="G23" s="3">
-        <v>531500</v>
+        <v>526100</v>
       </c>
       <c r="H23" s="3">
-        <v>465500</v>
+        <v>460800</v>
       </c>
       <c r="I23" s="3">
-        <v>324800</v>
+        <v>321500</v>
       </c>
       <c r="J23" s="3">
-        <v>179400</v>
+        <v>177500</v>
       </c>
       <c r="K23" s="3">
         <v>177600</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="E24" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="F24" s="3">
-        <v>37500</v>
+        <v>37100</v>
       </c>
       <c r="G24" s="3">
-        <v>71900</v>
+        <v>71100</v>
       </c>
       <c r="H24" s="3">
-        <v>54300</v>
+        <v>53700</v>
       </c>
       <c r="I24" s="3">
-        <v>38400</v>
+        <v>38000</v>
       </c>
       <c r="J24" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="K24" s="3">
         <v>39700</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>262100</v>
+        <v>259400</v>
       </c>
       <c r="E26" s="3">
-        <v>307800</v>
+        <v>304600</v>
       </c>
       <c r="F26" s="3">
-        <v>489400</v>
+        <v>484400</v>
       </c>
       <c r="G26" s="3">
-        <v>459700</v>
+        <v>455000</v>
       </c>
       <c r="H26" s="3">
-        <v>411300</v>
+        <v>407100</v>
       </c>
       <c r="I26" s="3">
-        <v>286400</v>
+        <v>283500</v>
       </c>
       <c r="J26" s="3">
-        <v>174700</v>
+        <v>172900</v>
       </c>
       <c r="K26" s="3">
         <v>137900</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>259500</v>
+        <v>256900</v>
       </c>
       <c r="E27" s="3">
-        <v>308600</v>
+        <v>305400</v>
       </c>
       <c r="F27" s="3">
-        <v>489100</v>
+        <v>484100</v>
       </c>
       <c r="G27" s="3">
-        <v>459600</v>
+        <v>454900</v>
       </c>
       <c r="H27" s="3">
-        <v>412300</v>
+        <v>408100</v>
       </c>
       <c r="I27" s="3">
-        <v>287500</v>
+        <v>284500</v>
       </c>
       <c r="J27" s="3">
-        <v>176400</v>
+        <v>174500</v>
       </c>
       <c r="K27" s="3">
         <v>137900</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-121000</v>
+        <v>-111800</v>
       </c>
       <c r="E32" s="3">
-        <v>-91600</v>
+        <v>-90700</v>
       </c>
       <c r="F32" s="3">
-        <v>-138400</v>
+        <v>-137000</v>
       </c>
       <c r="G32" s="3">
-        <v>-135400</v>
+        <v>-134000</v>
       </c>
       <c r="H32" s="3">
-        <v>-102500</v>
+        <v>-101500</v>
       </c>
       <c r="I32" s="3">
-        <v>-31400</v>
+        <v>-31000</v>
       </c>
       <c r="J32" s="3">
-        <v>-13700</v>
+        <v>-13600</v>
       </c>
       <c r="K32" s="3">
         <v>-10600</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>259500</v>
+        <v>256900</v>
       </c>
       <c r="E33" s="3">
-        <v>308600</v>
+        <v>305400</v>
       </c>
       <c r="F33" s="3">
-        <v>489100</v>
+        <v>484100</v>
       </c>
       <c r="G33" s="3">
-        <v>459600</v>
+        <v>454900</v>
       </c>
       <c r="H33" s="3">
-        <v>412300</v>
+        <v>408100</v>
       </c>
       <c r="I33" s="3">
-        <v>287500</v>
+        <v>284500</v>
       </c>
       <c r="J33" s="3">
-        <v>176400</v>
+        <v>174500</v>
       </c>
       <c r="K33" s="3">
         <v>137900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>259500</v>
+        <v>256900</v>
       </c>
       <c r="E35" s="3">
-        <v>308600</v>
+        <v>305400</v>
       </c>
       <c r="F35" s="3">
-        <v>489100</v>
+        <v>484100</v>
       </c>
       <c r="G35" s="3">
-        <v>459600</v>
+        <v>454900</v>
       </c>
       <c r="H35" s="3">
-        <v>412300</v>
+        <v>408100</v>
       </c>
       <c r="I35" s="3">
-        <v>287500</v>
+        <v>284500</v>
       </c>
       <c r="J35" s="3">
-        <v>176400</v>
+        <v>174500</v>
       </c>
       <c r="K35" s="3">
         <v>137900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>402300</v>
+        <v>398200</v>
       </c>
       <c r="E41" s="3">
-        <v>608400</v>
+        <v>602200</v>
       </c>
       <c r="F41" s="3">
-        <v>251500</v>
+        <v>248900</v>
       </c>
       <c r="G41" s="3">
-        <v>285600</v>
+        <v>282600</v>
       </c>
       <c r="H41" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="I41" s="3">
-        <v>130900</v>
+        <v>129600</v>
       </c>
       <c r="J41" s="3">
-        <v>473100</v>
+        <v>468200</v>
       </c>
       <c r="K41" s="3">
         <v>299600</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2768900</v>
+        <v>2743500</v>
       </c>
       <c r="E42" s="3">
-        <v>2372100</v>
+        <v>2347800</v>
       </c>
       <c r="F42" s="3">
-        <v>1851100</v>
+        <v>1832200</v>
       </c>
       <c r="G42" s="3">
-        <v>1554900</v>
+        <v>1538900</v>
       </c>
       <c r="H42" s="3">
-        <v>1415500</v>
+        <v>1401000</v>
       </c>
       <c r="I42" s="3">
-        <v>1041900</v>
+        <v>1031200</v>
       </c>
       <c r="J42" s="3">
-        <v>349200</v>
+        <v>345600</v>
       </c>
       <c r="K42" s="3">
         <v>273600</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>284000</v>
+        <v>286900</v>
       </c>
       <c r="E43" s="3">
-        <v>632600</v>
+        <v>322000</v>
       </c>
       <c r="F43" s="3">
-        <v>455500</v>
+        <v>450800</v>
       </c>
       <c r="G43" s="3">
-        <v>468300</v>
+        <v>463500</v>
       </c>
       <c r="H43" s="3">
-        <v>406400</v>
+        <v>402300</v>
       </c>
       <c r="I43" s="3">
-        <v>275500</v>
+        <v>272700</v>
       </c>
       <c r="J43" s="3">
-        <v>356600</v>
+        <v>353000</v>
       </c>
       <c r="K43" s="3">
         <v>156800</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="K44" s="3">
         <v>15500</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52700</v>
+        <v>43400</v>
       </c>
       <c r="E45" s="3">
-        <v>84400</v>
+        <v>43700</v>
       </c>
       <c r="F45" s="3">
-        <v>79300</v>
+        <v>78500</v>
       </c>
       <c r="G45" s="3">
-        <v>40600</v>
+        <v>40200</v>
       </c>
       <c r="H45" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="I45" s="3">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="J45" s="3">
-        <v>116400</v>
+        <v>115200</v>
       </c>
       <c r="K45" s="3">
         <v>53800</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3507900</v>
+        <v>3472000</v>
       </c>
       <c r="E46" s="3">
-        <v>3350000</v>
+        <v>3315800</v>
       </c>
       <c r="F46" s="3">
-        <v>2637400</v>
+        <v>2610500</v>
       </c>
       <c r="G46" s="3">
-        <v>2349400</v>
+        <v>2325300</v>
       </c>
       <c r="H46" s="3">
-        <v>1887400</v>
+        <v>1868000</v>
       </c>
       <c r="I46" s="3">
-        <v>1473300</v>
+        <v>1458300</v>
       </c>
       <c r="J46" s="3">
-        <v>1067500</v>
+        <v>1056500</v>
       </c>
       <c r="K46" s="3">
         <v>799400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>61600</v>
+        <v>60900</v>
       </c>
       <c r="E47" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="F47" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="G47" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="H47" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="I47" s="3">
-        <v>22800</v>
+        <v>22600</v>
       </c>
       <c r="J47" s="3">
-        <v>19400</v>
+        <v>19200</v>
       </c>
       <c r="K47" s="3">
         <v>17300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>36700</v>
+        <v>52700</v>
       </c>
       <c r="E48" s="3">
-        <v>128700</v>
+        <v>73200</v>
       </c>
       <c r="F48" s="3">
-        <v>89000</v>
+        <v>88100</v>
       </c>
       <c r="G48" s="3">
-        <v>52100</v>
+        <v>51600</v>
       </c>
       <c r="H48" s="3">
-        <v>24400</v>
+        <v>24200</v>
       </c>
       <c r="I48" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="J48" s="3">
-        <v>38700</v>
+        <v>38300</v>
       </c>
       <c r="K48" s="3">
         <v>14400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>606100</v>
+        <v>599900</v>
       </c>
       <c r="E49" s="3">
-        <v>1253500</v>
+        <v>611100</v>
       </c>
       <c r="F49" s="3">
-        <v>648000</v>
+        <v>641400</v>
       </c>
       <c r="G49" s="3">
-        <v>220000</v>
+        <v>217800</v>
       </c>
       <c r="H49" s="3">
-        <v>221700</v>
+        <v>219400</v>
       </c>
       <c r="I49" s="3">
-        <v>223400</v>
+        <v>221100</v>
       </c>
       <c r="J49" s="3">
-        <v>440600</v>
+        <v>436100</v>
       </c>
       <c r="K49" s="3">
         <v>214100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>55500</v>
+        <v>38600</v>
       </c>
       <c r="E52" s="3">
-        <v>45200</v>
+        <v>25800</v>
       </c>
       <c r="F52" s="3">
-        <v>21100</v>
+        <v>20900</v>
       </c>
       <c r="G52" s="3">
-        <v>118700</v>
+        <v>117500</v>
       </c>
       <c r="H52" s="3">
-        <v>118900</v>
+        <v>117700</v>
       </c>
       <c r="I52" s="3">
-        <v>27600</v>
+        <v>27300</v>
       </c>
       <c r="J52" s="3">
-        <v>22500</v>
+        <v>22200</v>
       </c>
       <c r="K52" s="3">
         <v>3000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4267800</v>
+        <v>4224100</v>
       </c>
       <c r="E54" s="3">
-        <v>4078700</v>
+        <v>4037000</v>
       </c>
       <c r="F54" s="3">
-        <v>3408200</v>
+        <v>3373300</v>
       </c>
       <c r="G54" s="3">
-        <v>2751200</v>
+        <v>2723000</v>
       </c>
       <c r="H54" s="3">
-        <v>2262900</v>
+        <v>2239700</v>
       </c>
       <c r="I54" s="3">
-        <v>1765800</v>
+        <v>1747700</v>
       </c>
       <c r="J54" s="3">
-        <v>1348900</v>
+        <v>1335100</v>
       </c>
       <c r="K54" s="3">
         <v>1048200</v>
@@ -2537,16 +2537,16 @@
         <v>3900</v>
       </c>
       <c r="E57" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="F57" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="G57" s="3">
         <v>5200</v>
       </c>
       <c r="H57" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I57" s="3">
         <v>1500</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K58" s="3">
         <v>24400</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>579000</v>
+        <v>573100</v>
       </c>
       <c r="E59" s="3">
-        <v>861600</v>
+        <v>562100</v>
       </c>
       <c r="F59" s="3">
-        <v>589700</v>
+        <v>583600</v>
       </c>
       <c r="G59" s="3">
-        <v>564400</v>
+        <v>558600</v>
       </c>
       <c r="H59" s="3">
-        <v>595300</v>
+        <v>589200</v>
       </c>
       <c r="I59" s="3">
-        <v>557100</v>
+        <v>551400</v>
       </c>
       <c r="J59" s="3">
-        <v>523900</v>
+        <v>518500</v>
       </c>
       <c r="K59" s="3">
         <v>272600</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>582900</v>
+        <v>576900</v>
       </c>
       <c r="E60" s="3">
-        <v>572500</v>
+        <v>566600</v>
       </c>
       <c r="F60" s="3">
-        <v>601100</v>
+        <v>595000</v>
       </c>
       <c r="G60" s="3">
-        <v>569600</v>
+        <v>563800</v>
       </c>
       <c r="H60" s="3">
-        <v>598100</v>
+        <v>592000</v>
       </c>
       <c r="I60" s="3">
-        <v>558600</v>
+        <v>552900</v>
       </c>
       <c r="J60" s="3">
-        <v>365400</v>
+        <v>361600</v>
       </c>
       <c r="K60" s="3">
         <v>300200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>81700</v>
+        <v>80800</v>
       </c>
       <c r="E62" s="3">
-        <v>91100</v>
+        <v>86100</v>
       </c>
       <c r="F62" s="3">
-        <v>105800</v>
+        <v>104700</v>
       </c>
       <c r="G62" s="3">
-        <v>83900</v>
+        <v>83000</v>
       </c>
       <c r="H62" s="3">
-        <v>68900</v>
+        <v>68200</v>
       </c>
       <c r="I62" s="3">
-        <v>67600</v>
+        <v>66900</v>
       </c>
       <c r="J62" s="3">
-        <v>71300</v>
+        <v>70600</v>
       </c>
       <c r="K62" s="3">
         <v>72700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>836900</v>
+        <v>828300</v>
       </c>
       <c r="E66" s="3">
-        <v>829300</v>
+        <v>820900</v>
       </c>
       <c r="F66" s="3">
-        <v>876800</v>
+        <v>867800</v>
       </c>
       <c r="G66" s="3">
-        <v>650100</v>
+        <v>643500</v>
       </c>
       <c r="H66" s="3">
-        <v>663700</v>
+        <v>656900</v>
       </c>
       <c r="I66" s="3">
-        <v>623800</v>
+        <v>617400</v>
       </c>
       <c r="J66" s="3">
-        <v>435400</v>
+        <v>430900</v>
       </c>
       <c r="K66" s="3">
         <v>372900</v>
@@ -3139,26 +3139,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>17</v>
+      <c r="D72" s="3">
+        <v>2302400</v>
       </c>
       <c r="E72" s="3">
-        <v>2145800</v>
+        <v>2105400</v>
       </c>
       <c r="F72" s="3">
-        <v>1933900</v>
+        <v>1914100</v>
       </c>
       <c r="G72" s="3">
-        <v>1536500</v>
+        <v>1520800</v>
       </c>
       <c r="H72" s="3">
-        <v>1076900</v>
+        <v>1065900</v>
       </c>
       <c r="I72" s="3">
-        <v>664600</v>
+        <v>657800</v>
       </c>
       <c r="J72" s="3">
-        <v>462700</v>
+        <v>457900</v>
       </c>
       <c r="K72" s="3">
         <v>277500</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3430900</v>
+        <v>3395800</v>
       </c>
       <c r="E76" s="3">
-        <v>3249400</v>
+        <v>3216100</v>
       </c>
       <c r="F76" s="3">
-        <v>2531400</v>
+        <v>2505500</v>
       </c>
       <c r="G76" s="3">
-        <v>2101000</v>
+        <v>2079500</v>
       </c>
       <c r="H76" s="3">
-        <v>1599200</v>
+        <v>1582900</v>
       </c>
       <c r="I76" s="3">
-        <v>1142000</v>
+        <v>1130300</v>
       </c>
       <c r="J76" s="3">
-        <v>913500</v>
+        <v>904100</v>
       </c>
       <c r="K76" s="3">
         <v>675300</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>259500</v>
+        <v>256900</v>
       </c>
       <c r="E81" s="3">
-        <v>308600</v>
+        <v>305400</v>
       </c>
       <c r="F81" s="3">
-        <v>489100</v>
+        <v>484100</v>
       </c>
       <c r="G81" s="3">
-        <v>459600</v>
+        <v>454900</v>
       </c>
       <c r="H81" s="3">
-        <v>412300</v>
+        <v>408100</v>
       </c>
       <c r="I81" s="3">
-        <v>287500</v>
+        <v>284500</v>
       </c>
       <c r="J81" s="3">
-        <v>176400</v>
+        <v>174500</v>
       </c>
       <c r="K81" s="3">
         <v>137900</v>
@@ -3498,26 +3498,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>17</v>
+      <c r="D83" s="3">
+        <v>43400</v>
       </c>
       <c r="E83" s="3">
-        <v>44400</v>
+        <v>43900</v>
       </c>
       <c r="F83" s="3">
-        <v>24500</v>
+        <v>24200</v>
       </c>
       <c r="G83" s="3">
-        <v>17000</v>
+        <v>16900</v>
       </c>
       <c r="H83" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="I83" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="J83" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="K83" s="3">
         <v>7900</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>368400</v>
+        <v>364600</v>
       </c>
       <c r="E89" s="3">
-        <v>506100</v>
+        <v>500900</v>
       </c>
       <c r="F89" s="3">
-        <v>477600</v>
+        <v>472700</v>
       </c>
       <c r="G89" s="3">
-        <v>415000</v>
+        <v>410700</v>
       </c>
       <c r="H89" s="3">
-        <v>446900</v>
+        <v>442300</v>
       </c>
       <c r="I89" s="3">
-        <v>353800</v>
+        <v>350200</v>
       </c>
       <c r="J89" s="3">
-        <v>226100</v>
+        <v>223800</v>
       </c>
       <c r="K89" s="3">
         <v>203500</v>
@@ -3810,26 +3810,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>17</v>
+      <c r="D91" s="3">
+        <v>-16600</v>
       </c>
       <c r="E91" s="3">
-        <v>-31400</v>
+        <v>-31100</v>
       </c>
       <c r="F91" s="3">
-        <v>-37900</v>
+        <v>-37500</v>
       </c>
       <c r="G91" s="3">
-        <v>-29300</v>
+        <v>-29000</v>
       </c>
       <c r="H91" s="3">
-        <v>-16300</v>
+        <v>-16200</v>
       </c>
       <c r="I91" s="3">
-        <v>-12400</v>
+        <v>-12300</v>
       </c>
       <c r="J91" s="3">
-        <v>-12800</v>
+        <v>-12600</v>
       </c>
       <c r="K91" s="3">
         <v>-12400</v>
@@ -3936,26 +3936,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>17</v>
+      <c r="D94" s="3">
+        <v>-442000</v>
       </c>
       <c r="E94" s="3">
-        <v>-547600</v>
+        <v>-542000</v>
       </c>
       <c r="F94" s="3">
-        <v>-428800</v>
+        <v>-424400</v>
       </c>
       <c r="G94" s="3">
-        <v>-167800</v>
+        <v>-166100</v>
       </c>
       <c r="H94" s="3">
-        <v>-474100</v>
+        <v>-469300</v>
       </c>
       <c r="I94" s="3">
-        <v>-705700</v>
+        <v>-698500</v>
       </c>
       <c r="J94" s="3">
-        <v>-74000</v>
+        <v>-73200</v>
       </c>
       <c r="K94" s="3">
         <v>-56700</v>
@@ -3997,19 +3997,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-59900</v>
       </c>
       <c r="E96" s="3">
-        <v>-96700</v>
+        <v>-95700</v>
       </c>
       <c r="F96" s="3">
-        <v>-93500</v>
+        <v>-92600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-85600</v>
+        <v>-84700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4164,23 +4164,23 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>17</v>
+      <c r="D100" s="3">
+        <v>-162100</v>
       </c>
       <c r="E100" s="3">
-        <v>416300</v>
+        <v>412000</v>
       </c>
       <c r="F100" s="3">
-        <v>-78600</v>
+        <v>-77800</v>
       </c>
       <c r="G100" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="H100" s="3">
-        <v>-78100</v>
+        <v>-77300</v>
       </c>
       <c r="I100" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="J100" s="3">
         <v>4000</v>
@@ -4206,8 +4206,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>17</v>
+      <c r="D101" s="3">
+        <v>23900</v>
       </c>
       <c r="E101" s="3">
         <v>-6700</v>
@@ -4248,26 +4248,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>17</v>
+      <c r="D102" s="3">
+        <v>-215500</v>
       </c>
       <c r="E102" s="3">
-        <v>368000</v>
+        <v>364200</v>
       </c>
       <c r="F102" s="3">
-        <v>-32200</v>
+        <v>-31900</v>
       </c>
       <c r="G102" s="3">
-        <v>255100</v>
+        <v>252500</v>
       </c>
       <c r="H102" s="3">
-        <v>-99800</v>
+        <v>-98700</v>
       </c>
       <c r="I102" s="3">
-        <v>-343500</v>
+        <v>-340000</v>
       </c>
       <c r="J102" s="3">
-        <v>156500</v>
+        <v>154900</v>
       </c>
       <c r="K102" s="3">
         <v>152900</v>

--- a/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>986600</v>
+        <v>956300</v>
       </c>
       <c r="E8" s="3">
-        <v>1028700</v>
+        <v>997100</v>
       </c>
       <c r="F8" s="3">
-        <v>1230800</v>
+        <v>1193000</v>
       </c>
       <c r="G8" s="3">
-        <v>1197000</v>
+        <v>1160200</v>
       </c>
       <c r="H8" s="3">
-        <v>1028200</v>
+        <v>996600</v>
       </c>
       <c r="I8" s="3">
-        <v>882800</v>
+        <v>855600</v>
       </c>
       <c r="J8" s="3">
-        <v>847400</v>
+        <v>821400</v>
       </c>
       <c r="K8" s="3">
         <v>482200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>161700</v>
+        <v>156800</v>
       </c>
       <c r="E9" s="3">
-        <v>143400</v>
+        <v>139000</v>
       </c>
       <c r="F9" s="3">
-        <v>122800</v>
+        <v>119100</v>
       </c>
       <c r="G9" s="3">
-        <v>109500</v>
+        <v>106100</v>
       </c>
       <c r="H9" s="3">
-        <v>83600</v>
+        <v>81100</v>
       </c>
       <c r="I9" s="3">
-        <v>124200</v>
+        <v>120400</v>
       </c>
       <c r="J9" s="3">
-        <v>290500</v>
+        <v>281600</v>
       </c>
       <c r="K9" s="3">
         <v>52900</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>824900</v>
+        <v>799500</v>
       </c>
       <c r="E10" s="3">
-        <v>885400</v>
+        <v>858100</v>
       </c>
       <c r="F10" s="3">
-        <v>1108000</v>
+        <v>1073900</v>
       </c>
       <c r="G10" s="3">
-        <v>1087500</v>
+        <v>1054100</v>
       </c>
       <c r="H10" s="3">
-        <v>944600</v>
+        <v>915500</v>
       </c>
       <c r="I10" s="3">
-        <v>758600</v>
+        <v>735200</v>
       </c>
       <c r="J10" s="3">
-        <v>556900</v>
+        <v>539800</v>
       </c>
       <c r="K10" s="3">
         <v>429300</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>201400</v>
+        <v>195200</v>
       </c>
       <c r="E12" s="3">
-        <v>198700</v>
+        <v>192600</v>
       </c>
       <c r="F12" s="3">
-        <v>193900</v>
+        <v>188000</v>
       </c>
       <c r="G12" s="3">
-        <v>183500</v>
+        <v>177900</v>
       </c>
       <c r="H12" s="3">
-        <v>161400</v>
+        <v>156400</v>
       </c>
       <c r="I12" s="3">
-        <v>124900</v>
+        <v>121100</v>
       </c>
       <c r="J12" s="3">
-        <v>81200</v>
+        <v>78700</v>
       </c>
       <c r="K12" s="3">
         <v>38100</v>
@@ -954,10 +954,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-8000</v>
+        <v>-7800</v>
       </c>
       <c r="E14" s="3">
-        <v>-7300</v>
+        <v>-7100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>847800</v>
+        <v>821800</v>
       </c>
       <c r="E17" s="3">
-        <v>810000</v>
+        <v>785100</v>
       </c>
       <c r="F17" s="3">
-        <v>846300</v>
+        <v>820300</v>
       </c>
       <c r="G17" s="3">
-        <v>804900</v>
+        <v>780200</v>
       </c>
       <c r="H17" s="3">
-        <v>668900</v>
+        <v>648300</v>
       </c>
       <c r="I17" s="3">
-        <v>592300</v>
+        <v>574100</v>
       </c>
       <c r="J17" s="3">
-        <v>683500</v>
+        <v>662500</v>
       </c>
       <c r="K17" s="3">
         <v>315200</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>138800</v>
+        <v>134500</v>
       </c>
       <c r="E18" s="3">
-        <v>218800</v>
+        <v>212100</v>
       </c>
       <c r="F18" s="3">
-        <v>384500</v>
+        <v>372700</v>
       </c>
       <c r="G18" s="3">
-        <v>392100</v>
+        <v>380000</v>
       </c>
       <c r="H18" s="3">
-        <v>359300</v>
+        <v>348200</v>
       </c>
       <c r="I18" s="3">
-        <v>290400</v>
+        <v>281500</v>
       </c>
       <c r="J18" s="3">
-        <v>164000</v>
+        <v>158900</v>
       </c>
       <c r="K18" s="3">
         <v>167000</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>111800</v>
+        <v>108400</v>
       </c>
       <c r="E20" s="3">
-        <v>90700</v>
+        <v>87900</v>
       </c>
       <c r="F20" s="3">
-        <v>137000</v>
+        <v>132800</v>
       </c>
       <c r="G20" s="3">
-        <v>134000</v>
+        <v>129900</v>
       </c>
       <c r="H20" s="3">
-        <v>101500</v>
+        <v>98400</v>
       </c>
       <c r="I20" s="3">
-        <v>31000</v>
+        <v>30100</v>
       </c>
       <c r="J20" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="K20" s="3">
         <v>10600</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>294200</v>
+        <v>284900</v>
       </c>
       <c r="E21" s="3">
-        <v>353600</v>
+        <v>342500</v>
       </c>
       <c r="F21" s="3">
-        <v>545800</v>
+        <v>528900</v>
       </c>
       <c r="G21" s="3">
-        <v>543000</v>
+        <v>526300</v>
       </c>
       <c r="H21" s="3">
-        <v>475300</v>
+        <v>460600</v>
       </c>
       <c r="I21" s="3">
-        <v>334200</v>
+        <v>323800</v>
       </c>
       <c r="J21" s="3">
-        <v>187500</v>
+        <v>181700</v>
       </c>
       <c r="K21" s="3">
         <v>185500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>250600</v>
+        <v>242900</v>
       </c>
       <c r="E23" s="3">
-        <v>309500</v>
+        <v>300000</v>
       </c>
       <c r="F23" s="3">
-        <v>521500</v>
+        <v>505400</v>
       </c>
       <c r="G23" s="3">
-        <v>526100</v>
+        <v>509900</v>
       </c>
       <c r="H23" s="3">
-        <v>460800</v>
+        <v>446600</v>
       </c>
       <c r="I23" s="3">
-        <v>321500</v>
+        <v>311600</v>
       </c>
       <c r="J23" s="3">
-        <v>177500</v>
+        <v>172100</v>
       </c>
       <c r="K23" s="3">
         <v>177600</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-8800</v>
+        <v>-8500</v>
       </c>
       <c r="E24" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="F24" s="3">
-        <v>37100</v>
+        <v>36000</v>
       </c>
       <c r="G24" s="3">
-        <v>71100</v>
+        <v>68900</v>
       </c>
       <c r="H24" s="3">
-        <v>53700</v>
+        <v>52100</v>
       </c>
       <c r="I24" s="3">
-        <v>38000</v>
+        <v>36800</v>
       </c>
       <c r="J24" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="K24" s="3">
         <v>39700</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>259400</v>
+        <v>251400</v>
       </c>
       <c r="E26" s="3">
-        <v>304600</v>
+        <v>295300</v>
       </c>
       <c r="F26" s="3">
-        <v>484400</v>
+        <v>469500</v>
       </c>
       <c r="G26" s="3">
-        <v>455000</v>
+        <v>441000</v>
       </c>
       <c r="H26" s="3">
-        <v>407100</v>
+        <v>394500</v>
       </c>
       <c r="I26" s="3">
-        <v>283500</v>
+        <v>274800</v>
       </c>
       <c r="J26" s="3">
-        <v>172900</v>
+        <v>167600</v>
       </c>
       <c r="K26" s="3">
         <v>137900</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>256900</v>
+        <v>249000</v>
       </c>
       <c r="E27" s="3">
-        <v>305400</v>
+        <v>296000</v>
       </c>
       <c r="F27" s="3">
-        <v>484100</v>
+        <v>469200</v>
       </c>
       <c r="G27" s="3">
-        <v>454900</v>
+        <v>440900</v>
       </c>
       <c r="H27" s="3">
-        <v>408100</v>
+        <v>395600</v>
       </c>
       <c r="I27" s="3">
-        <v>284500</v>
+        <v>275800</v>
       </c>
       <c r="J27" s="3">
-        <v>174500</v>
+        <v>169200</v>
       </c>
       <c r="K27" s="3">
         <v>137900</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-111800</v>
+        <v>-108400</v>
       </c>
       <c r="E32" s="3">
-        <v>-90700</v>
+        <v>-87900</v>
       </c>
       <c r="F32" s="3">
-        <v>-137000</v>
+        <v>-132800</v>
       </c>
       <c r="G32" s="3">
-        <v>-134000</v>
+        <v>-129900</v>
       </c>
       <c r="H32" s="3">
-        <v>-101500</v>
+        <v>-98400</v>
       </c>
       <c r="I32" s="3">
-        <v>-31000</v>
+        <v>-30100</v>
       </c>
       <c r="J32" s="3">
-        <v>-13600</v>
+        <v>-13200</v>
       </c>
       <c r="K32" s="3">
         <v>-10600</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>256900</v>
+        <v>249000</v>
       </c>
       <c r="E33" s="3">
-        <v>305400</v>
+        <v>296000</v>
       </c>
       <c r="F33" s="3">
-        <v>484100</v>
+        <v>469200</v>
       </c>
       <c r="G33" s="3">
-        <v>454900</v>
+        <v>440900</v>
       </c>
       <c r="H33" s="3">
-        <v>408100</v>
+        <v>395600</v>
       </c>
       <c r="I33" s="3">
-        <v>284500</v>
+        <v>275800</v>
       </c>
       <c r="J33" s="3">
-        <v>174500</v>
+        <v>169200</v>
       </c>
       <c r="K33" s="3">
         <v>137900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>256900</v>
+        <v>249000</v>
       </c>
       <c r="E35" s="3">
-        <v>305400</v>
+        <v>296000</v>
       </c>
       <c r="F35" s="3">
-        <v>484100</v>
+        <v>469200</v>
       </c>
       <c r="G35" s="3">
-        <v>454900</v>
+        <v>440900</v>
       </c>
       <c r="H35" s="3">
-        <v>408100</v>
+        <v>395600</v>
       </c>
       <c r="I35" s="3">
-        <v>284500</v>
+        <v>275800</v>
       </c>
       <c r="J35" s="3">
-        <v>174500</v>
+        <v>169200</v>
       </c>
       <c r="K35" s="3">
         <v>137900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>398200</v>
+        <v>386000</v>
       </c>
       <c r="E41" s="3">
-        <v>602200</v>
+        <v>583700</v>
       </c>
       <c r="F41" s="3">
-        <v>248900</v>
+        <v>241300</v>
       </c>
       <c r="G41" s="3">
-        <v>282600</v>
+        <v>273900</v>
       </c>
       <c r="H41" s="3">
-        <v>30100</v>
+        <v>29200</v>
       </c>
       <c r="I41" s="3">
-        <v>129600</v>
+        <v>125600</v>
       </c>
       <c r="J41" s="3">
-        <v>468200</v>
+        <v>453800</v>
       </c>
       <c r="K41" s="3">
         <v>299600</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2743500</v>
+        <v>2659200</v>
       </c>
       <c r="E42" s="3">
-        <v>2347800</v>
+        <v>2275700</v>
       </c>
       <c r="F42" s="3">
-        <v>1832200</v>
+        <v>1775900</v>
       </c>
       <c r="G42" s="3">
-        <v>1538900</v>
+        <v>1491600</v>
       </c>
       <c r="H42" s="3">
-        <v>1401000</v>
+        <v>1358000</v>
       </c>
       <c r="I42" s="3">
-        <v>1031200</v>
+        <v>999500</v>
       </c>
       <c r="J42" s="3">
-        <v>345600</v>
+        <v>335000</v>
       </c>
       <c r="K42" s="3">
         <v>273600</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>286900</v>
+        <v>278100</v>
       </c>
       <c r="E43" s="3">
-        <v>322000</v>
+        <v>312100</v>
       </c>
       <c r="F43" s="3">
-        <v>450800</v>
+        <v>437000</v>
       </c>
       <c r="G43" s="3">
-        <v>463500</v>
+        <v>449300</v>
       </c>
       <c r="H43" s="3">
-        <v>402300</v>
+        <v>389900</v>
       </c>
       <c r="I43" s="3">
-        <v>272700</v>
+        <v>264300</v>
       </c>
       <c r="J43" s="3">
-        <v>353000</v>
+        <v>342100</v>
       </c>
       <c r="K43" s="3">
         <v>156800</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="K44" s="3">
         <v>15500</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43400</v>
+        <v>42000</v>
       </c>
       <c r="E45" s="3">
-        <v>43700</v>
+        <v>42400</v>
       </c>
       <c r="F45" s="3">
-        <v>78500</v>
+        <v>76100</v>
       </c>
       <c r="G45" s="3">
-        <v>40200</v>
+        <v>39000</v>
       </c>
       <c r="H45" s="3">
-        <v>34600</v>
+        <v>33500</v>
       </c>
       <c r="I45" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="J45" s="3">
-        <v>115200</v>
+        <v>111700</v>
       </c>
       <c r="K45" s="3">
         <v>53800</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3472000</v>
+        <v>3365300</v>
       </c>
       <c r="E46" s="3">
-        <v>3315800</v>
+        <v>3213800</v>
       </c>
       <c r="F46" s="3">
-        <v>2610500</v>
+        <v>2530200</v>
       </c>
       <c r="G46" s="3">
-        <v>2325300</v>
+        <v>2253900</v>
       </c>
       <c r="H46" s="3">
-        <v>1868000</v>
+        <v>1810600</v>
       </c>
       <c r="I46" s="3">
-        <v>1458300</v>
+        <v>1413400</v>
       </c>
       <c r="J46" s="3">
-        <v>1056500</v>
+        <v>1024100</v>
       </c>
       <c r="K46" s="3">
         <v>799400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>60900</v>
+        <v>59100</v>
       </c>
       <c r="E47" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="F47" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="G47" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="H47" s="3">
-        <v>10400</v>
+        <v>10100</v>
       </c>
       <c r="I47" s="3">
-        <v>22600</v>
+        <v>21900</v>
       </c>
       <c r="J47" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="K47" s="3">
         <v>17300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52700</v>
+        <v>51000</v>
       </c>
       <c r="E48" s="3">
-        <v>73200</v>
+        <v>70900</v>
       </c>
       <c r="F48" s="3">
-        <v>88100</v>
+        <v>85300</v>
       </c>
       <c r="G48" s="3">
-        <v>51600</v>
+        <v>50000</v>
       </c>
       <c r="H48" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="I48" s="3">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="J48" s="3">
-        <v>38300</v>
+        <v>37100</v>
       </c>
       <c r="K48" s="3">
         <v>14400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>599900</v>
+        <v>581500</v>
       </c>
       <c r="E49" s="3">
-        <v>611100</v>
+        <v>592400</v>
       </c>
       <c r="F49" s="3">
-        <v>641400</v>
+        <v>621600</v>
       </c>
       <c r="G49" s="3">
-        <v>217800</v>
+        <v>211100</v>
       </c>
       <c r="H49" s="3">
-        <v>219400</v>
+        <v>212700</v>
       </c>
       <c r="I49" s="3">
-        <v>221100</v>
+        <v>214300</v>
       </c>
       <c r="J49" s="3">
-        <v>436100</v>
+        <v>422700</v>
       </c>
       <c r="K49" s="3">
         <v>214100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>38600</v>
+        <v>37400</v>
       </c>
       <c r="E52" s="3">
-        <v>25800</v>
+        <v>25000</v>
       </c>
       <c r="F52" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="G52" s="3">
-        <v>117500</v>
+        <v>113900</v>
       </c>
       <c r="H52" s="3">
-        <v>117700</v>
+        <v>114100</v>
       </c>
       <c r="I52" s="3">
-        <v>27300</v>
+        <v>26500</v>
       </c>
       <c r="J52" s="3">
-        <v>22200</v>
+        <v>21600</v>
       </c>
       <c r="K52" s="3">
         <v>3000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4224100</v>
+        <v>4094200</v>
       </c>
       <c r="E54" s="3">
-        <v>4037000</v>
+        <v>3912900</v>
       </c>
       <c r="F54" s="3">
-        <v>3373300</v>
+        <v>3269600</v>
       </c>
       <c r="G54" s="3">
-        <v>2723000</v>
+        <v>2639300</v>
       </c>
       <c r="H54" s="3">
-        <v>2239700</v>
+        <v>2170900</v>
       </c>
       <c r="I54" s="3">
-        <v>1747700</v>
+        <v>1694000</v>
       </c>
       <c r="J54" s="3">
-        <v>1335100</v>
+        <v>1294000</v>
       </c>
       <c r="K54" s="3">
         <v>1048200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="E57" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F57" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="G57" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="H57" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J57" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K57" s="3">
         <v>3300</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="K58" s="3">
         <v>24400</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>573100</v>
+        <v>555500</v>
       </c>
       <c r="E59" s="3">
-        <v>562100</v>
+        <v>544800</v>
       </c>
       <c r="F59" s="3">
-        <v>583600</v>
+        <v>565700</v>
       </c>
       <c r="G59" s="3">
-        <v>558600</v>
+        <v>541400</v>
       </c>
       <c r="H59" s="3">
-        <v>589200</v>
+        <v>571100</v>
       </c>
       <c r="I59" s="3">
-        <v>551400</v>
+        <v>534500</v>
       </c>
       <c r="J59" s="3">
-        <v>518500</v>
+        <v>502600</v>
       </c>
       <c r="K59" s="3">
         <v>272600</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>576900</v>
+        <v>559200</v>
       </c>
       <c r="E60" s="3">
-        <v>566600</v>
+        <v>549200</v>
       </c>
       <c r="F60" s="3">
-        <v>595000</v>
+        <v>576700</v>
       </c>
       <c r="G60" s="3">
-        <v>563800</v>
+        <v>546400</v>
       </c>
       <c r="H60" s="3">
-        <v>592000</v>
+        <v>573800</v>
       </c>
       <c r="I60" s="3">
-        <v>552900</v>
+        <v>535900</v>
       </c>
       <c r="J60" s="3">
-        <v>361600</v>
+        <v>350500</v>
       </c>
       <c r="K60" s="3">
         <v>300200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>80800</v>
+        <v>78300</v>
       </c>
       <c r="E62" s="3">
-        <v>86100</v>
+        <v>83400</v>
       </c>
       <c r="F62" s="3">
-        <v>104700</v>
+        <v>101500</v>
       </c>
       <c r="G62" s="3">
-        <v>83000</v>
+        <v>80500</v>
       </c>
       <c r="H62" s="3">
-        <v>68200</v>
+        <v>66100</v>
       </c>
       <c r="I62" s="3">
-        <v>66900</v>
+        <v>64800</v>
       </c>
       <c r="J62" s="3">
-        <v>70600</v>
+        <v>68400</v>
       </c>
       <c r="K62" s="3">
         <v>72700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>828300</v>
+        <v>802800</v>
       </c>
       <c r="E66" s="3">
-        <v>820900</v>
+        <v>795600</v>
       </c>
       <c r="F66" s="3">
-        <v>867800</v>
+        <v>841200</v>
       </c>
       <c r="G66" s="3">
-        <v>643500</v>
+        <v>623700</v>
       </c>
       <c r="H66" s="3">
-        <v>656900</v>
+        <v>636700</v>
       </c>
       <c r="I66" s="3">
-        <v>617400</v>
+        <v>598400</v>
       </c>
       <c r="J66" s="3">
-        <v>430900</v>
+        <v>417700</v>
       </c>
       <c r="K66" s="3">
         <v>372900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2302400</v>
+        <v>2231600</v>
       </c>
       <c r="E72" s="3">
-        <v>2105400</v>
+        <v>2040700</v>
       </c>
       <c r="F72" s="3">
-        <v>1914100</v>
+        <v>1855300</v>
       </c>
       <c r="G72" s="3">
-        <v>1520800</v>
+        <v>1474000</v>
       </c>
       <c r="H72" s="3">
-        <v>1065900</v>
+        <v>1033100</v>
       </c>
       <c r="I72" s="3">
-        <v>657800</v>
+        <v>637500</v>
       </c>
       <c r="J72" s="3">
-        <v>457900</v>
+        <v>443900</v>
       </c>
       <c r="K72" s="3">
         <v>277500</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3395800</v>
+        <v>3291400</v>
       </c>
       <c r="E76" s="3">
-        <v>3216100</v>
+        <v>3117300</v>
       </c>
       <c r="F76" s="3">
-        <v>2505500</v>
+        <v>2428500</v>
       </c>
       <c r="G76" s="3">
-        <v>2079500</v>
+        <v>2015600</v>
       </c>
       <c r="H76" s="3">
-        <v>1582900</v>
+        <v>1534200</v>
       </c>
       <c r="I76" s="3">
-        <v>1130300</v>
+        <v>1095600</v>
       </c>
       <c r="J76" s="3">
-        <v>904100</v>
+        <v>876300</v>
       </c>
       <c r="K76" s="3">
         <v>675300</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>256900</v>
+        <v>249000</v>
       </c>
       <c r="E81" s="3">
-        <v>305400</v>
+        <v>296000</v>
       </c>
       <c r="F81" s="3">
-        <v>484100</v>
+        <v>469200</v>
       </c>
       <c r="G81" s="3">
-        <v>454900</v>
+        <v>440900</v>
       </c>
       <c r="H81" s="3">
-        <v>408100</v>
+        <v>395600</v>
       </c>
       <c r="I81" s="3">
-        <v>284500</v>
+        <v>275800</v>
       </c>
       <c r="J81" s="3">
-        <v>174500</v>
+        <v>169200</v>
       </c>
       <c r="K81" s="3">
         <v>137900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>43400</v>
+        <v>42000</v>
       </c>
       <c r="E83" s="3">
-        <v>43900</v>
+        <v>42600</v>
       </c>
       <c r="F83" s="3">
-        <v>24200</v>
+        <v>23500</v>
       </c>
       <c r="G83" s="3">
-        <v>16900</v>
+        <v>16300</v>
       </c>
       <c r="H83" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="I83" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="J83" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="K83" s="3">
         <v>7900</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>364600</v>
+        <v>353400</v>
       </c>
       <c r="E89" s="3">
-        <v>500900</v>
+        <v>485500</v>
       </c>
       <c r="F89" s="3">
-        <v>472700</v>
+        <v>458200</v>
       </c>
       <c r="G89" s="3">
-        <v>410700</v>
+        <v>398100</v>
       </c>
       <c r="H89" s="3">
-        <v>442300</v>
+        <v>428700</v>
       </c>
       <c r="I89" s="3">
-        <v>350200</v>
+        <v>339400</v>
       </c>
       <c r="J89" s="3">
-        <v>223800</v>
+        <v>216900</v>
       </c>
       <c r="K89" s="3">
         <v>203500</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16600</v>
+        <v>-16100</v>
       </c>
       <c r="E91" s="3">
-        <v>-31100</v>
+        <v>-30100</v>
       </c>
       <c r="F91" s="3">
-        <v>-37500</v>
+        <v>-36400</v>
       </c>
       <c r="G91" s="3">
-        <v>-29000</v>
+        <v>-28100</v>
       </c>
       <c r="H91" s="3">
-        <v>-16200</v>
+        <v>-15700</v>
       </c>
       <c r="I91" s="3">
-        <v>-12300</v>
+        <v>-11900</v>
       </c>
       <c r="J91" s="3">
-        <v>-12600</v>
+        <v>-12200</v>
       </c>
       <c r="K91" s="3">
         <v>-12400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-442000</v>
+        <v>-428400</v>
       </c>
       <c r="E94" s="3">
-        <v>-542000</v>
+        <v>-525400</v>
       </c>
       <c r="F94" s="3">
-        <v>-424400</v>
+        <v>-411300</v>
       </c>
       <c r="G94" s="3">
-        <v>-166100</v>
+        <v>-161000</v>
       </c>
       <c r="H94" s="3">
-        <v>-469300</v>
+        <v>-454800</v>
       </c>
       <c r="I94" s="3">
-        <v>-698500</v>
+        <v>-677000</v>
       </c>
       <c r="J94" s="3">
-        <v>-73200</v>
+        <v>-70900</v>
       </c>
       <c r="K94" s="3">
         <v>-56700</v>
@@ -3997,19 +3997,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-59900</v>
+        <v>-58100</v>
       </c>
       <c r="E96" s="3">
-        <v>-95700</v>
+        <v>-92800</v>
       </c>
       <c r="F96" s="3">
-        <v>-92600</v>
+        <v>-89700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-84700</v>
+        <v>-82100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-162100</v>
+        <v>-157100</v>
       </c>
       <c r="E100" s="3">
-        <v>412000</v>
+        <v>399300</v>
       </c>
       <c r="F100" s="3">
-        <v>-77800</v>
+        <v>-75400</v>
       </c>
       <c r="G100" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="H100" s="3">
-        <v>-77300</v>
+        <v>-74900</v>
       </c>
       <c r="I100" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="J100" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K100" s="3">
         <v>4200</v>
@@ -4207,19 +4207,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23900</v>
+        <v>23200</v>
       </c>
       <c r="E101" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="F101" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="G101" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H101" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="I101" s="3">
         <v>-400</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-215500</v>
+        <v>-208900</v>
       </c>
       <c r="E102" s="3">
-        <v>364200</v>
+        <v>353000</v>
       </c>
       <c r="F102" s="3">
-        <v>-31900</v>
+        <v>-30900</v>
       </c>
       <c r="G102" s="3">
-        <v>252500</v>
+        <v>244800</v>
       </c>
       <c r="H102" s="3">
-        <v>-98700</v>
+        <v>-95700</v>
       </c>
       <c r="I102" s="3">
-        <v>-340000</v>
+        <v>-329500</v>
       </c>
       <c r="J102" s="3">
-        <v>154900</v>
+        <v>150100</v>
       </c>
       <c r="K102" s="3">
         <v>152900</v>

--- a/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ATHM_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>956300</v>
+        <v>958400</v>
       </c>
       <c r="E8" s="3">
-        <v>997100</v>
+        <v>999300</v>
       </c>
       <c r="F8" s="3">
-        <v>1193000</v>
+        <v>1195600</v>
       </c>
       <c r="G8" s="3">
-        <v>1160200</v>
+        <v>1162700</v>
       </c>
       <c r="H8" s="3">
-        <v>996600</v>
+        <v>998800</v>
       </c>
       <c r="I8" s="3">
-        <v>855600</v>
+        <v>857500</v>
       </c>
       <c r="J8" s="3">
-        <v>821400</v>
+        <v>823200</v>
       </c>
       <c r="K8" s="3">
         <v>482200</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>156800</v>
+        <v>157100</v>
       </c>
       <c r="E9" s="3">
-        <v>139000</v>
+        <v>139300</v>
       </c>
       <c r="F9" s="3">
-        <v>119100</v>
+        <v>119300</v>
       </c>
       <c r="G9" s="3">
-        <v>106100</v>
+        <v>106400</v>
       </c>
       <c r="H9" s="3">
-        <v>81100</v>
+        <v>81200</v>
       </c>
       <c r="I9" s="3">
-        <v>120400</v>
+        <v>120700</v>
       </c>
       <c r="J9" s="3">
-        <v>281600</v>
+        <v>282200</v>
       </c>
       <c r="K9" s="3">
         <v>52900</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>799500</v>
+        <v>801300</v>
       </c>
       <c r="E10" s="3">
-        <v>858100</v>
+        <v>860000</v>
       </c>
       <c r="F10" s="3">
-        <v>1073900</v>
+        <v>1076200</v>
       </c>
       <c r="G10" s="3">
-        <v>1054100</v>
+        <v>1056400</v>
       </c>
       <c r="H10" s="3">
-        <v>915500</v>
+        <v>917500</v>
       </c>
       <c r="I10" s="3">
-        <v>735200</v>
+        <v>736800</v>
       </c>
       <c r="J10" s="3">
-        <v>539800</v>
+        <v>541000</v>
       </c>
       <c r="K10" s="3">
         <v>429300</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>195200</v>
+        <v>195700</v>
       </c>
       <c r="E12" s="3">
-        <v>192600</v>
+        <v>193000</v>
       </c>
       <c r="F12" s="3">
-        <v>188000</v>
+        <v>188400</v>
       </c>
       <c r="G12" s="3">
-        <v>177900</v>
+        <v>178300</v>
       </c>
       <c r="H12" s="3">
-        <v>156400</v>
+        <v>156800</v>
       </c>
       <c r="I12" s="3">
-        <v>121100</v>
+        <v>121300</v>
       </c>
       <c r="J12" s="3">
-        <v>78700</v>
+        <v>78900</v>
       </c>
       <c r="K12" s="3">
         <v>38100</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>821800</v>
+        <v>823600</v>
       </c>
       <c r="E17" s="3">
-        <v>785100</v>
+        <v>786800</v>
       </c>
       <c r="F17" s="3">
-        <v>820300</v>
+        <v>822100</v>
       </c>
       <c r="G17" s="3">
-        <v>780200</v>
+        <v>781900</v>
       </c>
       <c r="H17" s="3">
-        <v>648300</v>
+        <v>649800</v>
       </c>
       <c r="I17" s="3">
-        <v>574100</v>
+        <v>575400</v>
       </c>
       <c r="J17" s="3">
-        <v>662500</v>
+        <v>663900</v>
       </c>
       <c r="K17" s="3">
         <v>315200</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>134500</v>
+        <v>134800</v>
       </c>
       <c r="E18" s="3">
-        <v>212100</v>
+        <v>212500</v>
       </c>
       <c r="F18" s="3">
-        <v>372700</v>
+        <v>373500</v>
       </c>
       <c r="G18" s="3">
-        <v>380000</v>
+        <v>380800</v>
       </c>
       <c r="H18" s="3">
-        <v>348200</v>
+        <v>349000</v>
       </c>
       <c r="I18" s="3">
-        <v>281500</v>
+        <v>282100</v>
       </c>
       <c r="J18" s="3">
-        <v>158900</v>
+        <v>159300</v>
       </c>
       <c r="K18" s="3">
         <v>167000</v>
@@ -1155,19 +1155,19 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>108400</v>
+        <v>108600</v>
       </c>
       <c r="E20" s="3">
-        <v>87900</v>
+        <v>88100</v>
       </c>
       <c r="F20" s="3">
-        <v>132800</v>
+        <v>133100</v>
       </c>
       <c r="G20" s="3">
-        <v>129900</v>
+        <v>130200</v>
       </c>
       <c r="H20" s="3">
-        <v>98400</v>
+        <v>98600</v>
       </c>
       <c r="I20" s="3">
         <v>30100</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>284900</v>
+        <v>285500</v>
       </c>
       <c r="E21" s="3">
-        <v>342500</v>
+        <v>343300</v>
       </c>
       <c r="F21" s="3">
-        <v>528900</v>
+        <v>530000</v>
       </c>
       <c r="G21" s="3">
-        <v>526300</v>
+        <v>527400</v>
       </c>
       <c r="H21" s="3">
-        <v>460600</v>
+        <v>461600</v>
       </c>
       <c r="I21" s="3">
-        <v>323800</v>
+        <v>324500</v>
       </c>
       <c r="J21" s="3">
-        <v>181700</v>
+        <v>182100</v>
       </c>
       <c r="K21" s="3">
         <v>185500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>242900</v>
+        <v>243400</v>
       </c>
       <c r="E23" s="3">
-        <v>300000</v>
+        <v>300600</v>
       </c>
       <c r="F23" s="3">
-        <v>505400</v>
+        <v>506500</v>
       </c>
       <c r="G23" s="3">
-        <v>509900</v>
+        <v>511000</v>
       </c>
       <c r="H23" s="3">
-        <v>446600</v>
+        <v>447600</v>
       </c>
       <c r="I23" s="3">
-        <v>311600</v>
+        <v>312300</v>
       </c>
       <c r="J23" s="3">
-        <v>172100</v>
+        <v>172400</v>
       </c>
       <c r="K23" s="3">
         <v>177600</v>
@@ -1332,13 +1332,13 @@
         <v>36000</v>
       </c>
       <c r="G24" s="3">
-        <v>68900</v>
+        <v>69100</v>
       </c>
       <c r="H24" s="3">
-        <v>52100</v>
+        <v>52200</v>
       </c>
       <c r="I24" s="3">
-        <v>36800</v>
+        <v>36900</v>
       </c>
       <c r="J24" s="3">
         <v>4500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>251400</v>
+        <v>251900</v>
       </c>
       <c r="E26" s="3">
-        <v>295300</v>
+        <v>295900</v>
       </c>
       <c r="F26" s="3">
-        <v>469500</v>
+        <v>470500</v>
       </c>
       <c r="G26" s="3">
-        <v>441000</v>
+        <v>441900</v>
       </c>
       <c r="H26" s="3">
-        <v>394500</v>
+        <v>395400</v>
       </c>
       <c r="I26" s="3">
-        <v>274800</v>
+        <v>275400</v>
       </c>
       <c r="J26" s="3">
-        <v>167600</v>
+        <v>167900</v>
       </c>
       <c r="K26" s="3">
         <v>137900</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>249000</v>
+        <v>249500</v>
       </c>
       <c r="E27" s="3">
-        <v>296000</v>
+        <v>296700</v>
       </c>
       <c r="F27" s="3">
-        <v>469200</v>
+        <v>470200</v>
       </c>
       <c r="G27" s="3">
-        <v>440900</v>
+        <v>441900</v>
       </c>
       <c r="H27" s="3">
-        <v>395600</v>
+        <v>396400</v>
       </c>
       <c r="I27" s="3">
-        <v>275800</v>
+        <v>276400</v>
       </c>
       <c r="J27" s="3">
-        <v>169200</v>
+        <v>169600</v>
       </c>
       <c r="K27" s="3">
         <v>137900</v>
@@ -1659,19 +1659,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-108400</v>
+        <v>-108600</v>
       </c>
       <c r="E32" s="3">
-        <v>-87900</v>
+        <v>-88100</v>
       </c>
       <c r="F32" s="3">
-        <v>-132800</v>
+        <v>-133100</v>
       </c>
       <c r="G32" s="3">
-        <v>-129900</v>
+        <v>-130200</v>
       </c>
       <c r="H32" s="3">
-        <v>-98400</v>
+        <v>-98600</v>
       </c>
       <c r="I32" s="3">
         <v>-30100</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>249000</v>
+        <v>249500</v>
       </c>
       <c r="E33" s="3">
-        <v>296000</v>
+        <v>296700</v>
       </c>
       <c r="F33" s="3">
-        <v>469200</v>
+        <v>470200</v>
       </c>
       <c r="G33" s="3">
-        <v>440900</v>
+        <v>441900</v>
       </c>
       <c r="H33" s="3">
-        <v>395600</v>
+        <v>396400</v>
       </c>
       <c r="I33" s="3">
-        <v>275800</v>
+        <v>276400</v>
       </c>
       <c r="J33" s="3">
-        <v>169200</v>
+        <v>169600</v>
       </c>
       <c r="K33" s="3">
         <v>137900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>249000</v>
+        <v>249500</v>
       </c>
       <c r="E35" s="3">
-        <v>296000</v>
+        <v>296700</v>
       </c>
       <c r="F35" s="3">
-        <v>469200</v>
+        <v>470200</v>
       </c>
       <c r="G35" s="3">
-        <v>440900</v>
+        <v>441900</v>
       </c>
       <c r="H35" s="3">
-        <v>395600</v>
+        <v>396400</v>
       </c>
       <c r="I35" s="3">
-        <v>275800</v>
+        <v>276400</v>
       </c>
       <c r="J35" s="3">
-        <v>169200</v>
+        <v>169600</v>
       </c>
       <c r="K35" s="3">
         <v>137900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>386000</v>
+        <v>386800</v>
       </c>
       <c r="E41" s="3">
-        <v>583700</v>
+        <v>585000</v>
       </c>
       <c r="F41" s="3">
-        <v>241300</v>
+        <v>241800</v>
       </c>
       <c r="G41" s="3">
-        <v>273900</v>
+        <v>274500</v>
       </c>
       <c r="H41" s="3">
-        <v>29200</v>
+        <v>29300</v>
       </c>
       <c r="I41" s="3">
-        <v>125600</v>
+        <v>125900</v>
       </c>
       <c r="J41" s="3">
-        <v>453800</v>
+        <v>454800</v>
       </c>
       <c r="K41" s="3">
         <v>299600</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2659200</v>
+        <v>2665000</v>
       </c>
       <c r="E42" s="3">
-        <v>2275700</v>
+        <v>2280600</v>
       </c>
       <c r="F42" s="3">
-        <v>1775900</v>
+        <v>1779700</v>
       </c>
       <c r="G42" s="3">
-        <v>1491600</v>
+        <v>1494900</v>
       </c>
       <c r="H42" s="3">
-        <v>1358000</v>
+        <v>1360900</v>
       </c>
       <c r="I42" s="3">
-        <v>999500</v>
+        <v>1001700</v>
       </c>
       <c r="J42" s="3">
-        <v>335000</v>
+        <v>335800</v>
       </c>
       <c r="K42" s="3">
         <v>273600</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>278100</v>
+        <v>278700</v>
       </c>
       <c r="E43" s="3">
-        <v>312100</v>
+        <v>312800</v>
       </c>
       <c r="F43" s="3">
-        <v>437000</v>
+        <v>437900</v>
       </c>
       <c r="G43" s="3">
-        <v>449300</v>
+        <v>450300</v>
       </c>
       <c r="H43" s="3">
-        <v>389900</v>
+        <v>390800</v>
       </c>
       <c r="I43" s="3">
-        <v>264300</v>
+        <v>264900</v>
       </c>
       <c r="J43" s="3">
-        <v>342100</v>
+        <v>342900</v>
       </c>
       <c r="K43" s="3">
         <v>156800</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42000</v>
+        <v>42100</v>
       </c>
       <c r="E45" s="3">
-        <v>42400</v>
+        <v>42500</v>
       </c>
       <c r="F45" s="3">
-        <v>76100</v>
+        <v>76300</v>
       </c>
       <c r="G45" s="3">
-        <v>39000</v>
+        <v>39100</v>
       </c>
       <c r="H45" s="3">
-        <v>33500</v>
+        <v>33600</v>
       </c>
       <c r="I45" s="3">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="J45" s="3">
-        <v>111700</v>
+        <v>111900</v>
       </c>
       <c r="K45" s="3">
         <v>53800</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3365300</v>
+        <v>3372600</v>
       </c>
       <c r="E46" s="3">
-        <v>3213800</v>
+        <v>3220800</v>
       </c>
       <c r="F46" s="3">
-        <v>2530200</v>
+        <v>2535700</v>
       </c>
       <c r="G46" s="3">
-        <v>2253900</v>
+        <v>2258800</v>
       </c>
       <c r="H46" s="3">
-        <v>1810600</v>
+        <v>1814600</v>
       </c>
       <c r="I46" s="3">
-        <v>1413400</v>
+        <v>1416500</v>
       </c>
       <c r="J46" s="3">
-        <v>1024100</v>
+        <v>1026300</v>
       </c>
       <c r="K46" s="3">
         <v>799400</v>
@@ -2162,7 +2162,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>59100</v>
+        <v>59200</v>
       </c>
       <c r="E47" s="3">
         <v>10800</v>
@@ -2180,7 +2180,7 @@
         <v>21900</v>
       </c>
       <c r="J47" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="K47" s="3">
         <v>17300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>51000</v>
+        <v>51100</v>
       </c>
       <c r="E48" s="3">
-        <v>70900</v>
+        <v>71100</v>
       </c>
       <c r="F48" s="3">
-        <v>85300</v>
+        <v>85500</v>
       </c>
       <c r="G48" s="3">
-        <v>50000</v>
+        <v>50100</v>
       </c>
       <c r="H48" s="3">
-        <v>23400</v>
+        <v>23500</v>
       </c>
       <c r="I48" s="3">
         <v>18000</v>
       </c>
       <c r="J48" s="3">
-        <v>37100</v>
+        <v>37200</v>
       </c>
       <c r="K48" s="3">
         <v>14400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>581500</v>
+        <v>582700</v>
       </c>
       <c r="E49" s="3">
-        <v>592400</v>
+        <v>593600</v>
       </c>
       <c r="F49" s="3">
-        <v>621600</v>
+        <v>623000</v>
       </c>
       <c r="G49" s="3">
-        <v>211100</v>
+        <v>211500</v>
       </c>
       <c r="H49" s="3">
-        <v>212700</v>
+        <v>213200</v>
       </c>
       <c r="I49" s="3">
-        <v>214300</v>
+        <v>214700</v>
       </c>
       <c r="J49" s="3">
-        <v>422700</v>
+        <v>423600</v>
       </c>
       <c r="K49" s="3">
         <v>214100</v>
@@ -2372,19 +2372,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>37400</v>
+        <v>37500</v>
       </c>
       <c r="E52" s="3">
         <v>25000</v>
       </c>
       <c r="F52" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="G52" s="3">
-        <v>113900</v>
+        <v>114100</v>
       </c>
       <c r="H52" s="3">
-        <v>114100</v>
+        <v>114300</v>
       </c>
       <c r="I52" s="3">
         <v>26500</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4094200</v>
+        <v>4103200</v>
       </c>
       <c r="E54" s="3">
-        <v>3912900</v>
+        <v>3921400</v>
       </c>
       <c r="F54" s="3">
-        <v>3269600</v>
+        <v>3276800</v>
       </c>
       <c r="G54" s="3">
-        <v>2639300</v>
+        <v>2645000</v>
       </c>
       <c r="H54" s="3">
-        <v>2170900</v>
+        <v>2175600</v>
       </c>
       <c r="I54" s="3">
-        <v>1694000</v>
+        <v>1697700</v>
       </c>
       <c r="J54" s="3">
-        <v>1294000</v>
+        <v>1296900</v>
       </c>
       <c r="K54" s="3">
         <v>1048200</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>555500</v>
+        <v>556700</v>
       </c>
       <c r="E59" s="3">
-        <v>544800</v>
+        <v>546000</v>
       </c>
       <c r="F59" s="3">
-        <v>565700</v>
+        <v>566900</v>
       </c>
       <c r="G59" s="3">
-        <v>541400</v>
+        <v>542600</v>
       </c>
       <c r="H59" s="3">
-        <v>571100</v>
+        <v>572300</v>
       </c>
       <c r="I59" s="3">
-        <v>534500</v>
+        <v>535600</v>
       </c>
       <c r="J59" s="3">
-        <v>502600</v>
+        <v>503700</v>
       </c>
       <c r="K59" s="3">
         <v>272600</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>559200</v>
+        <v>560400</v>
       </c>
       <c r="E60" s="3">
-        <v>549200</v>
+        <v>550400</v>
       </c>
       <c r="F60" s="3">
-        <v>576700</v>
+        <v>578000</v>
       </c>
       <c r="G60" s="3">
-        <v>546400</v>
+        <v>547600</v>
       </c>
       <c r="H60" s="3">
-        <v>573800</v>
+        <v>575100</v>
       </c>
       <c r="I60" s="3">
-        <v>535900</v>
+        <v>537000</v>
       </c>
       <c r="J60" s="3">
-        <v>350500</v>
+        <v>351300</v>
       </c>
       <c r="K60" s="3">
         <v>300200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>78300</v>
+        <v>78500</v>
       </c>
       <c r="E62" s="3">
-        <v>83400</v>
+        <v>83600</v>
       </c>
       <c r="F62" s="3">
-        <v>101500</v>
+        <v>101700</v>
       </c>
       <c r="G62" s="3">
-        <v>80500</v>
+        <v>80600</v>
       </c>
       <c r="H62" s="3">
-        <v>66100</v>
+        <v>66300</v>
       </c>
       <c r="I62" s="3">
-        <v>64800</v>
+        <v>64900</v>
       </c>
       <c r="J62" s="3">
-        <v>68400</v>
+        <v>68600</v>
       </c>
       <c r="K62" s="3">
         <v>72700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>802800</v>
+        <v>804600</v>
       </c>
       <c r="E66" s="3">
-        <v>795600</v>
+        <v>797400</v>
       </c>
       <c r="F66" s="3">
-        <v>841200</v>
+        <v>843000</v>
       </c>
       <c r="G66" s="3">
-        <v>623700</v>
+        <v>625100</v>
       </c>
       <c r="H66" s="3">
-        <v>636700</v>
+        <v>638100</v>
       </c>
       <c r="I66" s="3">
-        <v>598400</v>
+        <v>599700</v>
       </c>
       <c r="J66" s="3">
-        <v>417700</v>
+        <v>418600</v>
       </c>
       <c r="K66" s="3">
         <v>372900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2231600</v>
+        <v>2236400</v>
       </c>
       <c r="E72" s="3">
-        <v>2040700</v>
+        <v>2045100</v>
       </c>
       <c r="F72" s="3">
-        <v>1855300</v>
+        <v>1859300</v>
       </c>
       <c r="G72" s="3">
-        <v>1474000</v>
+        <v>1477200</v>
       </c>
       <c r="H72" s="3">
-        <v>1033100</v>
+        <v>1035400</v>
       </c>
       <c r="I72" s="3">
-        <v>637500</v>
+        <v>638900</v>
       </c>
       <c r="J72" s="3">
-        <v>443900</v>
+        <v>444800</v>
       </c>
       <c r="K72" s="3">
         <v>277500</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3291400</v>
+        <v>3298600</v>
       </c>
       <c r="E76" s="3">
-        <v>3117300</v>
+        <v>3124000</v>
       </c>
       <c r="F76" s="3">
-        <v>2428500</v>
+        <v>2433800</v>
       </c>
       <c r="G76" s="3">
-        <v>2015600</v>
+        <v>2020000</v>
       </c>
       <c r="H76" s="3">
-        <v>1534200</v>
+        <v>1537600</v>
       </c>
       <c r="I76" s="3">
-        <v>1095600</v>
+        <v>1098000</v>
       </c>
       <c r="J76" s="3">
-        <v>876300</v>
+        <v>878200</v>
       </c>
       <c r="K76" s="3">
         <v>675300</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>249000</v>
+        <v>249500</v>
       </c>
       <c r="E81" s="3">
-        <v>296000</v>
+        <v>296700</v>
       </c>
       <c r="F81" s="3">
-        <v>469200</v>
+        <v>470200</v>
       </c>
       <c r="G81" s="3">
-        <v>440900</v>
+        <v>441900</v>
       </c>
       <c r="H81" s="3">
-        <v>395600</v>
+        <v>396400</v>
       </c>
       <c r="I81" s="3">
-        <v>275800</v>
+        <v>276400</v>
       </c>
       <c r="J81" s="3">
-        <v>169200</v>
+        <v>169600</v>
       </c>
       <c r="K81" s="3">
         <v>137900</v>
@@ -3499,22 +3499,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>42000</v>
+        <v>42100</v>
       </c>
       <c r="E83" s="3">
-        <v>42600</v>
+        <v>42700</v>
       </c>
       <c r="F83" s="3">
         <v>23500</v>
       </c>
       <c r="G83" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="H83" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="I83" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="J83" s="3">
         <v>9600</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>353400</v>
+        <v>354200</v>
       </c>
       <c r="E89" s="3">
-        <v>485500</v>
+        <v>486600</v>
       </c>
       <c r="F89" s="3">
-        <v>458200</v>
+        <v>459200</v>
       </c>
       <c r="G89" s="3">
-        <v>398100</v>
+        <v>399000</v>
       </c>
       <c r="H89" s="3">
-        <v>428700</v>
+        <v>429600</v>
       </c>
       <c r="I89" s="3">
-        <v>339400</v>
+        <v>340200</v>
       </c>
       <c r="J89" s="3">
-        <v>216900</v>
+        <v>217400</v>
       </c>
       <c r="K89" s="3">
         <v>203500</v>
@@ -3814,13 +3814,13 @@
         <v>-16100</v>
       </c>
       <c r="E91" s="3">
-        <v>-30100</v>
+        <v>-30200</v>
       </c>
       <c r="F91" s="3">
         <v>-36400</v>
       </c>
       <c r="G91" s="3">
-        <v>-28100</v>
+        <v>-28200</v>
       </c>
       <c r="H91" s="3">
         <v>-15700</v>
@@ -3829,7 +3829,7 @@
         <v>-11900</v>
       </c>
       <c r="J91" s="3">
-        <v>-12200</v>
+        <v>-12300</v>
       </c>
       <c r="K91" s="3">
         <v>-12400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-428400</v>
+        <v>-429300</v>
       </c>
       <c r="E94" s="3">
-        <v>-525400</v>
+        <v>-526500</v>
       </c>
       <c r="F94" s="3">
-        <v>-411300</v>
+        <v>-412200</v>
       </c>
       <c r="G94" s="3">
-        <v>-161000</v>
+        <v>-161300</v>
       </c>
       <c r="H94" s="3">
-        <v>-454800</v>
+        <v>-455800</v>
       </c>
       <c r="I94" s="3">
-        <v>-677000</v>
+        <v>-678500</v>
       </c>
       <c r="J94" s="3">
-        <v>-70900</v>
+        <v>-71100</v>
       </c>
       <c r="K94" s="3">
         <v>-56700</v>
@@ -3997,19 +3997,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-58100</v>
+        <v>-58200</v>
       </c>
       <c r="E96" s="3">
-        <v>-92800</v>
+        <v>-93000</v>
       </c>
       <c r="F96" s="3">
-        <v>-89700</v>
+        <v>-89900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-82100</v>
+        <v>-82300</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-157100</v>
+        <v>-157400</v>
       </c>
       <c r="E100" s="3">
-        <v>399300</v>
+        <v>400200</v>
       </c>
       <c r="F100" s="3">
-        <v>-75400</v>
+        <v>-75500</v>
       </c>
       <c r="G100" s="3">
         <v>9500</v>
       </c>
       <c r="H100" s="3">
-        <v>-74900</v>
+        <v>-75100</v>
       </c>
       <c r="I100" s="3">
         <v>8400</v>
       </c>
       <c r="J100" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K100" s="3">
         <v>4200</v>
@@ -4210,7 +4210,7 @@
         <v>23200</v>
       </c>
       <c r="E101" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="F101" s="3">
         <v>-2400</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-208900</v>
+        <v>-209300</v>
       </c>
       <c r="E102" s="3">
-        <v>353000</v>
+        <v>353800</v>
       </c>
       <c r="F102" s="3">
-        <v>-30900</v>
+        <v>-31000</v>
       </c>
       <c r="G102" s="3">
-        <v>244800</v>
+        <v>245300</v>
       </c>
       <c r="H102" s="3">
-        <v>-95700</v>
+        <v>-95900</v>
       </c>
       <c r="I102" s="3">
-        <v>-329500</v>
+        <v>-330200</v>
       </c>
       <c r="J102" s="3">
-        <v>150100</v>
+        <v>150400</v>
       </c>
       <c r="K102" s="3">
         <v>152900</v>
